--- a/name/vnindex/20221207/VNINDEX_HOSE_5p_20221207.xlsx
+++ b/name/vnindex/20221207/VNINDEX_HOSE_5p_20221207.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2607 +454,6207 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1670404500000</v>
+        <v>1670404440000</v>
       </c>
       <c r="B2">
-        <v>59656000</v>
+        <v>27190200</v>
       </c>
       <c r="C2">
-        <v>83691600</v>
+        <v>30541100</v>
       </c>
       <c r="D2">
-        <v>52207600</v>
+        <v>51447700</v>
       </c>
       <c r="E2">
-        <v>865781777000</v>
+        <v>371825051000</v>
       </c>
       <c r="F2">
-        <v>1373726671000</v>
+        <v>514301810000</v>
       </c>
       <c r="G2">
-        <v>774872501000</v>
+        <v>764497253000</v>
       </c>
       <c r="H2">
-        <v>195555200</v>
+        <v>109179000</v>
       </c>
       <c r="I2">
-        <v>3014380949000</v>
+        <v>1650624114000</v>
       </c>
       <c r="J2" t="str">
-        <v>2022-12-07T09:15:00.000Z</v>
+        <v>2022-12-07T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>3014380949000</v>
+        <v>1650624114000</v>
       </c>
       <c r="L2">
-        <v>195555200</v>
+        <v>109179000</v>
       </c>
       <c r="M2">
-        <v>24035600</v>
+        <v>3350900</v>
       </c>
       <c r="N2">
-        <v>507944894000</v>
+        <v>142476759000</v>
       </c>
       <c r="O2">
-        <v>24035600</v>
+        <v>3350900</v>
       </c>
       <c r="P2">
-        <v>507944894000</v>
+        <v>142476759000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1670404800000</v>
+        <v>1670404560000</v>
       </c>
       <c r="B3">
-        <v>49759700</v>
+        <v>19927400</v>
       </c>
       <c r="C3">
-        <v>59644500</v>
+        <v>27541700</v>
       </c>
       <c r="D3">
-        <v>429500</v>
+        <v>537100</v>
       </c>
       <c r="E3">
-        <v>792987396000</v>
+        <v>298046313000</v>
       </c>
       <c r="F3">
-        <v>1020779523000</v>
+        <v>423272155000</v>
       </c>
       <c r="G3">
-        <v>6580453000</v>
+        <v>6825646000</v>
       </c>
       <c r="H3">
-        <v>109833700</v>
+        <v>48006200</v>
       </c>
       <c r="I3">
-        <v>1820347372000</v>
+        <v>728144114000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-07T09:20:00.000Z</v>
+        <v>2022-12-07T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>4834728321000</v>
+        <v>2378768228000</v>
       </c>
       <c r="L3">
-        <v>305388900</v>
+        <v>157185200</v>
       </c>
       <c r="M3">
-        <v>9884800</v>
+        <v>7614300</v>
       </c>
       <c r="N3">
-        <v>227792127000</v>
+        <v>125225842000</v>
       </c>
       <c r="O3">
-        <v>33920400</v>
+        <v>10965200</v>
       </c>
       <c r="P3">
-        <v>735737021000</v>
+        <v>267702601000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1670405100000</v>
+        <v>1670404680000</v>
       </c>
       <c r="B4">
-        <v>48753200</v>
+        <v>12538400</v>
       </c>
       <c r="C4">
-        <v>33046900</v>
+        <v>25608800</v>
       </c>
       <c r="D4">
-        <v>381800</v>
+        <v>222800</v>
       </c>
       <c r="E4">
-        <v>807214901000</v>
+        <v>195910413000</v>
       </c>
       <c r="F4">
-        <v>566531513000</v>
+        <v>436152706000</v>
       </c>
       <c r="G4">
-        <v>6041835000</v>
+        <v>3549602000</v>
       </c>
       <c r="H4">
-        <v>82181900</v>
+        <v>38370000</v>
       </c>
       <c r="I4">
-        <v>1379788249000</v>
+        <v>635612721000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-07T09:25:00.000Z</v>
+        <v>2022-12-07T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>6214516570000</v>
+        <v>3014380949000</v>
       </c>
       <c r="L4">
-        <v>387570800</v>
+        <v>195555200</v>
       </c>
       <c r="M4">
-        <v>-15706300</v>
+        <v>13070400</v>
       </c>
       <c r="N4">
-        <v>-240683388000</v>
+        <v>240242293000</v>
       </c>
       <c r="O4">
-        <v>18214100</v>
+        <v>24035600</v>
       </c>
       <c r="P4">
-        <v>495053633000</v>
+        <v>507944894000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1670405400000</v>
+        <v>1670404800000</v>
       </c>
       <c r="B5">
-        <v>44692100</v>
+        <v>15198300</v>
       </c>
       <c r="C5">
-        <v>23393300</v>
+        <v>25275000</v>
       </c>
       <c r="D5">
-        <v>406500</v>
+        <v>94200</v>
       </c>
       <c r="E5">
-        <v>691708470000</v>
+        <v>237301394000</v>
       </c>
       <c r="F5">
-        <v>399460563000</v>
+        <v>415981904000</v>
       </c>
       <c r="G5">
-        <v>6834081000</v>
+        <v>1917121000</v>
       </c>
       <c r="H5">
-        <v>68491900</v>
+        <v>40567500</v>
       </c>
       <c r="I5">
-        <v>1098003114000</v>
+        <v>655200419000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-07T09:30:00.000Z</v>
+        <v>2022-12-07T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>7312519684000</v>
+        <v>3669581368000</v>
       </c>
       <c r="L5">
-        <v>456062700</v>
+        <v>236122700</v>
       </c>
       <c r="M5">
-        <v>-21298800</v>
+        <v>10076700</v>
       </c>
       <c r="N5">
-        <v>-292247907000</v>
+        <v>178680510000</v>
       </c>
       <c r="O5">
-        <v>-3084700</v>
+        <v>34112300</v>
       </c>
       <c r="P5">
-        <v>202805726000</v>
+        <v>686625404000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1670405700000</v>
+        <v>1670404920000</v>
       </c>
       <c r="B6">
-        <v>17949600</v>
+        <v>19664400</v>
       </c>
       <c r="C6">
-        <v>39989600</v>
+        <v>26325800</v>
       </c>
       <c r="D6">
-        <v>295000</v>
+        <v>229800</v>
       </c>
       <c r="E6">
-        <v>292921924000</v>
+        <v>315231430000</v>
       </c>
       <c r="F6">
-        <v>679164860000</v>
+        <v>473662566000</v>
       </c>
       <c r="G6">
-        <v>5543271000</v>
+        <v>3460965000</v>
       </c>
       <c r="H6">
-        <v>58234200</v>
+        <v>46220000</v>
       </c>
       <c r="I6">
-        <v>977630055000</v>
+        <v>792354961000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-07T09:35:00.000Z</v>
+        <v>2022-12-07T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>8290149739000</v>
+        <v>4461936329000</v>
       </c>
       <c r="L6">
-        <v>514296900</v>
+        <v>282342700</v>
       </c>
       <c r="M6">
-        <v>22040000</v>
+        <v>6661400</v>
       </c>
       <c r="N6">
-        <v>386242936000</v>
+        <v>158431136000</v>
       </c>
       <c r="O6">
-        <v>18955300</v>
+        <v>40773700</v>
       </c>
       <c r="P6">
-        <v>589048662000</v>
+        <v>845056540000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1670406000000</v>
+        <v>1670405040000</v>
       </c>
       <c r="B7">
-        <v>14691100</v>
+        <v>23178800</v>
       </c>
       <c r="C7">
-        <v>32298400</v>
+        <v>17784700</v>
       </c>
       <c r="D7">
-        <v>177300</v>
+        <v>297000</v>
       </c>
       <c r="E7">
-        <v>252041651000</v>
+        <v>366797650000</v>
       </c>
       <c r="F7">
-        <v>559655958000</v>
+        <v>302433001000</v>
       </c>
       <c r="G7">
-        <v>3343625000</v>
+        <v>3801665000</v>
       </c>
       <c r="H7">
-        <v>47166800</v>
+        <v>41260500</v>
       </c>
       <c r="I7">
-        <v>815041234000</v>
+        <v>673032316000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-07T09:40:00.000Z</v>
+        <v>2022-12-07T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>9105190973000</v>
+        <v>5134968645000</v>
       </c>
       <c r="L7">
-        <v>561463700</v>
+        <v>323603200</v>
       </c>
       <c r="M7">
-        <v>17607300</v>
+        <v>-5394100</v>
       </c>
       <c r="N7">
-        <v>307614307000</v>
+        <v>-64364649000</v>
       </c>
       <c r="O7">
-        <v>36562600</v>
+        <v>35379600</v>
       </c>
       <c r="P7">
-        <v>896662969000</v>
+        <v>780691891000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1670406300000</v>
+        <v>1670405160000</v>
       </c>
       <c r="B8">
-        <v>22624600</v>
+        <v>19996100</v>
       </c>
       <c r="C8">
-        <v>25579400</v>
+        <v>11996100</v>
       </c>
       <c r="D8">
-        <v>191400</v>
+        <v>101900</v>
       </c>
       <c r="E8">
-        <v>340190571000</v>
+        <v>329579527000</v>
       </c>
       <c r="F8">
-        <v>401990652000</v>
+        <v>202113334000</v>
       </c>
       <c r="G8">
-        <v>2801940000</v>
+        <v>1856922000</v>
       </c>
       <c r="H8">
-        <v>48395400</v>
+        <v>32094100</v>
       </c>
       <c r="I8">
-        <v>744983163000</v>
+        <v>533549783000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-07T09:45:00.000Z</v>
+        <v>2022-12-07T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>9850174136000</v>
+        <v>5668518428000</v>
       </c>
       <c r="L8">
-        <v>609859100</v>
+        <v>355697300</v>
       </c>
       <c r="M8">
-        <v>2954800</v>
+        <v>-8000000</v>
       </c>
       <c r="N8">
-        <v>61800081000</v>
+        <v>-127466193000</v>
       </c>
       <c r="O8">
-        <v>39517400</v>
+        <v>27379600</v>
       </c>
       <c r="P8">
-        <v>958463050000</v>
+        <v>653225698000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1670406600000</v>
+        <v>1670405280000</v>
       </c>
       <c r="B9">
-        <v>26126700</v>
+        <v>20475300</v>
       </c>
       <c r="C9">
-        <v>21742200</v>
+        <v>11309800</v>
       </c>
       <c r="D9">
-        <v>218900</v>
+        <v>88400</v>
       </c>
       <c r="E9">
-        <v>436165950000</v>
+        <v>351292296000</v>
       </c>
       <c r="F9">
-        <v>340223209000</v>
+        <v>193120231000</v>
       </c>
       <c r="G9">
-        <v>3539618000</v>
+        <v>1585615000</v>
       </c>
       <c r="H9">
-        <v>48087800</v>
+        <v>31873500</v>
       </c>
       <c r="I9">
-        <v>779928777000</v>
+        <v>545998142000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-07T09:50:00.000Z</v>
+        <v>2022-12-07T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>10630102913000</v>
+        <v>6214516570000</v>
       </c>
       <c r="L9">
-        <v>657946900</v>
+        <v>387570800</v>
       </c>
       <c r="M9">
-        <v>-4384500</v>
+        <v>-9165500</v>
       </c>
       <c r="N9">
-        <v>-95942741000</v>
+        <v>-158172065000</v>
       </c>
       <c r="O9">
-        <v>35132900</v>
+        <v>18214100</v>
       </c>
       <c r="P9">
-        <v>862520309000</v>
+        <v>495053633000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1670406900000</v>
+        <v>1670405400000</v>
       </c>
       <c r="B10">
-        <v>17885000</v>
+        <v>19460500</v>
       </c>
       <c r="C10">
-        <v>14017800</v>
+        <v>9494200</v>
       </c>
       <c r="D10">
-        <v>145700</v>
+        <v>171400</v>
       </c>
       <c r="E10">
-        <v>288095942000</v>
+        <v>287461824000</v>
       </c>
       <c r="F10">
-        <v>255414524000</v>
+        <v>162581123000</v>
       </c>
       <c r="G10">
-        <v>2101836000</v>
+        <v>2493544000</v>
       </c>
       <c r="H10">
-        <v>32048500</v>
+        <v>29126100</v>
       </c>
       <c r="I10">
-        <v>545612302000</v>
+        <v>452536491000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-07T09:55:00.000Z</v>
+        <v>2022-12-07T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>11175715215000</v>
+        <v>6667053061000</v>
       </c>
       <c r="L10">
-        <v>689995400</v>
+        <v>416696900</v>
       </c>
       <c r="M10">
-        <v>-3867200</v>
+        <v>-9966300</v>
       </c>
       <c r="N10">
-        <v>-32681418000</v>
+        <v>-124880701000</v>
       </c>
       <c r="O10">
-        <v>31265700</v>
+        <v>8247800</v>
       </c>
       <c r="P10">
-        <v>829838891000</v>
+        <v>370172932000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1670407200000</v>
+        <v>1670405520000</v>
       </c>
       <c r="B11">
-        <v>25276000</v>
+        <v>17595000</v>
       </c>
       <c r="C11">
-        <v>11483800</v>
+        <v>9266200</v>
       </c>
       <c r="D11">
-        <v>298700</v>
+        <v>173000</v>
       </c>
       <c r="E11">
-        <v>418151303000</v>
+        <v>269840562000</v>
       </c>
       <c r="F11">
-        <v>199430596000</v>
+        <v>159486770000</v>
       </c>
       <c r="G11">
-        <v>3334405000</v>
+        <v>3117658000</v>
       </c>
       <c r="H11">
-        <v>37058500</v>
+        <v>27034200</v>
       </c>
       <c r="I11">
-        <v>620916304000</v>
+        <v>432444990000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-07T10:00:00.000Z</v>
+        <v>2022-12-07T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>11796631519000</v>
+        <v>7099498051000</v>
       </c>
       <c r="L11">
-        <v>727053900</v>
+        <v>443731100</v>
       </c>
       <c r="M11">
-        <v>-13792200</v>
+        <v>-8328800</v>
       </c>
       <c r="N11">
-        <v>-218720707000</v>
+        <v>-110353792000</v>
       </c>
       <c r="O11">
-        <v>17473500</v>
+        <v>-81000</v>
       </c>
       <c r="P11">
-        <v>611118184000</v>
+        <v>259819140000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1670407500000</v>
+        <v>1670405640000</v>
       </c>
       <c r="B12">
-        <v>72386500</v>
+        <v>12626500</v>
       </c>
       <c r="C12">
-        <v>11595800</v>
+        <v>9988000</v>
       </c>
       <c r="D12">
-        <v>326500</v>
+        <v>108800</v>
       </c>
       <c r="E12">
-        <v>1105975759000</v>
+        <v>217786700000</v>
       </c>
       <c r="F12">
-        <v>178857790000</v>
+        <v>167878704000</v>
       </c>
       <c r="G12">
-        <v>4240372000</v>
+        <v>2151444000</v>
       </c>
       <c r="H12">
-        <v>84308800</v>
+        <v>22723300</v>
       </c>
       <c r="I12">
-        <v>1289073921000</v>
+        <v>387816848000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-07T10:05:00.000Z</v>
+        <v>2022-12-07T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>13085705440000</v>
+        <v>7487314899000</v>
       </c>
       <c r="L12">
-        <v>811362700</v>
+        <v>466454400</v>
       </c>
       <c r="M12">
-        <v>-60790700</v>
+        <v>-2638500</v>
       </c>
       <c r="N12">
-        <v>-927117969000</v>
+        <v>-49907996000</v>
       </c>
       <c r="O12">
-        <v>-43317200</v>
+        <v>-2719500</v>
       </c>
       <c r="P12">
-        <v>-315999785000</v>
+        <v>209911144000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1670407800000</v>
+        <v>1670405760000</v>
       </c>
       <c r="B13">
-        <v>50543700</v>
+        <v>6285600</v>
       </c>
       <c r="C13">
-        <v>22672000</v>
+        <v>16952700</v>
       </c>
       <c r="D13">
-        <v>354100</v>
+        <v>114100</v>
       </c>
       <c r="E13">
-        <v>764371255000</v>
+        <v>104970473000</v>
       </c>
       <c r="F13">
-        <v>364348693000</v>
+        <v>295333866000</v>
       </c>
       <c r="G13">
-        <v>6145037000</v>
+        <v>2448590000</v>
       </c>
       <c r="H13">
-        <v>73569800</v>
+        <v>23352400</v>
       </c>
       <c r="I13">
-        <v>1134864985000</v>
+        <v>402752929000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-07T10:10:00.000Z</v>
+        <v>2022-12-07T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>14220570425000</v>
+        <v>7890067828000</v>
       </c>
       <c r="L13">
-        <v>884932500</v>
+        <v>489806800</v>
       </c>
       <c r="M13">
-        <v>-27871700</v>
+        <v>10667100</v>
       </c>
       <c r="N13">
-        <v>-400022562000</v>
+        <v>190363393000</v>
       </c>
       <c r="O13">
-        <v>-71188900</v>
+        <v>7947600</v>
       </c>
       <c r="P13">
-        <v>-716022347000</v>
+        <v>400274537000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1670408100000</v>
+        <v>1670405880000</v>
       </c>
       <c r="B14">
-        <v>15879600</v>
+        <v>6674100</v>
       </c>
       <c r="C14">
-        <v>25230200</v>
+        <v>17681800</v>
       </c>
       <c r="D14">
-        <v>276500</v>
+        <v>134200</v>
       </c>
       <c r="E14">
-        <v>236834308000</v>
+        <v>104570835000</v>
       </c>
       <c r="F14">
-        <v>411580466000</v>
+        <v>293344960000</v>
       </c>
       <c r="G14">
-        <v>4698509000</v>
+        <v>2166116000</v>
       </c>
       <c r="H14">
-        <v>41386300</v>
+        <v>24490100</v>
       </c>
       <c r="I14">
-        <v>653113283000</v>
+        <v>400081911000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-07T10:15:00.000Z</v>
+        <v>2022-12-07T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>14873683708000</v>
+        <v>8290149739000</v>
       </c>
       <c r="L14">
-        <v>926318800</v>
+        <v>514296900</v>
       </c>
       <c r="M14">
-        <v>9350600</v>
+        <v>11007700</v>
       </c>
       <c r="N14">
-        <v>174746158000</v>
+        <v>188774125000</v>
       </c>
       <c r="O14">
-        <v>-61838300</v>
+        <v>18955300</v>
       </c>
       <c r="P14">
-        <v>-541276189000</v>
+        <v>589048662000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1670408400000</v>
+        <v>1670406000000</v>
       </c>
       <c r="B15">
-        <v>19240700</v>
+        <v>5755300</v>
       </c>
       <c r="C15">
-        <v>9352200</v>
+        <v>14347300</v>
       </c>
       <c r="D15">
-        <v>89800</v>
+        <v>52800</v>
       </c>
       <c r="E15">
-        <v>305608618000</v>
+        <v>99838031000</v>
       </c>
       <c r="F15">
-        <v>155843648000</v>
+        <v>218528579000</v>
       </c>
       <c r="G15">
-        <v>1135206000</v>
+        <v>1522179000</v>
       </c>
       <c r="H15">
-        <v>28682700</v>
+        <v>20155400</v>
       </c>
       <c r="I15">
-        <v>462587472000</v>
+        <v>319888789000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-07T10:20:00.000Z</v>
+        <v>2022-12-07T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>15336271180000</v>
+        <v>8610038528000</v>
       </c>
       <c r="L15">
-        <v>955001500</v>
+        <v>534452300</v>
       </c>
       <c r="M15">
-        <v>-9888500</v>
+        <v>8592000</v>
       </c>
       <c r="N15">
-        <v>-149764970000</v>
+        <v>118690548000</v>
       </c>
       <c r="O15">
-        <v>-71726800</v>
+        <v>27547300</v>
       </c>
       <c r="P15">
-        <v>-691041159000</v>
+        <v>707739210000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1670408700000</v>
+        <v>1670406120000</v>
       </c>
       <c r="B16">
-        <v>41124900</v>
+        <v>5747700</v>
       </c>
       <c r="C16">
-        <v>9012700</v>
+        <v>11772900</v>
       </c>
       <c r="D16">
-        <v>83100</v>
+        <v>104500</v>
       </c>
       <c r="E16">
-        <v>639132687000</v>
+        <v>99208095000</v>
       </c>
       <c r="F16">
-        <v>151663697000</v>
+        <v>227415806000</v>
       </c>
       <c r="G16">
-        <v>926378000</v>
+        <v>1485563000</v>
       </c>
       <c r="H16">
-        <v>50220700</v>
+        <v>17625100</v>
       </c>
       <c r="I16">
-        <v>791722762000</v>
+        <v>328109464000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-07T10:25:00.000Z</v>
+        <v>2022-12-07T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>16127993942000</v>
+        <v>8938147992000</v>
       </c>
       <c r="L16">
-        <v>1005222200</v>
+        <v>552077400</v>
       </c>
       <c r="M16">
-        <v>-32112200</v>
+        <v>6025200</v>
       </c>
       <c r="N16">
-        <v>-487468990000</v>
+        <v>128207711000</v>
       </c>
       <c r="O16">
-        <v>-103839000</v>
+        <v>33572500</v>
       </c>
       <c r="P16">
-        <v>-1178510149000</v>
+        <v>835946921000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1670409000000</v>
+        <v>1670406240000</v>
       </c>
       <c r="B17">
-        <v>43075100</v>
+        <v>8128200</v>
       </c>
       <c r="C17">
-        <v>17117800</v>
+        <v>11203200</v>
       </c>
       <c r="D17">
-        <v>275500</v>
+        <v>53800</v>
       </c>
       <c r="E17">
-        <v>657996845000</v>
+        <v>127192162000</v>
       </c>
       <c r="F17">
-        <v>286354903000</v>
+        <v>204162511000</v>
       </c>
       <c r="G17">
-        <v>4784456000</v>
+        <v>1009964000</v>
       </c>
       <c r="H17">
-        <v>60468400</v>
+        <v>19385200</v>
       </c>
       <c r="I17">
-        <v>949136204000</v>
+        <v>332364637000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-07T10:30:00.000Z</v>
+        <v>2022-12-07T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>17077130146000</v>
+        <v>9270512629000</v>
       </c>
       <c r="L17">
-        <v>1065690600</v>
+        <v>571462600</v>
       </c>
       <c r="M17">
-        <v>-25957300</v>
+        <v>3075000</v>
       </c>
       <c r="N17">
-        <v>-371641942000</v>
+        <v>76970349000</v>
       </c>
       <c r="O17">
-        <v>-129796300</v>
+        <v>36647500</v>
       </c>
       <c r="P17">
-        <v>-1550152091000</v>
+        <v>912917270000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1670409300000</v>
+        <v>1670406360000</v>
       </c>
       <c r="B18">
-        <v>29930100</v>
+        <v>8936700</v>
       </c>
       <c r="C18">
-        <v>17540900</v>
+        <v>12635000</v>
       </c>
       <c r="D18">
-        <v>90600</v>
+        <v>104000</v>
       </c>
       <c r="E18">
-        <v>455810402000</v>
+        <v>136334815000</v>
       </c>
       <c r="F18">
-        <v>259910906000</v>
+        <v>172454441000</v>
       </c>
       <c r="G18">
-        <v>1838844000</v>
+        <v>1068004000</v>
       </c>
       <c r="H18">
-        <v>47561600</v>
+        <v>21675700</v>
       </c>
       <c r="I18">
-        <v>717560152000</v>
+        <v>309857260000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-07T10:35:00.000Z</v>
+        <v>2022-12-07T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>17794690298000</v>
+        <v>9580369889000</v>
       </c>
       <c r="L18">
-        <v>1113252200</v>
+        <v>593138300</v>
       </c>
       <c r="M18">
-        <v>-12389200</v>
+        <v>3698300</v>
       </c>
       <c r="N18">
-        <v>-195899496000</v>
+        <v>36119626000</v>
       </c>
       <c r="O18">
-        <v>-142185500</v>
+        <v>40345800</v>
       </c>
       <c r="P18">
-        <v>-1746051587000</v>
+        <v>949036896000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1670409600000</v>
+        <v>1670406480000</v>
       </c>
       <c r="B19">
-        <v>28867300</v>
+        <v>8747800</v>
       </c>
       <c r="C19">
-        <v>14694800</v>
+        <v>7919400</v>
       </c>
       <c r="D19">
-        <v>321400</v>
+        <v>53600</v>
       </c>
       <c r="E19">
-        <v>440970481000</v>
+        <v>129659119000</v>
       </c>
       <c r="F19">
-        <v>230450407000</v>
+        <v>139085273000</v>
       </c>
       <c r="G19">
-        <v>6198244000</v>
+        <v>1059855000</v>
       </c>
       <c r="H19">
-        <v>43883500</v>
+        <v>16720800</v>
       </c>
       <c r="I19">
-        <v>677619132000</v>
+        <v>269804247000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-07T10:40:00.000Z</v>
+        <v>2022-12-07T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>18472309430000</v>
+        <v>9850174136000</v>
       </c>
       <c r="L19">
-        <v>1157135700</v>
+        <v>609859100</v>
       </c>
       <c r="M19">
-        <v>-14172500</v>
+        <v>-828400</v>
       </c>
       <c r="N19">
-        <v>-210520074000</v>
+        <v>9426154000</v>
       </c>
       <c r="O19">
-        <v>-156358000</v>
+        <v>39517400</v>
       </c>
       <c r="P19">
-        <v>-1956571661000</v>
+        <v>958463050000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1670409900000</v>
+        <v>1670406600000</v>
       </c>
       <c r="B20">
-        <v>14908200</v>
+        <v>9190900</v>
       </c>
       <c r="C20">
-        <v>25058200</v>
+        <v>8247200</v>
       </c>
       <c r="D20">
-        <v>348100</v>
+        <v>45200</v>
       </c>
       <c r="E20">
-        <v>242981641000</v>
+        <v>161376240000</v>
       </c>
       <c r="F20">
-        <v>420121293000</v>
+        <v>128147124000</v>
       </c>
       <c r="G20">
-        <v>4371609000</v>
+        <v>602563000</v>
       </c>
       <c r="H20">
-        <v>40314500</v>
+        <v>17483300</v>
       </c>
       <c r="I20">
-        <v>667474543000</v>
+        <v>290125927000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-07T10:45:00.000Z</v>
+        <v>2022-12-07T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>19139783973000</v>
+        <v>10140300063000</v>
       </c>
       <c r="L20">
-        <v>1197450200</v>
+        <v>627342400</v>
       </c>
       <c r="M20">
-        <v>10150000</v>
+        <v>-943700</v>
       </c>
       <c r="N20">
-        <v>177139652000</v>
+        <v>-33229116000</v>
       </c>
       <c r="O20">
-        <v>-146208000</v>
+        <v>38573700</v>
       </c>
       <c r="P20">
-        <v>-1779432009000</v>
+        <v>925233934000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1670410200000</v>
+        <v>1670406720000</v>
       </c>
       <c r="B21">
-        <v>9199900</v>
+        <v>11049400</v>
       </c>
       <c r="C21">
-        <v>23235300</v>
+        <v>9655800</v>
       </c>
       <c r="D21">
-        <v>125000</v>
+        <v>149800</v>
       </c>
       <c r="E21">
-        <v>151869654000</v>
+        <v>183917879000</v>
       </c>
       <c r="F21">
-        <v>395727725000</v>
+        <v>142902005000</v>
       </c>
       <c r="G21">
-        <v>2619251000</v>
+        <v>2418351000</v>
       </c>
       <c r="H21">
-        <v>32560200</v>
+        <v>20855000</v>
       </c>
       <c r="I21">
-        <v>550216630000</v>
+        <v>329238235000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-07T10:50:00.000Z</v>
+        <v>2022-12-07T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>19690000603000</v>
+        <v>10469538298000</v>
       </c>
       <c r="L21">
-        <v>1230010400</v>
+        <v>648197400</v>
       </c>
       <c r="M21">
-        <v>14035400</v>
+        <v>-1393600</v>
       </c>
       <c r="N21">
-        <v>243858071000</v>
+        <v>-41015874000</v>
       </c>
       <c r="O21">
-        <v>-132172600</v>
+        <v>37180100</v>
       </c>
       <c r="P21">
-        <v>-1535573938000</v>
+        <v>884218060000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1670410500000</v>
+        <v>1670406840000</v>
       </c>
       <c r="B22">
-        <v>9719200</v>
+        <v>10148100</v>
       </c>
       <c r="C22">
-        <v>20763100</v>
+        <v>6766800</v>
       </c>
       <c r="D22">
-        <v>220400</v>
+        <v>39400</v>
       </c>
       <c r="E22">
-        <v>174330149000</v>
+        <v>155647887000</v>
       </c>
       <c r="F22">
-        <v>404346263000</v>
+        <v>123643175000</v>
       </c>
       <c r="G22">
-        <v>5159459000</v>
+        <v>824931000</v>
       </c>
       <c r="H22">
-        <v>30702700</v>
+        <v>16954300</v>
       </c>
       <c r="I22">
-        <v>583835871000</v>
+        <v>280115993000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-07T10:55:00.000Z</v>
+        <v>2022-12-07T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>20273836474000</v>
+        <v>10749654291000</v>
       </c>
       <c r="L22">
-        <v>1260713100</v>
+        <v>665151700</v>
       </c>
       <c r="M22">
-        <v>11043900</v>
+        <v>-3381300</v>
       </c>
       <c r="N22">
-        <v>230016114000</v>
+        <v>-32004712000</v>
       </c>
       <c r="O22">
-        <v>-121128700</v>
+        <v>33798800</v>
       </c>
       <c r="P22">
-        <v>-1305557824000</v>
+        <v>852213348000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1670410800000</v>
+        <v>1670406960000</v>
       </c>
       <c r="B23">
-        <v>14041700</v>
+        <v>7423500</v>
       </c>
       <c r="C23">
-        <v>35190000</v>
+        <v>5340200</v>
       </c>
       <c r="D23">
-        <v>449900</v>
+        <v>65600</v>
       </c>
       <c r="E23">
-        <v>215075653000</v>
+        <v>117062610000</v>
       </c>
       <c r="F23">
-        <v>573535844000</v>
+        <v>98967856000</v>
       </c>
       <c r="G23">
-        <v>7225406000</v>
+        <v>999884000</v>
       </c>
       <c r="H23">
-        <v>49681600</v>
+        <v>12829300</v>
       </c>
       <c r="I23">
-        <v>795836903000</v>
+        <v>217030350000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-07T11:00:00.000Z</v>
+        <v>2022-12-07T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>21069673377000</v>
+        <v>10966684641000</v>
       </c>
       <c r="L23">
-        <v>1310394700</v>
+        <v>677981000</v>
       </c>
       <c r="M23">
-        <v>21148300</v>
+        <v>-2083300</v>
       </c>
       <c r="N23">
-        <v>358460191000</v>
+        <v>-18094754000</v>
       </c>
       <c r="O23">
-        <v>-99980400</v>
+        <v>31715500</v>
       </c>
       <c r="P23">
-        <v>-947097633000</v>
+        <v>834118594000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1670411100000</v>
+        <v>1670407080000</v>
       </c>
       <c r="B24">
-        <v>15975600</v>
+        <v>6199800</v>
       </c>
       <c r="C24">
-        <v>21680600</v>
+        <v>5750000</v>
       </c>
       <c r="D24">
-        <v>181700</v>
+        <v>64600</v>
       </c>
       <c r="E24">
-        <v>280783917000</v>
+        <v>106257276000</v>
       </c>
       <c r="F24">
-        <v>396407679000</v>
+        <v>101977573000</v>
       </c>
       <c r="G24">
-        <v>3025467000</v>
+        <v>795725000</v>
       </c>
       <c r="H24">
-        <v>37837900</v>
+        <v>12014400</v>
       </c>
       <c r="I24">
-        <v>680217063000</v>
+        <v>209030574000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-07T11:05:00.000Z</v>
+        <v>2022-12-07T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>21749890440000</v>
+        <v>11175715215000</v>
       </c>
       <c r="L24">
-        <v>1348232600</v>
+        <v>689995400</v>
       </c>
       <c r="M24">
-        <v>5705000</v>
+        <v>-449800</v>
       </c>
       <c r="N24">
-        <v>115623762000</v>
+        <v>-4279703000</v>
       </c>
       <c r="O24">
-        <v>-94275400</v>
+        <v>31265700</v>
       </c>
       <c r="P24">
-        <v>-831473871000</v>
+        <v>829838891000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1670411400000</v>
+        <v>1670407200000</v>
       </c>
       <c r="B25">
-        <v>12940200</v>
+        <v>7831200</v>
       </c>
       <c r="C25">
-        <v>31277400</v>
+        <v>5781100</v>
       </c>
       <c r="D25">
-        <v>67600</v>
+        <v>196200</v>
       </c>
       <c r="E25">
-        <v>220870376000</v>
+        <v>128094280000</v>
       </c>
       <c r="F25">
-        <v>543937587000</v>
+        <v>102858786000</v>
       </c>
       <c r="G25">
-        <v>1471120000</v>
+        <v>1677830000</v>
       </c>
       <c r="H25">
-        <v>44285200</v>
+        <v>13808500</v>
       </c>
       <c r="I25">
-        <v>766279083000</v>
+        <v>232630896000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-07T11:10:00.000Z</v>
+        <v>2022-12-07T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>22516169523000</v>
+        <v>11408346111000</v>
       </c>
       <c r="L25">
-        <v>1392517800</v>
+        <v>703803900</v>
       </c>
       <c r="M25">
-        <v>18337200</v>
+        <v>-2050100</v>
       </c>
       <c r="N25">
-        <v>323067211000</v>
+        <v>-25235494000</v>
       </c>
       <c r="O25">
-        <v>-75938200</v>
+        <v>29215600</v>
       </c>
       <c r="P25">
-        <v>-508406660000</v>
+        <v>804603397000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1670411700000</v>
+        <v>1670407320000</v>
       </c>
       <c r="B26">
-        <v>12928200</v>
+        <v>10468500</v>
       </c>
       <c r="C26">
-        <v>36546000</v>
+        <v>3867200</v>
       </c>
       <c r="D26">
-        <v>124700</v>
+        <v>37700</v>
       </c>
       <c r="E26">
-        <v>227453405000</v>
+        <v>175060627000</v>
       </c>
       <c r="F26">
-        <v>579233118000</v>
+        <v>67010925000</v>
       </c>
       <c r="G26">
-        <v>2541883000</v>
+        <v>686997000</v>
       </c>
       <c r="H26">
-        <v>49598900</v>
+        <v>14373400</v>
       </c>
       <c r="I26">
-        <v>809228406000</v>
+        <v>242758549000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-07T11:15:00.000Z</v>
+        <v>2022-12-07T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>23325397929000</v>
+        <v>11651104660000</v>
       </c>
       <c r="L26">
-        <v>1442116700</v>
+        <v>718177300</v>
       </c>
       <c r="M26">
-        <v>23617800</v>
+        <v>-6601300</v>
       </c>
       <c r="N26">
-        <v>351779713000</v>
+        <v>-108049702000</v>
       </c>
       <c r="O26">
-        <v>-52320400</v>
+        <v>22614300</v>
       </c>
       <c r="P26">
-        <v>-156626947000</v>
+        <v>696553695000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1670412000000</v>
+        <v>1670407440000</v>
       </c>
       <c r="B27">
-        <v>15967700</v>
+        <v>17145100</v>
       </c>
       <c r="C27">
-        <v>21575200</v>
+        <v>3753900</v>
       </c>
       <c r="D27">
-        <v>139400</v>
+        <v>152400</v>
       </c>
       <c r="E27">
-        <v>273196020000</v>
+        <v>270276035000</v>
       </c>
       <c r="F27">
-        <v>365870386000</v>
+        <v>59463365000</v>
       </c>
       <c r="G27">
-        <v>1838363000</v>
+        <v>1948439000</v>
       </c>
       <c r="H27">
-        <v>37682300</v>
+        <v>21051400</v>
       </c>
       <c r="I27">
-        <v>640904769000</v>
+        <v>331687839000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-07T11:20:00.000Z</v>
+        <v>2022-12-07T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>23966302698000</v>
+        <v>11982792499000</v>
       </c>
       <c r="L27">
-        <v>1479799000</v>
+        <v>739228700</v>
       </c>
       <c r="M27">
-        <v>5607500</v>
+        <v>-13391200</v>
       </c>
       <c r="N27">
-        <v>92674366000</v>
+        <v>-210812670000</v>
       </c>
       <c r="O27">
-        <v>-46712900</v>
+        <v>9223100</v>
       </c>
       <c r="P27">
-        <v>-63952581000</v>
+        <v>485741025000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1670412300000</v>
+        <v>1670407560000</v>
       </c>
       <c r="B28">
-        <v>19229800</v>
+        <v>26264400</v>
       </c>
       <c r="C28">
-        <v>10086000</v>
+        <v>3823100</v>
       </c>
       <c r="D28">
-        <v>123400</v>
+        <v>129000</v>
       </c>
       <c r="E28">
-        <v>320833108000</v>
+        <v>404062202000</v>
       </c>
       <c r="F28">
-        <v>198304502000</v>
+        <v>63698278000</v>
       </c>
       <c r="G28">
-        <v>2303020000</v>
+        <v>1461092000</v>
       </c>
       <c r="H28">
-        <v>29439200</v>
+        <v>30216500</v>
       </c>
       <c r="I28">
-        <v>521440630000</v>
+        <v>469221572000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-07T11:25:00.000Z</v>
+        <v>2022-12-07T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>24487743328000</v>
+        <v>12452014071000</v>
       </c>
       <c r="L28">
-        <v>1509238200</v>
+        <v>769445200</v>
       </c>
       <c r="M28">
-        <v>-9143800</v>
+        <v>-22441300</v>
       </c>
       <c r="N28">
-        <v>-122528606000</v>
+        <v>-340363924000</v>
       </c>
       <c r="O28">
-        <v>-55856700</v>
+        <v>-13218200</v>
       </c>
       <c r="P28">
-        <v>-186481187000</v>
+        <v>145377101000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1670412600000</v>
+        <v>1670407680000</v>
       </c>
       <c r="B29">
-        <v>6300</v>
+        <v>35953300</v>
       </c>
       <c r="C29">
-        <v>88800</v>
+        <v>5854300</v>
       </c>
       <c r="D29">
-        <v>1900</v>
+        <v>109900</v>
       </c>
       <c r="E29">
-        <v>72861000</v>
+        <v>546633918000</v>
       </c>
       <c r="F29">
-        <v>1419209000</v>
+        <v>85257032000</v>
       </c>
       <c r="G29">
-        <v>136330000</v>
+        <v>1800419000</v>
       </c>
       <c r="H29">
-        <v>97000</v>
+        <v>41917500</v>
       </c>
       <c r="I29">
-        <v>1628400000</v>
+        <v>633691369000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-07T11:30:00.000Z</v>
+        <v>2022-12-07T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>24489371728000</v>
+        <v>13085705440000</v>
       </c>
       <c r="L29">
-        <v>1509335200</v>
+        <v>811362700</v>
       </c>
       <c r="M29">
-        <v>82500</v>
+        <v>-30099000</v>
       </c>
       <c r="N29">
-        <v>1346348000</v>
+        <v>-461376886000</v>
       </c>
       <c r="O29">
-        <v>-55774200</v>
+        <v>-43317200</v>
       </c>
       <c r="P29">
-        <v>-185134839000</v>
+        <v>-315999785000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1670418000000</v>
+        <v>1670407800000</v>
       </c>
       <c r="B30">
-        <v>43228300</v>
+        <v>30783800</v>
       </c>
       <c r="C30">
-        <v>31658400</v>
+        <v>6103600</v>
       </c>
       <c r="D30">
-        <v>1370600</v>
+        <v>135500</v>
       </c>
       <c r="E30">
-        <v>688016008000</v>
+        <v>443044391000</v>
       </c>
       <c r="F30">
-        <v>568773540000</v>
+        <v>97421656000</v>
       </c>
       <c r="G30">
-        <v>22048567000</v>
+        <v>1809807000</v>
       </c>
       <c r="H30">
-        <v>76257300</v>
+        <v>37022900</v>
       </c>
       <c r="I30">
-        <v>1278838115000</v>
+        <v>542275854000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-07T13:00:00.000Z</v>
+        <v>2022-12-07T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>25768209843000</v>
+        <v>13627981294000</v>
       </c>
       <c r="L30">
-        <v>1585592500</v>
+        <v>848385600</v>
       </c>
       <c r="M30">
-        <v>-11569900</v>
+        <v>-24680200</v>
       </c>
       <c r="N30">
-        <v>-119242468000</v>
+        <v>-345622735000</v>
       </c>
       <c r="O30">
-        <v>-67344100</v>
+        <v>-67997400</v>
       </c>
       <c r="P30">
-        <v>-304377307000</v>
+        <v>-661622520000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1670418300000</v>
+        <v>1670407920000</v>
       </c>
       <c r="B31">
-        <v>33970900</v>
+        <v>15286200</v>
       </c>
       <c r="C31">
-        <v>16683900</v>
+        <v>10475100</v>
       </c>
       <c r="D31">
-        <v>431100</v>
+        <v>198100</v>
       </c>
       <c r="E31">
-        <v>526922384000</v>
+        <v>244856114000</v>
       </c>
       <c r="F31">
-        <v>303385013000</v>
+        <v>169990629000</v>
       </c>
       <c r="G31">
-        <v>8363025000</v>
+        <v>4168662000</v>
       </c>
       <c r="H31">
-        <v>51085900</v>
+        <v>25959400</v>
       </c>
       <c r="I31">
-        <v>838670422000</v>
+        <v>419015405000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-07T13:05:00.000Z</v>
+        <v>2022-12-07T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>26606880265000</v>
+        <v>14046996699000</v>
       </c>
       <c r="L31">
-        <v>1636678400</v>
+        <v>874345000</v>
       </c>
       <c r="M31">
-        <v>-17287000</v>
+        <v>-4811100</v>
       </c>
       <c r="N31">
-        <v>-223537371000</v>
+        <v>-74865485000</v>
       </c>
       <c r="O31">
-        <v>-84631100</v>
+        <v>-72808500</v>
       </c>
       <c r="P31">
-        <v>-527914678000</v>
+        <v>-736488005000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1670418600000</v>
+        <v>1670408040000</v>
       </c>
       <c r="B32">
-        <v>33787100</v>
+        <v>8114300</v>
       </c>
       <c r="C32">
-        <v>23585200</v>
+        <v>11253300</v>
       </c>
       <c r="D32">
-        <v>551100</v>
+        <v>144900</v>
       </c>
       <c r="E32">
-        <v>543670816000</v>
+        <v>129308691000</v>
       </c>
       <c r="F32">
-        <v>424895190000</v>
+        <v>182096987000</v>
       </c>
       <c r="G32">
-        <v>8002199000</v>
+        <v>1623584000</v>
       </c>
       <c r="H32">
-        <v>57923400</v>
+        <v>19512500</v>
       </c>
       <c r="I32">
-        <v>976568205000</v>
+        <v>313029262000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-07T13:10:00.000Z</v>
+        <v>2022-12-07T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>27583448470000</v>
+        <v>14360025961000</v>
       </c>
       <c r="L32">
-        <v>1694601800</v>
+        <v>893857500</v>
       </c>
       <c r="M32">
-        <v>-10201900</v>
+        <v>3139000</v>
       </c>
       <c r="N32">
-        <v>-118775626000</v>
+        <v>52788296000</v>
       </c>
       <c r="O32">
-        <v>-94833000</v>
+        <v>-69669500</v>
       </c>
       <c r="P32">
-        <v>-646690304000</v>
+        <v>-683699709000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1670418900000</v>
+        <v>1670408160000</v>
       </c>
       <c r="B33">
-        <v>27251600</v>
+        <v>6417100</v>
       </c>
       <c r="C33">
-        <v>30501700</v>
+        <v>10459000</v>
       </c>
       <c r="D33">
-        <v>279600</v>
+        <v>51100</v>
       </c>
       <c r="E33">
-        <v>488421967000</v>
+        <v>90647782000</v>
       </c>
       <c r="F33">
-        <v>576854195000</v>
+        <v>166802302000</v>
       </c>
       <c r="G33">
-        <v>5074956000</v>
+        <v>899060000</v>
       </c>
       <c r="H33">
-        <v>58032900</v>
+        <v>16927200</v>
       </c>
       <c r="I33">
-        <v>1070351118000</v>
+        <v>258349144000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-07T13:15:00.000Z</v>
+        <v>2022-12-07T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>28653799588000</v>
+        <v>14618375105000</v>
       </c>
       <c r="L33">
-        <v>1752634700</v>
+        <v>910784700</v>
       </c>
       <c r="M33">
-        <v>3250100</v>
+        <v>4041900</v>
       </c>
       <c r="N33">
-        <v>88432228000</v>
+        <v>76154520000</v>
       </c>
       <c r="O33">
-        <v>-91582900</v>
+        <v>-65627600</v>
       </c>
       <c r="P33">
-        <v>-558258076000</v>
+        <v>-607545189000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1670419200000</v>
+        <v>1670408280000</v>
       </c>
       <c r="B34">
-        <v>42351700</v>
+        <v>5821900</v>
       </c>
       <c r="C34">
-        <v>16127400</v>
+        <v>9611200</v>
       </c>
       <c r="D34">
-        <v>519500</v>
+        <v>101000</v>
       </c>
       <c r="E34">
-        <v>707996619000</v>
+        <v>93348585000</v>
       </c>
       <c r="F34">
-        <v>278194663000</v>
+        <v>159617585000</v>
       </c>
       <c r="G34">
-        <v>6796548000</v>
+        <v>2342433000</v>
       </c>
       <c r="H34">
-        <v>58998600</v>
+        <v>15534100</v>
       </c>
       <c r="I34">
-        <v>992987830000</v>
+        <v>255308603000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-07T13:20:00.000Z</v>
+        <v>2022-12-07T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>29646787418000</v>
+        <v>14873683708000</v>
       </c>
       <c r="L34">
-        <v>1811633300</v>
+        <v>926318800</v>
       </c>
       <c r="M34">
-        <v>-26224300</v>
+        <v>3789300</v>
       </c>
       <c r="N34">
-        <v>-429801956000</v>
+        <v>66269000000</v>
       </c>
       <c r="O34">
-        <v>-117807200</v>
+        <v>-61838300</v>
       </c>
       <c r="P34">
-        <v>-988060032000</v>
+        <v>-541276189000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1670419500000</v>
+        <v>1670408400000</v>
       </c>
       <c r="B35">
-        <v>50385400</v>
+        <v>7328400</v>
       </c>
       <c r="C35">
-        <v>22947000</v>
+        <v>4557900</v>
       </c>
       <c r="D35">
-        <v>448900</v>
+        <v>45600</v>
       </c>
       <c r="E35">
-        <v>824964771000</v>
+        <v>127248211000</v>
       </c>
       <c r="F35">
-        <v>413910066000</v>
+        <v>77697903000</v>
       </c>
       <c r="G35">
-        <v>6613239000</v>
+        <v>625190000</v>
       </c>
       <c r="H35">
-        <v>73781300</v>
+        <v>11931900</v>
       </c>
       <c r="I35">
-        <v>1245488076000</v>
+        <v>205571304000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-07T13:25:00.000Z</v>
+        <v>2022-12-07T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>30892275494000</v>
+        <v>15079255012000</v>
       </c>
       <c r="L35">
-        <v>1885414600</v>
+        <v>938250700</v>
       </c>
       <c r="M35">
-        <v>-27438400</v>
+        <v>-2770500</v>
       </c>
       <c r="N35">
-        <v>-411054705000</v>
+        <v>-49550308000</v>
       </c>
       <c r="O35">
-        <v>-145245600</v>
+        <v>-64608800</v>
       </c>
       <c r="P35">
-        <v>-1399114737000</v>
+        <v>-590826497000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1670419800000</v>
+        <v>1670408520000</v>
       </c>
       <c r="B36">
-        <v>17889100</v>
+        <v>8210000</v>
       </c>
       <c r="C36">
-        <v>42997200</v>
+        <v>3571700</v>
       </c>
       <c r="D36">
-        <v>316800</v>
+        <v>43000</v>
       </c>
       <c r="E36">
-        <v>315077246000</v>
+        <v>126047739000</v>
       </c>
       <c r="F36">
-        <v>719186693000</v>
+        <v>56156201000</v>
       </c>
       <c r="G36">
-        <v>6488943000</v>
+        <v>486092000</v>
       </c>
       <c r="H36">
-        <v>61203100</v>
+        <v>11824700</v>
       </c>
       <c r="I36">
-        <v>1040752882000</v>
+        <v>182690032000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-07T13:30:00.000Z</v>
+        <v>2022-12-07T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>31933028376000</v>
+        <v>15261945044000</v>
       </c>
       <c r="L36">
-        <v>1946617700</v>
+        <v>950075400</v>
       </c>
       <c r="M36">
-        <v>25108100</v>
+        <v>-4638300</v>
       </c>
       <c r="N36">
-        <v>404109447000</v>
+        <v>-69891538000</v>
       </c>
       <c r="O36">
-        <v>-120137500</v>
+        <v>-69247100</v>
       </c>
       <c r="P36">
-        <v>-995005290000</v>
+        <v>-660718035000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1670420100000</v>
+        <v>1670408640000</v>
       </c>
       <c r="B37">
-        <v>34589600</v>
+        <v>9684200</v>
       </c>
       <c r="C37">
-        <v>45758100</v>
+        <v>3133200</v>
       </c>
       <c r="D37">
-        <v>645000</v>
+        <v>17400</v>
       </c>
       <c r="E37">
-        <v>603484646000</v>
+        <v>144963992000</v>
       </c>
       <c r="F37">
-        <v>761991169000</v>
+        <v>49337544000</v>
       </c>
       <c r="G37">
-        <v>11733185000</v>
+        <v>266847000</v>
       </c>
       <c r="H37">
-        <v>80992700</v>
+        <v>12834800</v>
       </c>
       <c r="I37">
-        <v>1377209000000</v>
+        <v>194568383000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-07T13:35:00.000Z</v>
+        <v>2022-12-07T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>33310237376000</v>
+        <v>15456513427000</v>
       </c>
       <c r="L37">
-        <v>2027610400</v>
+        <v>962910200</v>
       </c>
       <c r="M37">
-        <v>11168500</v>
+        <v>-6551000</v>
       </c>
       <c r="N37">
-        <v>158506523000</v>
+        <v>-95626448000</v>
       </c>
       <c r="O37">
-        <v>-108969000</v>
+        <v>-75798100</v>
       </c>
       <c r="P37">
-        <v>-836498767000</v>
+        <v>-756344483000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1670420400000</v>
+        <v>1670408760000</v>
       </c>
       <c r="B38">
-        <v>23267300</v>
+        <v>13868800</v>
       </c>
       <c r="C38">
-        <v>22205300</v>
+        <v>3435900</v>
       </c>
       <c r="D38">
-        <v>209600</v>
+        <v>47100</v>
       </c>
       <c r="E38">
-        <v>390510002000</v>
+        <v>222521291000</v>
       </c>
       <c r="F38">
-        <v>413302316000</v>
+        <v>58457124000</v>
       </c>
       <c r="G38">
-        <v>3403020000</v>
+        <v>435616000</v>
       </c>
       <c r="H38">
-        <v>45682200</v>
+        <v>17351800</v>
       </c>
       <c r="I38">
-        <v>807215338000</v>
+        <v>281414031000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-07T13:40:00.000Z</v>
+        <v>2022-12-07T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>34117452714000</v>
+        <v>15737927458000</v>
       </c>
       <c r="L38">
-        <v>2073292600</v>
+        <v>980262000</v>
       </c>
       <c r="M38">
-        <v>-1062000</v>
+        <v>-10432900</v>
       </c>
       <c r="N38">
-        <v>22792314000</v>
+        <v>-164064167000</v>
       </c>
       <c r="O38">
-        <v>-110031000</v>
+        <v>-86231000</v>
       </c>
       <c r="P38">
-        <v>-813706453000</v>
+        <v>-920408650000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1670420700000</v>
+        <v>1670408880000</v>
       </c>
       <c r="B39">
-        <v>22298300</v>
+        <v>21274200</v>
       </c>
       <c r="C39">
-        <v>18701900</v>
+        <v>3666200</v>
       </c>
       <c r="D39">
-        <v>149700</v>
+        <v>19800</v>
       </c>
       <c r="E39">
-        <v>393738533000</v>
+        <v>323960072000</v>
       </c>
       <c r="F39">
-        <v>325925940000</v>
+        <v>65858573000</v>
       </c>
       <c r="G39">
-        <v>2751042000</v>
+        <v>247839000</v>
       </c>
       <c r="H39">
-        <v>41149900</v>
+        <v>24960200</v>
       </c>
       <c r="I39">
-        <v>722415515000</v>
+        <v>390066484000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-07T13:45:00.000Z</v>
+        <v>2022-12-07T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>34839868229000</v>
+        <v>16127993942000</v>
       </c>
       <c r="L39">
-        <v>2114442500</v>
+        <v>1005222200</v>
       </c>
       <c r="M39">
-        <v>-3596400</v>
+        <v>-17608000</v>
       </c>
       <c r="N39">
-        <v>-67812593000</v>
+        <v>-258101499000</v>
       </c>
       <c r="O39">
-        <v>-113627400</v>
+        <v>-103839000</v>
       </c>
       <c r="P39">
-        <v>-881519046000</v>
+        <v>-1178510149000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1670421000000</v>
+        <v>1670409000000</v>
       </c>
       <c r="B40">
-        <v>39868100</v>
+        <v>20402100</v>
       </c>
       <c r="C40">
-        <v>13035500</v>
+        <v>5104100</v>
       </c>
       <c r="D40">
-        <v>208000</v>
+        <v>146300</v>
       </c>
       <c r="E40">
-        <v>658488400000</v>
+        <v>312197103000</v>
       </c>
       <c r="F40">
-        <v>222245784000</v>
+        <v>81680792000</v>
       </c>
       <c r="G40">
-        <v>3890661000</v>
+        <v>2554880000</v>
       </c>
       <c r="H40">
-        <v>53111600</v>
+        <v>25652500</v>
       </c>
       <c r="I40">
-        <v>884624845000</v>
+        <v>396432775000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-07T13:50:00.000Z</v>
+        <v>2022-12-07T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>35724493074000</v>
+        <v>16524426717000</v>
       </c>
       <c r="L40">
-        <v>2167554100</v>
+        <v>1030874700</v>
       </c>
       <c r="M40">
-        <v>-26832600</v>
+        <v>-15298000</v>
       </c>
       <c r="N40">
-        <v>-436242616000</v>
+        <v>-230516311000</v>
       </c>
       <c r="O40">
-        <v>-140460000</v>
+        <v>-119137000</v>
       </c>
       <c r="P40">
-        <v>-1317761662000</v>
+        <v>-1409026460000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1670421300000</v>
+        <v>1670409120000</v>
       </c>
       <c r="B41">
-        <v>46368300</v>
+        <v>14987700</v>
       </c>
       <c r="C41">
-        <v>24314700</v>
+        <v>7059400</v>
       </c>
       <c r="D41">
-        <v>448900</v>
+        <v>109500</v>
       </c>
       <c r="E41">
-        <v>737163720000</v>
+        <v>238756126000</v>
       </c>
       <c r="F41">
-        <v>430218408000</v>
+        <v>121875481000</v>
       </c>
       <c r="G41">
-        <v>6926317000</v>
+        <v>2044827000</v>
       </c>
       <c r="H41">
-        <v>71131900</v>
+        <v>22156600</v>
       </c>
       <c r="I41">
-        <v>1174308445000</v>
+        <v>362676434000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-07T13:55:00.000Z</v>
+        <v>2022-12-07T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>36898801519000</v>
+        <v>16887103151000</v>
       </c>
       <c r="L41">
-        <v>2238686000</v>
+        <v>1053031300</v>
       </c>
       <c r="M41">
-        <v>-22053600</v>
+        <v>-7928300</v>
       </c>
       <c r="N41">
-        <v>-306945312000</v>
+        <v>-116880645000</v>
       </c>
       <c r="O41">
-        <v>-162513600</v>
+        <v>-127065300</v>
       </c>
       <c r="P41">
-        <v>-1624706974000</v>
+        <v>-1525907105000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1670421600000</v>
+        <v>1670409240000</v>
       </c>
       <c r="B42">
-        <v>81394100</v>
+        <v>13431500</v>
       </c>
       <c r="C42">
-        <v>23244800</v>
+        <v>8491600</v>
       </c>
       <c r="D42">
-        <v>1456600</v>
+        <v>48000</v>
       </c>
       <c r="E42">
-        <v>1245097779000</v>
+        <v>202544986000</v>
       </c>
       <c r="F42">
-        <v>423906489000</v>
+        <v>139928787000</v>
       </c>
       <c r="G42">
-        <v>25378045000</v>
+        <v>580949000</v>
       </c>
       <c r="H42">
-        <v>106095500</v>
+        <v>21971100</v>
       </c>
       <c r="I42">
-        <v>1694382313000</v>
+        <v>343054722000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-07T14:00:00.000Z</v>
+        <v>2022-12-07T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>38593183832000</v>
+        <v>17230157873000</v>
       </c>
       <c r="L42">
-        <v>2344781500</v>
+        <v>1075002400</v>
       </c>
       <c r="M42">
-        <v>-58149300</v>
+        <v>-4939900</v>
       </c>
       <c r="N42">
-        <v>-821191290000</v>
+        <v>-62616199000</v>
       </c>
       <c r="O42">
-        <v>-220662900</v>
+        <v>-132005200</v>
       </c>
       <c r="P42">
-        <v>-2445898264000</v>
+        <v>-1588523304000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1670421900000</v>
+        <v>1670409360000</v>
       </c>
       <c r="B43">
-        <v>75083400</v>
+        <v>13240000</v>
       </c>
       <c r="C43">
-        <v>38497700</v>
+        <v>6753300</v>
       </c>
       <c r="D43">
-        <v>1263600</v>
+        <v>9200</v>
       </c>
       <c r="E43">
-        <v>1132269105000</v>
+        <v>193511218000</v>
       </c>
       <c r="F43">
-        <v>614779640000</v>
+        <v>103605034000</v>
       </c>
       <c r="G43">
-        <v>23720583000</v>
+        <v>245150000</v>
       </c>
       <c r="H43">
-        <v>114844700</v>
+        <v>20002500</v>
       </c>
       <c r="I43">
-        <v>1770769328000</v>
+        <v>297361402000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-07T14:05:00.000Z</v>
+        <v>2022-12-07T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>40363953160000</v>
+        <v>17527519275000</v>
       </c>
       <c r="L43">
-        <v>2459626200</v>
+        <v>1095004900</v>
       </c>
       <c r="M43">
-        <v>-36585700</v>
+        <v>-6486700</v>
       </c>
       <c r="N43">
-        <v>-517489465000</v>
+        <v>-89906184000</v>
       </c>
       <c r="O43">
-        <v>-257248600</v>
+        <v>-138491900</v>
       </c>
       <c r="P43">
-        <v>-2963387729000</v>
+        <v>-1678429488000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1670422200000</v>
+        <v>1670409480000</v>
       </c>
       <c r="B44">
-        <v>19177900</v>
+        <v>10943900</v>
       </c>
       <c r="C44">
-        <v>59053700</v>
+        <v>7250300</v>
       </c>
       <c r="D44">
-        <v>1052500</v>
+        <v>53100</v>
       </c>
       <c r="E44">
-        <v>336519623000</v>
+        <v>166797814000</v>
       </c>
       <c r="F44">
-        <v>998731506000</v>
+        <v>99175715000</v>
       </c>
       <c r="G44">
-        <v>18904473000</v>
+        <v>1197494000</v>
       </c>
       <c r="H44">
-        <v>79284100</v>
+        <v>18247300</v>
       </c>
       <c r="I44">
-        <v>1354155602000</v>
+        <v>267171023000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-07T14:10:00.000Z</v>
+        <v>2022-12-07T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>41718108762000</v>
+        <v>17794690298000</v>
       </c>
       <c r="L44">
-        <v>2538910300</v>
+        <v>1113252200</v>
       </c>
       <c r="M44">
-        <v>39875800</v>
+        <v>-3693600</v>
       </c>
       <c r="N44">
-        <v>662211883000</v>
+        <v>-67622099000</v>
       </c>
       <c r="O44">
-        <v>-217372800</v>
+        <v>-142185500</v>
       </c>
       <c r="P44">
-        <v>-2301175846000</v>
+        <v>-1746051587000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1670422500000</v>
+        <v>1670409600000</v>
       </c>
       <c r="B45">
-        <v>29425000</v>
+        <v>13587500</v>
       </c>
       <c r="C45">
-        <v>27149400</v>
+        <v>6200200</v>
       </c>
       <c r="D45">
-        <v>618600</v>
+        <v>152100</v>
       </c>
       <c r="E45">
-        <v>501017568000</v>
+        <v>187566254000</v>
       </c>
       <c r="F45">
-        <v>495614792000</v>
+        <v>89898960000</v>
       </c>
       <c r="G45">
-        <v>11270357000</v>
+        <v>2844440000</v>
       </c>
       <c r="H45">
-        <v>57193000</v>
+        <v>19939800</v>
       </c>
       <c r="I45">
-        <v>1007902717000</v>
+        <v>280309654000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-07T14:15:00.000Z</v>
+        <v>2022-12-07T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>42726011479000</v>
+        <v>18074999952000</v>
       </c>
       <c r="L45">
-        <v>2596103300</v>
+        <v>1133192000</v>
       </c>
       <c r="M45">
-        <v>-2275600</v>
+        <v>-7387300</v>
       </c>
       <c r="N45">
-        <v>-5402776000</v>
+        <v>-97667294000</v>
       </c>
       <c r="O45">
-        <v>-219648400</v>
+        <v>-149572800</v>
       </c>
       <c r="P45">
-        <v>-2306578622000</v>
+        <v>-1843718881000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1670422800000</v>
+        <v>1670409720000</v>
       </c>
       <c r="B46">
-        <v>51860500</v>
+        <v>11518100</v>
       </c>
       <c r="C46">
-        <v>22537900</v>
+        <v>5455800</v>
       </c>
       <c r="D46">
-        <v>1186800</v>
+        <v>78400</v>
       </c>
       <c r="E46">
-        <v>820722096000</v>
+        <v>190196987000</v>
       </c>
       <c r="F46">
-        <v>386138696000</v>
+        <v>87781442000</v>
       </c>
       <c r="G46">
-        <v>21408196000</v>
+        <v>1899392000</v>
       </c>
       <c r="H46">
-        <v>75585200</v>
+        <v>17052300</v>
       </c>
       <c r="I46">
-        <v>1228268988000</v>
+        <v>279877821000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-07T14:20:00.000Z</v>
+        <v>2022-12-07T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>43954280467000</v>
+        <v>18354877773000</v>
       </c>
       <c r="L46">
-        <v>2671688500</v>
+        <v>1150244300</v>
       </c>
       <c r="M46">
-        <v>-29322600</v>
+        <v>-6062300</v>
       </c>
       <c r="N46">
-        <v>-434583400000</v>
+        <v>-102415545000</v>
       </c>
       <c r="O46">
-        <v>-248971000</v>
+        <v>-155635100</v>
       </c>
       <c r="P46">
-        <v>-2741162022000</v>
+        <v>-1946134426000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1670423100000</v>
+        <v>1670409840000</v>
       </c>
       <c r="B47">
-        <v>55478800</v>
+        <v>7689000</v>
       </c>
       <c r="C47">
-        <v>31121100</v>
+        <v>7154000</v>
       </c>
       <c r="D47">
-        <v>1447200</v>
+        <v>325700</v>
       </c>
       <c r="E47">
-        <v>918570037000</v>
+        <v>125569930000</v>
       </c>
       <c r="F47">
-        <v>549726642000</v>
+        <v>120053599000</v>
       </c>
       <c r="G47">
-        <v>31776646000</v>
+        <v>4304907000</v>
       </c>
       <c r="H47">
-        <v>88047100</v>
+        <v>15168700</v>
       </c>
       <c r="I47">
-        <v>1500073325000</v>
+        <v>249928436000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-07T14:25:00.000Z</v>
+        <v>2022-12-07T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>45454353792000</v>
+        <v>18604806209000</v>
       </c>
       <c r="L47">
-        <v>2759735600</v>
+        <v>1165413000</v>
       </c>
       <c r="M47">
-        <v>-24357700</v>
+        <v>-535000</v>
       </c>
       <c r="N47">
-        <v>-368843395000</v>
+        <v>-5516331000</v>
       </c>
       <c r="O47">
-        <v>-273328700</v>
+        <v>-156170100</v>
       </c>
       <c r="P47">
-        <v>-3110005417000</v>
+        <v>-1951650757000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1670423400000</v>
+        <v>1670409960000</v>
       </c>
       <c r="B48">
-        <v>595400</v>
+        <v>6353300</v>
       </c>
       <c r="C48">
-        <v>340800</v>
+        <v>9569000</v>
       </c>
       <c r="D48">
-        <v>1383800</v>
+        <v>39000</v>
       </c>
       <c r="E48">
-        <v>8373743000</v>
+        <v>100316328000</v>
       </c>
       <c r="F48">
-        <v>5366504000</v>
+        <v>149816085000</v>
       </c>
       <c r="G48">
-        <v>19813499000</v>
+        <v>652705000</v>
       </c>
       <c r="H48">
-        <v>2320000</v>
+        <v>15961300</v>
       </c>
       <c r="I48">
-        <v>33553746000</v>
+        <v>250785118000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-07T14:30:00.000Z</v>
+        <v>2022-12-07T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>45487907538000</v>
+        <v>18855591327000</v>
       </c>
       <c r="L48">
-        <v>2762055600</v>
+        <v>1181374300</v>
       </c>
       <c r="M48">
-        <v>-254600</v>
+        <v>3215700</v>
       </c>
       <c r="N48">
-        <v>-3007239000</v>
+        <v>49499757000</v>
       </c>
       <c r="O48">
-        <v>-273583300</v>
+        <v>-152954400</v>
       </c>
       <c r="P48">
-        <v>-3113012656000</v>
+        <v>-1902151000000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1670423700000</v>
+        <v>1670410080000</v>
       </c>
       <c r="B49">
-        <v>1000</v>
+        <v>4627600</v>
       </c>
       <c r="C49">
-        <v>500</v>
+        <v>11374000</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>74300</v>
       </c>
       <c r="E49">
-        <v>10000000</v>
+        <v>80302623000</v>
       </c>
       <c r="F49">
-        <v>5000000</v>
+        <v>203021614000</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>868409000</v>
       </c>
       <c r="H49">
-        <v>1500</v>
+        <v>16075900</v>
       </c>
       <c r="I49">
-        <v>15000000</v>
+        <v>284192646000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-07T14:35:00.000Z</v>
+        <v>2022-12-07T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>45487922538000</v>
+        <v>19139783973000</v>
       </c>
       <c r="L49">
-        <v>2762057100</v>
+        <v>1197450200</v>
       </c>
       <c r="M49">
-        <v>-500</v>
+        <v>6746400</v>
       </c>
       <c r="N49">
-        <v>-5000000</v>
+        <v>122718991000</v>
       </c>
       <c r="O49">
-        <v>-273583800</v>
+        <v>-146208000</v>
       </c>
       <c r="P49">
-        <v>-3113017656000</v>
+        <v>-1779432009000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1670424000000</v>
+        <v>1670410200000</v>
       </c>
       <c r="B50">
-        <v>4600</v>
+        <v>3692500</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>9515500</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>56000</v>
       </c>
       <c r="E50">
-        <v>45540000</v>
+        <v>63804308000</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>157955084000</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1426247000</v>
       </c>
       <c r="H50">
-        <v>4600</v>
+        <v>13264000</v>
       </c>
       <c r="I50">
-        <v>45540000</v>
+        <v>223185639000</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-07T14:40:00.000Z</v>
+        <v>2022-12-07T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>45487968078000</v>
+        <v>19362969612000</v>
       </c>
       <c r="L50">
-        <v>2762061700</v>
+        <v>1210714200</v>
       </c>
       <c r="M50">
-        <v>-4600</v>
+        <v>5823000</v>
       </c>
       <c r="N50">
-        <v>-45540000</v>
+        <v>94150776000</v>
       </c>
       <c r="O50">
-        <v>-273588400</v>
+        <v>-140385000</v>
       </c>
       <c r="P50">
-        <v>-3113063196000</v>
+        <v>-1685281233000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1670424300000</v>
+        <v>1670410320000</v>
       </c>
       <c r="B51">
-        <v>15672200</v>
+        <v>3574800</v>
       </c>
       <c r="C51">
-        <v>19671500</v>
+        <v>10219300</v>
       </c>
       <c r="D51">
-        <v>83539600</v>
+        <v>30600</v>
       </c>
       <c r="E51">
-        <v>274338335000</v>
+        <v>55614999000</v>
       </c>
       <c r="F51">
-        <v>448364982000</v>
+        <v>176446112000</v>
       </c>
       <c r="G51">
-        <v>1555188791000</v>
+        <v>465037000</v>
       </c>
       <c r="H51">
-        <v>118883300</v>
+        <v>13824700</v>
       </c>
       <c r="I51">
-        <v>2277892108000</v>
+        <v>232526148000</v>
       </c>
       <c r="J51" t="str">
-        <v>2022-12-07T14:45:00.000Z</v>
+        <v>2022-12-07T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>47765860186000</v>
+        <v>19595495760000</v>
       </c>
       <c r="L51">
-        <v>2880945000</v>
+        <v>1224538900</v>
       </c>
       <c r="M51">
-        <v>3999300</v>
+        <v>6644500</v>
       </c>
       <c r="N51">
-        <v>174026647000</v>
+        <v>120831113000</v>
       </c>
       <c r="O51">
-        <v>-269589100</v>
+        <v>-133740500</v>
       </c>
       <c r="P51">
-        <v>-2939036549000</v>
+        <v>-1564450120000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1670424600000</v>
+        <v>1670410440000</v>
       </c>
       <c r="B52">
-        <v>7700</v>
+        <v>3877600</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>6787900</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>55600</v>
       </c>
       <c r="E52">
-        <v>76230000</v>
+        <v>65669027000</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>122125639000</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1210197000</v>
       </c>
       <c r="H52">
-        <v>7700</v>
+        <v>10721100</v>
       </c>
       <c r="I52">
-        <v>76230000</v>
+        <v>189004863000</v>
       </c>
       <c r="J52" t="str">
-        <v>2022-12-07T14:50:00.000Z</v>
+        <v>2022-12-07T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>47765936416000</v>
+        <v>19784500623000</v>
       </c>
       <c r="L52">
-        <v>2880952700</v>
+        <v>1235260000</v>
       </c>
       <c r="M52">
-        <v>-7700</v>
+        <v>2910300</v>
       </c>
       <c r="N52">
-        <v>-76230000</v>
+        <v>56456612000</v>
       </c>
       <c r="O52">
-        <v>-269596800</v>
+        <v>-130830200</v>
       </c>
       <c r="P52">
-        <v>-2939112779000</v>
+        <v>-1507993508000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1670424900000</v>
+        <v>1670410560000</v>
       </c>
       <c r="B53">
+        <v>3543000</v>
+      </c>
+      <c r="C53">
+        <v>7832600</v>
+      </c>
+      <c r="D53">
+        <v>75100</v>
+      </c>
+      <c r="E53">
+        <v>68588374000</v>
+      </c>
+      <c r="F53">
+        <v>159931056000</v>
+      </c>
+      <c r="G53">
+        <v>1792801000</v>
+      </c>
+      <c r="H53">
+        <v>11450700</v>
+      </c>
+      <c r="I53">
+        <v>230312231000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2022-12-07T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>20014812854000</v>
+      </c>
+      <c r="L53">
+        <v>1246710700</v>
+      </c>
+      <c r="M53">
+        <v>4289600</v>
+      </c>
+      <c r="N53">
+        <v>91342682000</v>
+      </c>
+      <c r="O53">
+        <v>-126540600</v>
+      </c>
+      <c r="P53">
+        <v>-1416650826000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1670410680000</v>
+      </c>
+      <c r="B54">
+        <v>4231200</v>
+      </c>
+      <c r="C54">
+        <v>9643100</v>
+      </c>
+      <c r="D54">
+        <v>128100</v>
+      </c>
+      <c r="E54">
+        <v>72523095000</v>
+      </c>
+      <c r="F54">
+        <v>183616097000</v>
+      </c>
+      <c r="G54">
+        <v>2884428000</v>
+      </c>
+      <c r="H54">
+        <v>14002400</v>
+      </c>
+      <c r="I54">
+        <v>259023620000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2022-12-07T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>20273836474000</v>
+      </c>
+      <c r="L54">
+        <v>1260713100</v>
+      </c>
+      <c r="M54">
+        <v>5411900</v>
+      </c>
+      <c r="N54">
+        <v>111093002000</v>
+      </c>
+      <c r="O54">
+        <v>-121128700</v>
+      </c>
+      <c r="P54">
+        <v>-1305557824000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1670410800000</v>
+      </c>
+      <c r="B55">
+        <v>4964400</v>
+      </c>
+      <c r="C55">
+        <v>16187600</v>
+      </c>
+      <c r="D55">
+        <v>209300</v>
+      </c>
+      <c r="E55">
+        <v>70890106000</v>
+      </c>
+      <c r="F55">
+        <v>259618481000</v>
+      </c>
+      <c r="G55">
+        <v>3460722000</v>
+      </c>
+      <c r="H55">
+        <v>21361300</v>
+      </c>
+      <c r="I55">
+        <v>333969309000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2022-12-07T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>20607805783000</v>
+      </c>
+      <c r="L55">
+        <v>1282074400</v>
+      </c>
+      <c r="M55">
+        <v>11223200</v>
+      </c>
+      <c r="N55">
+        <v>188728375000</v>
+      </c>
+      <c r="O55">
+        <v>-109905500</v>
+      </c>
+      <c r="P55">
+        <v>-1116829449000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1670410920000</v>
+      </c>
+      <c r="B56">
+        <v>5045800</v>
+      </c>
+      <c r="C56">
+        <v>12199400</v>
+      </c>
+      <c r="D56">
+        <v>120200</v>
+      </c>
+      <c r="E56">
+        <v>85658971000</v>
+      </c>
+      <c r="F56">
+        <v>213887846000</v>
+      </c>
+      <c r="G56">
+        <v>2112135000</v>
+      </c>
+      <c r="H56">
+        <v>17365400</v>
+      </c>
+      <c r="I56">
+        <v>301658952000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-07T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>20909464735000</v>
+      </c>
+      <c r="L56">
+        <v>1299439800</v>
+      </c>
+      <c r="M56">
+        <v>7153600</v>
+      </c>
+      <c r="N56">
+        <v>128228875000</v>
+      </c>
+      <c r="O56">
+        <v>-102751900</v>
+      </c>
+      <c r="P56">
+        <v>-988600574000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1670411040000</v>
+      </c>
+      <c r="B57">
+        <v>7407000</v>
+      </c>
+      <c r="C57">
+        <v>12857200</v>
+      </c>
+      <c r="D57">
+        <v>131300</v>
+      </c>
+      <c r="E57">
+        <v>108223623000</v>
+      </c>
+      <c r="F57">
+        <v>207908938000</v>
+      </c>
+      <c r="G57">
+        <v>1905301000</v>
+      </c>
+      <c r="H57">
+        <v>20395500</v>
+      </c>
+      <c r="I57">
+        <v>318037862000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-07T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>21227502597000</v>
+      </c>
+      <c r="L57">
+        <v>1319835300</v>
+      </c>
+      <c r="M57">
+        <v>5450200</v>
+      </c>
+      <c r="N57">
+        <v>99685315000</v>
+      </c>
+      <c r="O57">
+        <v>-97301700</v>
+      </c>
+      <c r="P57">
+        <v>-888915259000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1670411160000</v>
+      </c>
+      <c r="B58">
+        <v>6292000</v>
+      </c>
+      <c r="C58">
+        <v>9683100</v>
+      </c>
+      <c r="D58">
+        <v>82300</v>
+      </c>
+      <c r="E58">
+        <v>116101166000</v>
+      </c>
+      <c r="F58">
+        <v>180115094000</v>
+      </c>
+      <c r="G58">
+        <v>1479803000</v>
+      </c>
+      <c r="H58">
+        <v>16057400</v>
+      </c>
+      <c r="I58">
+        <v>297696063000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-07T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>21525198660000</v>
+      </c>
+      <c r="L58">
+        <v>1335892700</v>
+      </c>
+      <c r="M58">
+        <v>3391100</v>
+      </c>
+      <c r="N58">
+        <v>64013928000</v>
+      </c>
+      <c r="O58">
+        <v>-93910600</v>
+      </c>
+      <c r="P58">
+        <v>-824901331000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1670411280000</v>
+      </c>
+      <c r="B59">
+        <v>6308100</v>
+      </c>
+      <c r="C59">
+        <v>5943300</v>
+      </c>
+      <c r="D59">
+        <v>88500</v>
+      </c>
+      <c r="E59">
+        <v>114985704000</v>
+      </c>
+      <c r="F59">
+        <v>108413164000</v>
+      </c>
+      <c r="G59">
+        <v>1292912000</v>
+      </c>
+      <c r="H59">
+        <v>12339900</v>
+      </c>
+      <c r="I59">
+        <v>224691780000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-07T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>21749890440000</v>
+      </c>
+      <c r="L59">
+        <v>1348232600</v>
+      </c>
+      <c r="M59">
+        <v>-364800</v>
+      </c>
+      <c r="N59">
+        <v>-6572540000</v>
+      </c>
+      <c r="O59">
+        <v>-94275400</v>
+      </c>
+      <c r="P59">
+        <v>-831473871000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1670411400000</v>
+      </c>
+      <c r="B60">
+        <v>4667500</v>
+      </c>
+      <c r="C60">
+        <v>8878400</v>
+      </c>
+      <c r="D60">
+        <v>24200</v>
+      </c>
+      <c r="E60">
+        <v>76130353000</v>
+      </c>
+      <c r="F60">
+        <v>172532048000</v>
+      </c>
+      <c r="G60">
+        <v>501939000</v>
+      </c>
+      <c r="H60">
+        <v>13570100</v>
+      </c>
+      <c r="I60">
+        <v>249164340000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-07T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>21999054780000</v>
+      </c>
+      <c r="L60">
+        <v>1361802700</v>
+      </c>
+      <c r="M60">
+        <v>4210900</v>
+      </c>
+      <c r="N60">
+        <v>96401695000</v>
+      </c>
+      <c r="O60">
+        <v>-90064500</v>
+      </c>
+      <c r="P60">
+        <v>-735072176000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1670411520000</v>
+      </c>
+      <c r="B61">
+        <v>5210600</v>
+      </c>
+      <c r="C61">
+        <v>14816600</v>
+      </c>
+      <c r="D61">
+        <v>25600</v>
+      </c>
+      <c r="E61">
+        <v>94066192000</v>
+      </c>
+      <c r="F61">
+        <v>245654784000</v>
+      </c>
+      <c r="G61">
+        <v>479021000</v>
+      </c>
+      <c r="H61">
+        <v>20052800</v>
+      </c>
+      <c r="I61">
+        <v>340199997000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-07T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>22339254777000</v>
+      </c>
+      <c r="L61">
+        <v>1381855500</v>
+      </c>
+      <c r="M61">
+        <v>9606000</v>
+      </c>
+      <c r="N61">
+        <v>151588592000</v>
+      </c>
+      <c r="O61">
+        <v>-80458500</v>
+      </c>
+      <c r="P61">
+        <v>-583483584000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1670411640000</v>
+      </c>
+      <c r="B62">
+        <v>6178400</v>
+      </c>
+      <c r="C62">
+        <v>18493100</v>
+      </c>
+      <c r="D62">
+        <v>35900</v>
+      </c>
+      <c r="E62">
+        <v>109044759000</v>
+      </c>
+      <c r="F62">
+        <v>296114528000</v>
+      </c>
+      <c r="G62">
+        <v>938145000</v>
+      </c>
+      <c r="H62">
+        <v>24707400</v>
+      </c>
+      <c r="I62">
+        <v>406097432000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-07T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>22745352209000</v>
+      </c>
+      <c r="L62">
+        <v>1406562900</v>
+      </c>
+      <c r="M62">
+        <v>12314700</v>
+      </c>
+      <c r="N62">
+        <v>187069769000</v>
+      </c>
+      <c r="O62">
+        <v>-68143800</v>
+      </c>
+      <c r="P62">
+        <v>-396413815000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1670411760000</v>
+      </c>
+      <c r="B63">
+        <v>5706500</v>
+      </c>
+      <c r="C63">
+        <v>15169600</v>
+      </c>
+      <c r="D63">
+        <v>86300</v>
+      </c>
+      <c r="E63">
+        <v>97116488000</v>
+      </c>
+      <c r="F63">
+        <v>245060725000</v>
+      </c>
+      <c r="G63">
+        <v>1877706000</v>
+      </c>
+      <c r="H63">
+        <v>20962400</v>
+      </c>
+      <c r="I63">
+        <v>344054919000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-07T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>23089407128000</v>
+      </c>
+      <c r="L63">
+        <v>1427525300</v>
+      </c>
+      <c r="M63">
+        <v>9463100</v>
+      </c>
+      <c r="N63">
+        <v>147944237000</v>
+      </c>
+      <c r="O63">
+        <v>-58680700</v>
+      </c>
+      <c r="P63">
+        <v>-248469578000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1670411880000</v>
+      </c>
+      <c r="B64">
+        <v>4105400</v>
+      </c>
+      <c r="C64">
+        <v>10465700</v>
+      </c>
+      <c r="D64">
+        <v>20300</v>
+      </c>
+      <c r="E64">
+        <v>71965989000</v>
+      </c>
+      <c r="F64">
+        <v>163808620000</v>
+      </c>
+      <c r="G64">
+        <v>216192000</v>
+      </c>
+      <c r="H64">
+        <v>14591400</v>
+      </c>
+      <c r="I64">
+        <v>235990801000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-07T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>23325397929000</v>
+      </c>
+      <c r="L64">
+        <v>1442116700</v>
+      </c>
+      <c r="M64">
+        <v>6360300</v>
+      </c>
+      <c r="N64">
+        <v>91842631000</v>
+      </c>
+      <c r="O64">
+        <v>-52320400</v>
+      </c>
+      <c r="P64">
+        <v>-156626947000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1670412000000</v>
+      </c>
+      <c r="B65">
+        <v>4344200</v>
+      </c>
+      <c r="C65">
+        <v>11739000</v>
+      </c>
+      <c r="D65">
+        <v>74700</v>
+      </c>
+      <c r="E65">
+        <v>73712763000</v>
+      </c>
+      <c r="F65">
+        <v>200216874000</v>
+      </c>
+      <c r="G65">
+        <v>1056324000</v>
+      </c>
+      <c r="H65">
+        <v>16157900</v>
+      </c>
+      <c r="I65">
+        <v>274985961000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-07T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>23600383890000</v>
+      </c>
+      <c r="L65">
+        <v>1458274600</v>
+      </c>
+      <c r="M65">
+        <v>7394800</v>
+      </c>
+      <c r="N65">
+        <v>126504111000</v>
+      </c>
+      <c r="O65">
+        <v>-44925600</v>
+      </c>
+      <c r="P65">
+        <v>-30122836000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1670412120000</v>
+      </c>
+      <c r="B66">
+        <v>7037100</v>
+      </c>
+      <c r="C66">
+        <v>7319700</v>
+      </c>
+      <c r="D66">
+        <v>46800</v>
+      </c>
+      <c r="E66">
+        <v>119918662000</v>
+      </c>
+      <c r="F66">
+        <v>122088665000</v>
+      </c>
+      <c r="G66">
+        <v>503683000</v>
+      </c>
+      <c r="H66">
+        <v>14403600</v>
+      </c>
+      <c r="I66">
+        <v>242511010000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-07T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>23842894900000</v>
+      </c>
+      <c r="L66">
+        <v>1472678200</v>
+      </c>
+      <c r="M66">
+        <v>282600</v>
+      </c>
+      <c r="N66">
+        <v>2170003000</v>
+      </c>
+      <c r="O66">
+        <v>-44643000</v>
+      </c>
+      <c r="P66">
+        <v>-27952833000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1670412240000</v>
+      </c>
+      <c r="B67">
+        <v>9603800</v>
+      </c>
+      <c r="C67">
+        <v>4595000</v>
+      </c>
+      <c r="D67">
+        <v>35200</v>
+      </c>
+      <c r="E67">
+        <v>162617017000</v>
+      </c>
+      <c r="F67">
+        <v>78874558000</v>
+      </c>
+      <c r="G67">
+        <v>449081000</v>
+      </c>
+      <c r="H67">
+        <v>14234000</v>
+      </c>
+      <c r="I67">
+        <v>241940656000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-07T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>24084835556000</v>
+      </c>
+      <c r="L67">
+        <v>1486912200</v>
+      </c>
+      <c r="M67">
+        <v>-5008800</v>
+      </c>
+      <c r="N67">
+        <v>-83742459000</v>
+      </c>
+      <c r="O67">
+        <v>-49651800</v>
+      </c>
+      <c r="P67">
+        <v>-111695292000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1670412360000</v>
+      </c>
+      <c r="B68">
+        <v>7991300</v>
+      </c>
+      <c r="C68">
+        <v>4505100</v>
+      </c>
+      <c r="D68">
+        <v>38600</v>
+      </c>
+      <c r="E68">
+        <v>134455421000</v>
+      </c>
+      <c r="F68">
+        <v>84498228000</v>
+      </c>
+      <c r="G68">
+        <v>916158000</v>
+      </c>
+      <c r="H68">
+        <v>12535000</v>
+      </c>
+      <c r="I68">
+        <v>219869807000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-07T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>24304705363000</v>
+      </c>
+      <c r="L68">
+        <v>1499447200</v>
+      </c>
+      <c r="M68">
+        <v>-3486200</v>
+      </c>
+      <c r="N68">
+        <v>-49957193000</v>
+      </c>
+      <c r="O68">
+        <v>-53138000</v>
+      </c>
+      <c r="P68">
+        <v>-161652485000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1670412480000</v>
+      </c>
+      <c r="B69">
+        <v>6221100</v>
+      </c>
+      <c r="C69">
+        <v>3502400</v>
+      </c>
+      <c r="D69">
+        <v>67500</v>
+      </c>
+      <c r="E69">
+        <v>103325265000</v>
+      </c>
+      <c r="F69">
+        <v>78496563000</v>
+      </c>
+      <c r="G69">
+        <v>1216137000</v>
+      </c>
+      <c r="H69">
+        <v>9791000</v>
+      </c>
+      <c r="I69">
+        <v>183037965000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-07T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>24487743328000</v>
+      </c>
+      <c r="L69">
+        <v>1509238200</v>
+      </c>
+      <c r="M69">
+        <v>-2718700</v>
+      </c>
+      <c r="N69">
+        <v>-24828702000</v>
+      </c>
+      <c r="O69">
+        <v>-55856700</v>
+      </c>
+      <c r="P69">
+        <v>-186481187000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1670412600000</v>
+      </c>
+      <c r="B70">
+        <v>6300</v>
+      </c>
+      <c r="C70">
+        <v>88800</v>
+      </c>
+      <c r="D70">
+        <v>1900</v>
+      </c>
+      <c r="E70">
+        <v>72861000</v>
+      </c>
+      <c r="F70">
+        <v>1419209000</v>
+      </c>
+      <c r="G70">
+        <v>136330000</v>
+      </c>
+      <c r="H70">
+        <v>97000</v>
+      </c>
+      <c r="I70">
+        <v>1628400000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-07T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>24489371728000</v>
+      </c>
+      <c r="L70">
+        <v>1509335200</v>
+      </c>
+      <c r="M70">
+        <v>82500</v>
+      </c>
+      <c r="N70">
+        <v>1346348000</v>
+      </c>
+      <c r="O70">
+        <v>-55774200</v>
+      </c>
+      <c r="P70">
+        <v>-185134839000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1670418000000</v>
+      </c>
+      <c r="B71">
+        <v>26893000</v>
+      </c>
+      <c r="C71">
+        <v>16358400</v>
+      </c>
+      <c r="D71">
+        <v>1234600</v>
+      </c>
+      <c r="E71">
+        <v>426973511000</v>
+      </c>
+      <c r="F71">
+        <v>283426374000</v>
+      </c>
+      <c r="G71">
+        <v>19337559000</v>
+      </c>
+      <c r="H71">
+        <v>44486000</v>
+      </c>
+      <c r="I71">
+        <v>729737444000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-07T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>25219109172000</v>
+      </c>
+      <c r="L71">
+        <v>1553821200</v>
+      </c>
+      <c r="M71">
+        <v>-10534600</v>
+      </c>
+      <c r="N71">
+        <v>-143547137000</v>
+      </c>
+      <c r="O71">
+        <v>-66308800</v>
+      </c>
+      <c r="P71">
+        <v>-328681976000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1670418120000</v>
+      </c>
+      <c r="B72">
+        <v>10745300</v>
+      </c>
+      <c r="C72">
+        <v>10891800</v>
+      </c>
+      <c r="D72">
+        <v>91400</v>
+      </c>
+      <c r="E72">
+        <v>172878079000</v>
+      </c>
+      <c r="F72">
+        <v>199570729000</v>
+      </c>
+      <c r="G72">
+        <v>1635115000</v>
+      </c>
+      <c r="H72">
+        <v>21728500</v>
+      </c>
+      <c r="I72">
+        <v>374083923000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-07T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>25593193095000</v>
+      </c>
+      <c r="L72">
+        <v>1575549700</v>
+      </c>
+      <c r="M72">
+        <v>146500</v>
+      </c>
+      <c r="N72">
+        <v>26692650000</v>
+      </c>
+      <c r="O72">
+        <v>-66162300</v>
+      </c>
+      <c r="P72">
+        <v>-301989326000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1670418240000</v>
+      </c>
+      <c r="B73">
+        <v>10991800</v>
+      </c>
+      <c r="C73">
+        <v>7796600</v>
+      </c>
+      <c r="D73">
+        <v>56400</v>
+      </c>
+      <c r="E73">
+        <v>181425289000</v>
+      </c>
+      <c r="F73">
+        <v>148890028000</v>
+      </c>
+      <c r="G73">
+        <v>1334549000</v>
+      </c>
+      <c r="H73">
+        <v>18844800</v>
+      </c>
+      <c r="I73">
+        <v>331649866000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-07T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>25924842961000</v>
+      </c>
+      <c r="L73">
+        <v>1594394500</v>
+      </c>
+      <c r="M73">
+        <v>-3195200</v>
+      </c>
+      <c r="N73">
+        <v>-32535261000</v>
+      </c>
+      <c r="O73">
+        <v>-69357500</v>
+      </c>
+      <c r="P73">
+        <v>-334524587000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1670418360000</v>
+      </c>
+      <c r="B74">
+        <v>14121500</v>
+      </c>
+      <c r="C74">
+        <v>6449400</v>
+      </c>
+      <c r="D74">
+        <v>58200</v>
+      </c>
+      <c r="E74">
+        <v>214311337000</v>
+      </c>
+      <c r="F74">
+        <v>107234502000</v>
+      </c>
+      <c r="G74">
+        <v>922495000</v>
+      </c>
+      <c r="H74">
+        <v>20629100</v>
+      </c>
+      <c r="I74">
+        <v>322468334000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-07T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>26247311295000</v>
+      </c>
+      <c r="L74">
+        <v>1615023600</v>
+      </c>
+      <c r="M74">
+        <v>-7672100</v>
+      </c>
+      <c r="N74">
+        <v>-107076835000</v>
+      </c>
+      <c r="O74">
+        <v>-77029600</v>
+      </c>
+      <c r="P74">
+        <v>-441601422000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1670418480000</v>
+      </c>
+      <c r="B75">
+        <v>14447600</v>
+      </c>
+      <c r="C75">
+        <v>6846100</v>
+      </c>
+      <c r="D75">
+        <v>361100</v>
+      </c>
+      <c r="E75">
+        <v>219350176000</v>
+      </c>
+      <c r="F75">
+        <v>133036920000</v>
+      </c>
+      <c r="G75">
+        <v>7181874000</v>
+      </c>
+      <c r="H75">
+        <v>21654800</v>
+      </c>
+      <c r="I75">
+        <v>359568970000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-07T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>26606880265000</v>
+      </c>
+      <c r="L75">
+        <v>1636678400</v>
+      </c>
+      <c r="M75">
+        <v>-7601500</v>
+      </c>
+      <c r="N75">
+        <v>-86313256000</v>
+      </c>
+      <c r="O75">
+        <v>-84631100</v>
+      </c>
+      <c r="P75">
+        <v>-527914678000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1670418600000</v>
+      </c>
+      <c r="B76">
+        <v>15098400</v>
+      </c>
+      <c r="C76">
+        <v>10955700</v>
+      </c>
+      <c r="D76">
+        <v>288800</v>
+      </c>
+      <c r="E76">
+        <v>236869575000</v>
+      </c>
+      <c r="F76">
+        <v>203892847000</v>
+      </c>
+      <c r="G76">
+        <v>3266433000</v>
+      </c>
+      <c r="H76">
+        <v>26342900</v>
+      </c>
+      <c r="I76">
+        <v>444028855000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-07T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>27050909120000</v>
+      </c>
+      <c r="L76">
+        <v>1663021300</v>
+      </c>
+      <c r="M76">
+        <v>-4142700</v>
+      </c>
+      <c r="N76">
+        <v>-32976728000</v>
+      </c>
+      <c r="O76">
+        <v>-88773800</v>
+      </c>
+      <c r="P76">
+        <v>-560891406000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1670418720000</v>
+      </c>
+      <c r="B77">
+        <v>12560000</v>
+      </c>
+      <c r="C77">
+        <v>7427500</v>
+      </c>
+      <c r="D77">
+        <v>234700</v>
+      </c>
+      <c r="E77">
+        <v>204247435000</v>
+      </c>
+      <c r="F77">
+        <v>133726512000</v>
+      </c>
+      <c r="G77">
+        <v>4256122000</v>
+      </c>
+      <c r="H77">
+        <v>20222200</v>
+      </c>
+      <c r="I77">
+        <v>342230069000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-07T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>27393139189000</v>
+      </c>
+      <c r="L77">
+        <v>1683243500</v>
+      </c>
+      <c r="M77">
+        <v>-5132500</v>
+      </c>
+      <c r="N77">
+        <v>-70520923000</v>
+      </c>
+      <c r="O77">
+        <v>-93906300</v>
+      </c>
+      <c r="P77">
+        <v>-631412329000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1670418840000</v>
+      </c>
+      <c r="B78">
+        <v>12110500</v>
+      </c>
+      <c r="C78">
+        <v>10194500</v>
+      </c>
+      <c r="D78">
+        <v>60400</v>
+      </c>
+      <c r="E78">
+        <v>203908987000</v>
+      </c>
+      <c r="F78">
+        <v>197788043000</v>
+      </c>
+      <c r="G78">
+        <v>1016497000</v>
+      </c>
+      <c r="H78">
+        <v>22365400</v>
+      </c>
+      <c r="I78">
+        <v>402713527000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-07T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>27795852716000</v>
+      </c>
+      <c r="L78">
+        <v>1705608900</v>
+      </c>
+      <c r="M78">
+        <v>-1916000</v>
+      </c>
+      <c r="N78">
+        <v>-6120944000</v>
+      </c>
+      <c r="O78">
+        <v>-95822300</v>
+      </c>
+      <c r="P78">
+        <v>-637533273000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1670418960000</v>
+      </c>
+      <c r="B79">
+        <v>9129100</v>
+      </c>
+      <c r="C79">
+        <v>12034800</v>
+      </c>
+      <c r="D79">
+        <v>94800</v>
+      </c>
+      <c r="E79">
+        <v>169662126000</v>
+      </c>
+      <c r="F79">
+        <v>234399022000</v>
+      </c>
+      <c r="G79">
+        <v>1664673000</v>
+      </c>
+      <c r="H79">
+        <v>21258700</v>
+      </c>
+      <c r="I79">
+        <v>405725821000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-07T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>28201578537000</v>
+      </c>
+      <c r="L79">
+        <v>1726867600</v>
+      </c>
+      <c r="M79">
+        <v>2905700</v>
+      </c>
+      <c r="N79">
+        <v>64736896000</v>
+      </c>
+      <c r="O79">
+        <v>-92916600</v>
+      </c>
+      <c r="P79">
+        <v>-572796377000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1670419080000</v>
+      </c>
+      <c r="B80">
+        <v>12140700</v>
+      </c>
+      <c r="C80">
+        <v>13474400</v>
+      </c>
+      <c r="D80">
+        <v>152000</v>
+      </c>
+      <c r="E80">
+        <v>217404660000</v>
+      </c>
+      <c r="F80">
+        <v>231942961000</v>
+      </c>
+      <c r="G80">
+        <v>2873430000</v>
+      </c>
+      <c r="H80">
+        <v>25767100</v>
+      </c>
+      <c r="I80">
+        <v>452221051000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-07T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>28653799588000</v>
+      </c>
+      <c r="L80">
+        <v>1752634700</v>
+      </c>
+      <c r="M80">
+        <v>1333700</v>
+      </c>
+      <c r="N80">
+        <v>14538301000</v>
+      </c>
+      <c r="O80">
+        <v>-91582900</v>
+      </c>
+      <c r="P80">
+        <v>-558258076000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1670419200000</v>
+      </c>
+      <c r="B81">
+        <v>14037100</v>
+      </c>
+      <c r="C81">
+        <v>6934600</v>
+      </c>
+      <c r="D81">
+        <v>54800</v>
+      </c>
+      <c r="E81">
+        <v>246039560000</v>
+      </c>
+      <c r="F81">
+        <v>120911743000</v>
+      </c>
+      <c r="G81">
+        <v>1153653000</v>
+      </c>
+      <c r="H81">
+        <v>21026500</v>
+      </c>
+      <c r="I81">
+        <v>368104956000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-07T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>29021904544000</v>
+      </c>
+      <c r="L81">
+        <v>1773661200</v>
+      </c>
+      <c r="M81">
+        <v>-7102500</v>
+      </c>
+      <c r="N81">
+        <v>-125127817000</v>
+      </c>
+      <c r="O81">
+        <v>-98685400</v>
+      </c>
+      <c r="P81">
+        <v>-683385893000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1670419320000</v>
+      </c>
+      <c r="B82">
+        <v>17745100</v>
+      </c>
+      <c r="C82">
+        <v>5890400</v>
+      </c>
+      <c r="D82">
+        <v>400600</v>
+      </c>
+      <c r="E82">
+        <v>296889272000</v>
+      </c>
+      <c r="F82">
+        <v>103004925000</v>
+      </c>
+      <c r="G82">
+        <v>4683672000</v>
+      </c>
+      <c r="H82">
+        <v>24036100</v>
+      </c>
+      <c r="I82">
+        <v>404577869000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-07T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>29426482413000</v>
+      </c>
+      <c r="L82">
+        <v>1797697300</v>
+      </c>
+      <c r="M82">
+        <v>-11854700</v>
+      </c>
+      <c r="N82">
+        <v>-193884347000</v>
+      </c>
+      <c r="O82">
+        <v>-110540100</v>
+      </c>
+      <c r="P82">
+        <v>-877270240000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1670419440000</v>
+      </c>
+      <c r="B83">
+        <v>20565500</v>
+      </c>
+      <c r="C83">
+        <v>6758900</v>
+      </c>
+      <c r="D83">
+        <v>249800</v>
+      </c>
+      <c r="E83">
+        <v>326082304000</v>
+      </c>
+      <c r="F83">
+        <v>119024288000</v>
+      </c>
+      <c r="G83">
+        <v>2954047000</v>
+      </c>
+      <c r="H83">
+        <v>27574200</v>
+      </c>
+      <c r="I83">
+        <v>448060639000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-07T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>29874543052000</v>
+      </c>
+      <c r="L83">
+        <v>1825271500</v>
+      </c>
+      <c r="M83">
+        <v>-13806600</v>
+      </c>
+      <c r="N83">
+        <v>-207058016000</v>
+      </c>
+      <c r="O83">
+        <v>-124346700</v>
+      </c>
+      <c r="P83">
+        <v>-1084328256000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1670419560000</v>
+      </c>
+      <c r="B84">
+        <v>23086400</v>
+      </c>
+      <c r="C84">
+        <v>8050200</v>
+      </c>
+      <c r="D84">
+        <v>132600</v>
+      </c>
+      <c r="E84">
+        <v>383360947000</v>
+      </c>
+      <c r="F84">
+        <v>150276059000</v>
+      </c>
+      <c r="G84">
+        <v>2551765000</v>
+      </c>
+      <c r="H84">
+        <v>31269200</v>
+      </c>
+      <c r="I84">
+        <v>536188771000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-07T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>30410731823000</v>
+      </c>
+      <c r="L84">
+        <v>1856540700</v>
+      </c>
+      <c r="M84">
+        <v>-15036200</v>
+      </c>
+      <c r="N84">
+        <v>-233084888000</v>
+      </c>
+      <c r="O84">
+        <v>-139382900</v>
+      </c>
+      <c r="P84">
+        <v>-1317413144000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1670419680000</v>
+      </c>
+      <c r="B85">
+        <v>17303000</v>
+      </c>
+      <c r="C85">
+        <v>11440300</v>
+      </c>
+      <c r="D85">
+        <v>130600</v>
+      </c>
+      <c r="E85">
+        <v>280589307000</v>
+      </c>
+      <c r="F85">
+        <v>198887714000</v>
+      </c>
+      <c r="G85">
+        <v>2066650000</v>
+      </c>
+      <c r="H85">
+        <v>28873900</v>
+      </c>
+      <c r="I85">
+        <v>481543671000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-07T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>30892275494000</v>
+      </c>
+      <c r="L85">
+        <v>1885414600</v>
+      </c>
+      <c r="M85">
+        <v>-5862700</v>
+      </c>
+      <c r="N85">
+        <v>-81701593000</v>
+      </c>
+      <c r="O85">
+        <v>-145245600</v>
+      </c>
+      <c r="P85">
+        <v>-1399114737000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1670419800000</v>
+      </c>
+      <c r="B86">
+        <v>7588800</v>
+      </c>
+      <c r="C86">
+        <v>11420600</v>
+      </c>
+      <c r="D86">
+        <v>148600</v>
+      </c>
+      <c r="E86">
+        <v>124913051000</v>
+      </c>
+      <c r="F86">
+        <v>194525435000</v>
+      </c>
+      <c r="G86">
+        <v>2490222000</v>
+      </c>
+      <c r="H86">
+        <v>19158000</v>
+      </c>
+      <c r="I86">
+        <v>321928708000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-07T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>31214204202000</v>
+      </c>
+      <c r="L86">
+        <v>1904572600</v>
+      </c>
+      <c r="M86">
+        <v>3831800</v>
+      </c>
+      <c r="N86">
+        <v>69612384000</v>
+      </c>
+      <c r="O86">
+        <v>-141413800</v>
+      </c>
+      <c r="P86">
+        <v>-1329502353000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1670419920000</v>
+      </c>
+      <c r="B87">
+        <v>6387500</v>
+      </c>
+      <c r="C87">
+        <v>20251800</v>
+      </c>
+      <c r="D87">
+        <v>95400</v>
+      </c>
+      <c r="E87">
+        <v>118458913000</v>
+      </c>
+      <c r="F87">
+        <v>337249140000</v>
+      </c>
+      <c r="G87">
+        <v>2411607000</v>
+      </c>
+      <c r="H87">
+        <v>26734700</v>
+      </c>
+      <c r="I87">
+        <v>458119660000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-07T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>31672323862000</v>
+      </c>
+      <c r="L87">
+        <v>1931307300</v>
+      </c>
+      <c r="M87">
+        <v>13864300</v>
+      </c>
+      <c r="N87">
+        <v>218790227000</v>
+      </c>
+      <c r="O87">
+        <v>-127549500</v>
+      </c>
+      <c r="P87">
+        <v>-1110712126000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1670420040000</v>
+      </c>
+      <c r="B88">
+        <v>8877600</v>
+      </c>
+      <c r="C88">
+        <v>24658700</v>
+      </c>
+      <c r="D88">
+        <v>233800</v>
+      </c>
+      <c r="E88">
+        <v>169233398000</v>
+      </c>
+      <c r="F88">
+        <v>415435615000</v>
+      </c>
+      <c r="G88">
+        <v>3322480000</v>
+      </c>
+      <c r="H88">
+        <v>33770100</v>
+      </c>
+      <c r="I88">
+        <v>587991493000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-07T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>32260315355000</v>
+      </c>
+      <c r="L88">
+        <v>1965077400</v>
+      </c>
+      <c r="M88">
+        <v>15781100</v>
+      </c>
+      <c r="N88">
+        <v>246202217000</v>
+      </c>
+      <c r="O88">
+        <v>-111768400</v>
+      </c>
+      <c r="P88">
+        <v>-864509909000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1670420160000</v>
+      </c>
+      <c r="B89">
+        <v>11278600</v>
+      </c>
+      <c r="C89">
+        <v>20027800</v>
+      </c>
+      <c r="D89">
+        <v>293900</v>
+      </c>
+      <c r="E89">
+        <v>200521909000</v>
+      </c>
+      <c r="F89">
+        <v>321829793000</v>
+      </c>
+      <c r="G89">
+        <v>5437372000</v>
+      </c>
+      <c r="H89">
+        <v>31600300</v>
+      </c>
+      <c r="I89">
+        <v>527789074000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-07T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>32788104429000</v>
+      </c>
+      <c r="L89">
+        <v>1996677700</v>
+      </c>
+      <c r="M89">
+        <v>8749200</v>
+      </c>
+      <c r="N89">
+        <v>121307884000</v>
+      </c>
+      <c r="O89">
+        <v>-103019200</v>
+      </c>
+      <c r="P89">
+        <v>-743202025000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1670420280000</v>
+      </c>
+      <c r="B90">
+        <v>18346200</v>
+      </c>
+      <c r="C90">
+        <v>12396400</v>
+      </c>
+      <c r="D90">
+        <v>190100</v>
+      </c>
+      <c r="E90">
+        <v>305434621000</v>
+      </c>
+      <c r="F90">
+        <v>212137879000</v>
+      </c>
+      <c r="G90">
+        <v>4560447000</v>
+      </c>
+      <c r="H90">
+        <v>30932700</v>
+      </c>
+      <c r="I90">
+        <v>522132947000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-07T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>33310237376000</v>
+      </c>
+      <c r="L90">
+        <v>2027610400</v>
+      </c>
+      <c r="M90">
+        <v>-5949800</v>
+      </c>
+      <c r="N90">
+        <v>-93296742000</v>
+      </c>
+      <c r="O90">
+        <v>-108969000</v>
+      </c>
+      <c r="P90">
+        <v>-836498767000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1670420400000</v>
+      </c>
+      <c r="B91">
+        <v>13657500</v>
+      </c>
+      <c r="C91">
+        <v>8679400</v>
+      </c>
+      <c r="D91">
+        <v>148500</v>
+      </c>
+      <c r="E91">
+        <v>214706766000</v>
+      </c>
+      <c r="F91">
+        <v>173179275000</v>
+      </c>
+      <c r="G91">
+        <v>2371678000</v>
+      </c>
+      <c r="H91">
+        <v>22485400</v>
+      </c>
+      <c r="I91">
+        <v>390257719000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-07T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>33700495095000</v>
+      </c>
+      <c r="L91">
+        <v>2050095800</v>
+      </c>
+      <c r="M91">
+        <v>-4978100</v>
+      </c>
+      <c r="N91">
+        <v>-41527491000</v>
+      </c>
+      <c r="O91">
+        <v>-113947100</v>
+      </c>
+      <c r="P91">
+        <v>-878026258000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1670420520000</v>
+      </c>
+      <c r="B92">
+        <v>6848900</v>
+      </c>
+      <c r="C92">
+        <v>8380200</v>
+      </c>
+      <c r="D92">
+        <v>39400</v>
+      </c>
+      <c r="E92">
+        <v>121041433000</v>
+      </c>
+      <c r="F92">
+        <v>155440864000</v>
+      </c>
+      <c r="G92">
+        <v>542810000</v>
+      </c>
+      <c r="H92">
+        <v>15268500</v>
+      </c>
+      <c r="I92">
+        <v>277025107000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-07T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>33977520202000</v>
+      </c>
+      <c r="L92">
+        <v>2065364300</v>
+      </c>
+      <c r="M92">
+        <v>1531300</v>
+      </c>
+      <c r="N92">
+        <v>34399431000</v>
+      </c>
+      <c r="O92">
+        <v>-112415800</v>
+      </c>
+      <c r="P92">
+        <v>-843626827000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1670420640000</v>
+      </c>
+      <c r="B93">
+        <v>6097600</v>
+      </c>
+      <c r="C93">
+        <v>10827800</v>
+      </c>
+      <c r="D93">
+        <v>33800</v>
+      </c>
+      <c r="E93">
+        <v>113504720000</v>
+      </c>
+      <c r="F93">
+        <v>179380258000</v>
+      </c>
+      <c r="G93">
+        <v>758273000</v>
+      </c>
+      <c r="H93">
+        <v>16959200</v>
+      </c>
+      <c r="I93">
+        <v>293643251000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-07T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>34271163453000</v>
+      </c>
+      <c r="L93">
+        <v>2082323500</v>
+      </c>
+      <c r="M93">
+        <v>4730200</v>
+      </c>
+      <c r="N93">
+        <v>65875538000</v>
+      </c>
+      <c r="O93">
+        <v>-107685600</v>
+      </c>
+      <c r="P93">
+        <v>-777751289000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1670420760000</v>
+      </c>
+      <c r="B94">
+        <v>6632200</v>
+      </c>
+      <c r="C94">
+        <v>8430500</v>
+      </c>
+      <c r="D94">
+        <v>56000</v>
+      </c>
+      <c r="E94">
+        <v>117723531000</v>
+      </c>
+      <c r="F94">
+        <v>151179282000</v>
+      </c>
+      <c r="G94">
+        <v>1096092000</v>
+      </c>
+      <c r="H94">
+        <v>15118700</v>
+      </c>
+      <c r="I94">
+        <v>269998905000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-07T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>34541162358000</v>
+      </c>
+      <c r="L94">
+        <v>2097442200</v>
+      </c>
+      <c r="M94">
+        <v>1798300</v>
+      </c>
+      <c r="N94">
+        <v>33455751000</v>
+      </c>
+      <c r="O94">
+        <v>-105887300</v>
+      </c>
+      <c r="P94">
+        <v>-744295538000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1670420880000</v>
+      </c>
+      <c r="B95">
+        <v>12329400</v>
+      </c>
+      <c r="C95">
+        <v>4589300</v>
+      </c>
+      <c r="D95">
+        <v>81600</v>
+      </c>
+      <c r="E95">
+        <v>217272085000</v>
+      </c>
+      <c r="F95">
+        <v>80048577000</v>
+      </c>
+      <c r="G95">
+        <v>1385209000</v>
+      </c>
+      <c r="H95">
+        <v>17000300</v>
+      </c>
+      <c r="I95">
+        <v>298705871000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-07T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>34839868229000</v>
+      </c>
+      <c r="L95">
+        <v>2114442500</v>
+      </c>
+      <c r="M95">
+        <v>-7740100</v>
+      </c>
+      <c r="N95">
+        <v>-137223508000</v>
+      </c>
+      <c r="O95">
+        <v>-113627400</v>
+      </c>
+      <c r="P95">
+        <v>-881519046000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1670421000000</v>
+      </c>
+      <c r="B96">
+        <v>16588500</v>
+      </c>
+      <c r="C96">
+        <v>4574900</v>
+      </c>
+      <c r="D96">
+        <v>95500</v>
+      </c>
+      <c r="E96">
+        <v>280979426000</v>
+      </c>
+      <c r="F96">
+        <v>80987116000</v>
+      </c>
+      <c r="G96">
+        <v>1889202000</v>
+      </c>
+      <c r="H96">
+        <v>21258900</v>
+      </c>
+      <c r="I96">
+        <v>363855744000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-07T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>35203723973000</v>
+      </c>
+      <c r="L96">
+        <v>2135701400</v>
+      </c>
+      <c r="M96">
+        <v>-12013600</v>
+      </c>
+      <c r="N96">
+        <v>-199992310000</v>
+      </c>
+      <c r="O96">
+        <v>-125641000</v>
+      </c>
+      <c r="P96">
+        <v>-1081511356000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1670421120000</v>
+      </c>
+      <c r="B97">
+        <v>16002300</v>
+      </c>
+      <c r="C97">
+        <v>5478500</v>
+      </c>
+      <c r="D97">
+        <v>89200</v>
+      </c>
+      <c r="E97">
+        <v>259791695000</v>
+      </c>
+      <c r="F97">
+        <v>90391490000</v>
+      </c>
+      <c r="G97">
+        <v>1542527000</v>
+      </c>
+      <c r="H97">
+        <v>21570000</v>
+      </c>
+      <c r="I97">
+        <v>351725712000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-07T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>35555449685000</v>
+      </c>
+      <c r="L97">
+        <v>2157271400</v>
+      </c>
+      <c r="M97">
+        <v>-10523800</v>
+      </c>
+      <c r="N97">
+        <v>-169400205000</v>
+      </c>
+      <c r="O97">
+        <v>-136164800</v>
+      </c>
+      <c r="P97">
+        <v>-1250911561000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1670421240000</v>
+      </c>
+      <c r="B98">
+        <v>13716600</v>
+      </c>
+      <c r="C98">
+        <v>6691000</v>
+      </c>
+      <c r="D98">
+        <v>77000</v>
+      </c>
+      <c r="E98">
+        <v>221809709000</v>
+      </c>
+      <c r="F98">
+        <v>108290038000</v>
+      </c>
+      <c r="G98">
+        <v>900012000</v>
+      </c>
+      <c r="H98">
+        <v>20484600</v>
+      </c>
+      <c r="I98">
+        <v>330999759000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-07T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>35886449444000</v>
+      </c>
+      <c r="L98">
+        <v>2177756000</v>
+      </c>
+      <c r="M98">
+        <v>-7025600</v>
+      </c>
+      <c r="N98">
+        <v>-113519671000</v>
+      </c>
+      <c r="O98">
+        <v>-143190400</v>
+      </c>
+      <c r="P98">
+        <v>-1364431232000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1670421360000</v>
+      </c>
+      <c r="B99">
+        <v>13136500</v>
+      </c>
+      <c r="C99">
+        <v>10756700</v>
+      </c>
+      <c r="D99">
+        <v>219600</v>
+      </c>
+      <c r="E99">
+        <v>207730630000</v>
+      </c>
+      <c r="F99">
+        <v>205507992000</v>
+      </c>
+      <c r="G99">
+        <v>3141161000</v>
+      </c>
+      <c r="H99">
+        <v>24112800</v>
+      </c>
+      <c r="I99">
+        <v>416379783000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-07T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>36302829227000</v>
+      </c>
+      <c r="L99">
+        <v>2201868800</v>
+      </c>
+      <c r="M99">
+        <v>-2379800</v>
+      </c>
+      <c r="N99">
+        <v>-2222638000</v>
+      </c>
+      <c r="O99">
+        <v>-145570200</v>
+      </c>
+      <c r="P99">
+        <v>-1366653870000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1670421480000</v>
+      </c>
+      <c r="B100">
+        <v>26792500</v>
+      </c>
+      <c r="C100">
+        <v>9849100</v>
+      </c>
+      <c r="D100">
+        <v>175600</v>
+      </c>
+      <c r="E100">
+        <v>425340660000</v>
+      </c>
+      <c r="F100">
+        <v>167287556000</v>
+      </c>
+      <c r="G100">
+        <v>3344076000</v>
+      </c>
+      <c r="H100">
+        <v>36817200</v>
+      </c>
+      <c r="I100">
+        <v>595972292000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-07T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>36898801519000</v>
+      </c>
+      <c r="L100">
+        <v>2238686000</v>
+      </c>
+      <c r="M100">
+        <v>-16943400</v>
+      </c>
+      <c r="N100">
+        <v>-258053104000</v>
+      </c>
+      <c r="O100">
+        <v>-162513600</v>
+      </c>
+      <c r="P100">
+        <v>-1624706974000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1670421600000</v>
+      </c>
+      <c r="B101">
+        <v>35950200</v>
+      </c>
+      <c r="C101">
+        <v>8619400</v>
+      </c>
+      <c r="D101">
+        <v>674600</v>
+      </c>
+      <c r="E101">
+        <v>586704497000</v>
+      </c>
+      <c r="F101">
+        <v>145287970000</v>
+      </c>
+      <c r="G101">
+        <v>11955357000</v>
+      </c>
+      <c r="H101">
+        <v>45244200</v>
+      </c>
+      <c r="I101">
+        <v>743947824000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-07T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>37642749343000</v>
+      </c>
+      <c r="L101">
+        <v>2283930200</v>
+      </c>
+      <c r="M101">
+        <v>-27330800</v>
+      </c>
+      <c r="N101">
+        <v>-441416527000</v>
+      </c>
+      <c r="O101">
+        <v>-189844400</v>
+      </c>
+      <c r="P101">
+        <v>-2066123501000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1670421720000</v>
+      </c>
+      <c r="B102">
+        <v>32746900</v>
+      </c>
+      <c r="C102">
+        <v>8626800</v>
+      </c>
+      <c r="D102">
+        <v>470600</v>
+      </c>
+      <c r="E102">
+        <v>510519122000</v>
+      </c>
+      <c r="F102">
+        <v>164337985000</v>
+      </c>
+      <c r="G102">
+        <v>8372767000</v>
+      </c>
+      <c r="H102">
+        <v>41844300</v>
+      </c>
+      <c r="I102">
+        <v>683229874000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-07T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>38325979217000</v>
+      </c>
+      <c r="L102">
+        <v>2325774500</v>
+      </c>
+      <c r="M102">
+        <v>-24120100</v>
+      </c>
+      <c r="N102">
+        <v>-346181137000</v>
+      </c>
+      <c r="O102">
+        <v>-213964500</v>
+      </c>
+      <c r="P102">
+        <v>-2412304638000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1670421840000</v>
+      </c>
+      <c r="B103">
+        <v>23988200</v>
+      </c>
+      <c r="C103">
+        <v>12939600</v>
+      </c>
+      <c r="D103">
+        <v>478800</v>
+      </c>
+      <c r="E103">
+        <v>317468542000</v>
+      </c>
+      <c r="F103">
+        <v>223573701000</v>
+      </c>
+      <c r="G103">
+        <v>8756759000</v>
+      </c>
+      <c r="H103">
+        <v>37406600</v>
+      </c>
+      <c r="I103">
+        <v>549799002000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-07T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>38875778219000</v>
+      </c>
+      <c r="L103">
+        <v>2363181100</v>
+      </c>
+      <c r="M103">
+        <v>-11048600</v>
+      </c>
+      <c r="N103">
+        <v>-93894841000</v>
+      </c>
+      <c r="O103">
+        <v>-225013100</v>
+      </c>
+      <c r="P103">
+        <v>-2506199479000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1670421960000</v>
+      </c>
+      <c r="B104">
+        <v>34750100</v>
+      </c>
+      <c r="C104">
+        <v>13868800</v>
+      </c>
+      <c r="D104">
+        <v>423800</v>
+      </c>
+      <c r="E104">
+        <v>527865022000</v>
+      </c>
+      <c r="F104">
+        <v>216177750000</v>
+      </c>
+      <c r="G104">
+        <v>7759420000</v>
+      </c>
+      <c r="H104">
+        <v>49042700</v>
+      </c>
+      <c r="I104">
+        <v>751802192000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-07T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>39627580411000</v>
+      </c>
+      <c r="L104">
+        <v>2412223800</v>
+      </c>
+      <c r="M104">
+        <v>-20881300</v>
+      </c>
+      <c r="N104">
+        <v>-311687272000</v>
+      </c>
+      <c r="O104">
+        <v>-245894400</v>
+      </c>
+      <c r="P104">
+        <v>-2817886751000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1670422080000</v>
+      </c>
+      <c r="B105">
+        <v>29042100</v>
+      </c>
+      <c r="C105">
+        <v>17687900</v>
+      </c>
+      <c r="D105">
+        <v>672400</v>
+      </c>
+      <c r="E105">
+        <v>434809701000</v>
+      </c>
+      <c r="F105">
+        <v>289308723000</v>
+      </c>
+      <c r="G105">
+        <v>12254325000</v>
+      </c>
+      <c r="H105">
+        <v>47402400</v>
+      </c>
+      <c r="I105">
+        <v>736372749000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-07T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>40363953160000</v>
+      </c>
+      <c r="L105">
+        <v>2459626200</v>
+      </c>
+      <c r="M105">
+        <v>-11354200</v>
+      </c>
+      <c r="N105">
+        <v>-145500978000</v>
+      </c>
+      <c r="O105">
+        <v>-257248600</v>
+      </c>
+      <c r="P105">
+        <v>-2963387729000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1670422200000</v>
+      </c>
+      <c r="B106">
+        <v>10085200</v>
+      </c>
+      <c r="C106">
+        <v>29749600</v>
+      </c>
+      <c r="D106">
+        <v>618900</v>
+      </c>
+      <c r="E106">
+        <v>173462147000</v>
+      </c>
+      <c r="F106">
+        <v>513943883000</v>
+      </c>
+      <c r="G106">
+        <v>11769630000</v>
+      </c>
+      <c r="H106">
+        <v>40453700</v>
+      </c>
+      <c r="I106">
+        <v>699175660000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-07T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>41063128820000</v>
+      </c>
+      <c r="L106">
+        <v>2500079900</v>
+      </c>
+      <c r="M106">
+        <v>19664400</v>
+      </c>
+      <c r="N106">
+        <v>340481736000</v>
+      </c>
+      <c r="O106">
+        <v>-237584200</v>
+      </c>
+      <c r="P106">
+        <v>-2622905993000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1670422320000</v>
+      </c>
+      <c r="B107">
+        <v>6018400</v>
+      </c>
+      <c r="C107">
+        <v>21292000</v>
+      </c>
+      <c r="D107">
+        <v>245600</v>
+      </c>
+      <c r="E107">
+        <v>109768336000</v>
+      </c>
+      <c r="F107">
+        <v>348499873000</v>
+      </c>
+      <c r="G107">
+        <v>3547287000</v>
+      </c>
+      <c r="H107">
+        <v>27556000</v>
+      </c>
+      <c r="I107">
+        <v>461815496000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-07T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>41524944316000</v>
+      </c>
+      <c r="L107">
+        <v>2527635900</v>
+      </c>
+      <c r="M107">
+        <v>15273600</v>
+      </c>
+      <c r="N107">
+        <v>238731537000</v>
+      </c>
+      <c r="O107">
+        <v>-222310600</v>
+      </c>
+      <c r="P107">
+        <v>-2384174456000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1670422440000</v>
+      </c>
+      <c r="B108">
+        <v>7986500</v>
+      </c>
+      <c r="C108">
+        <v>14861800</v>
+      </c>
+      <c r="D108">
+        <v>375400</v>
+      </c>
+      <c r="E108">
+        <v>133515615000</v>
+      </c>
+      <c r="F108">
+        <v>263320866000</v>
+      </c>
+      <c r="G108">
+        <v>6483430000</v>
+      </c>
+      <c r="H108">
+        <v>23223700</v>
+      </c>
+      <c r="I108">
+        <v>403319911000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-07T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>41928264227000</v>
+      </c>
+      <c r="L108">
+        <v>2550859600</v>
+      </c>
+      <c r="M108">
+        <v>6875300</v>
+      </c>
+      <c r="N108">
+        <v>129805251000</v>
+      </c>
+      <c r="O108">
+        <v>-215435300</v>
+      </c>
+      <c r="P108">
+        <v>-2254369205000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1670422560000</v>
+      </c>
+      <c r="B109">
+        <v>11660000</v>
+      </c>
+      <c r="C109">
+        <v>10796800</v>
+      </c>
+      <c r="D109">
+        <v>128800</v>
+      </c>
+      <c r="E109">
+        <v>207509240000</v>
+      </c>
+      <c r="F109">
+        <v>211143040000</v>
+      </c>
+      <c r="G109">
+        <v>2913505000</v>
+      </c>
+      <c r="H109">
+        <v>22585600</v>
+      </c>
+      <c r="I109">
+        <v>421565785000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-07T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>42349830012000</v>
+      </c>
+      <c r="L109">
+        <v>2573445200</v>
+      </c>
+      <c r="M109">
+        <v>-863200</v>
+      </c>
+      <c r="N109">
+        <v>3633800000</v>
+      </c>
+      <c r="O109">
+        <v>-216298500</v>
+      </c>
+      <c r="P109">
+        <v>-2250735405000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1670422680000</v>
+      </c>
+      <c r="B110">
+        <v>12852800</v>
+      </c>
+      <c r="C110">
+        <v>9502900</v>
+      </c>
+      <c r="D110">
+        <v>302400</v>
+      </c>
+      <c r="E110">
+        <v>213281853000</v>
+      </c>
+      <c r="F110">
+        <v>157438636000</v>
+      </c>
+      <c r="G110">
+        <v>5460978000</v>
+      </c>
+      <c r="H110">
+        <v>22658100</v>
+      </c>
+      <c r="I110">
+        <v>376181467000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-07T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>42726011479000</v>
+      </c>
+      <c r="L110">
+        <v>2596103300</v>
+      </c>
+      <c r="M110">
+        <v>-3349900</v>
+      </c>
+      <c r="N110">
+        <v>-55843217000</v>
+      </c>
+      <c r="O110">
+        <v>-219648400</v>
+      </c>
+      <c r="P110">
+        <v>-2306578622000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1670422800000</v>
+      </c>
+      <c r="B111">
+        <v>15867700</v>
+      </c>
+      <c r="C111">
+        <v>8861500</v>
+      </c>
+      <c r="D111">
+        <v>290900</v>
+      </c>
+      <c r="E111">
+        <v>243322579000</v>
+      </c>
+      <c r="F111">
+        <v>146528793000</v>
+      </c>
+      <c r="G111">
+        <v>6365837000</v>
+      </c>
+      <c r="H111">
+        <v>25020100</v>
+      </c>
+      <c r="I111">
+        <v>396217209000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-07T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>43122228688000</v>
+      </c>
+      <c r="L111">
+        <v>2621123400</v>
+      </c>
+      <c r="M111">
+        <v>-7006200</v>
+      </c>
+      <c r="N111">
+        <v>-96793786000</v>
+      </c>
+      <c r="O111">
+        <v>-226654600</v>
+      </c>
+      <c r="P111">
+        <v>-2403372408000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1670422920000</v>
+      </c>
+      <c r="B112">
+        <v>22619600</v>
+      </c>
+      <c r="C112">
+        <v>8600200</v>
+      </c>
+      <c r="D112">
+        <v>583500</v>
+      </c>
+      <c r="E112">
+        <v>357179073000</v>
+      </c>
+      <c r="F112">
+        <v>146073004000</v>
+      </c>
+      <c r="G112">
+        <v>9563202000</v>
+      </c>
+      <c r="H112">
+        <v>31803300</v>
+      </c>
+      <c r="I112">
+        <v>512815279000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-07T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>43635043967000</v>
+      </c>
+      <c r="L112">
+        <v>2652926700</v>
+      </c>
+      <c r="M112">
+        <v>-14019400</v>
+      </c>
+      <c r="N112">
+        <v>-211106069000</v>
+      </c>
+      <c r="O112">
+        <v>-240674000</v>
+      </c>
+      <c r="P112">
+        <v>-2614478477000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1670423040000</v>
+      </c>
+      <c r="B113">
+        <v>24647400</v>
+      </c>
+      <c r="C113">
+        <v>10581600</v>
+      </c>
+      <c r="D113">
+        <v>526100</v>
+      </c>
+      <c r="E113">
+        <v>405524735000</v>
+      </c>
+      <c r="F113">
+        <v>198741262000</v>
+      </c>
+      <c r="G113">
+        <v>8892710000</v>
+      </c>
+      <c r="H113">
+        <v>35755100</v>
+      </c>
+      <c r="I113">
+        <v>613158707000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-07T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>44248202674000</v>
+      </c>
+      <c r="L113">
+        <v>2688681800</v>
+      </c>
+      <c r="M113">
+        <v>-14065800</v>
+      </c>
+      <c r="N113">
+        <v>-206783473000</v>
+      </c>
+      <c r="O113">
+        <v>-254739800</v>
+      </c>
+      <c r="P113">
+        <v>-2821261950000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1670423160000</v>
+      </c>
+      <c r="B114">
+        <v>22777000</v>
+      </c>
+      <c r="C114">
+        <v>12070400</v>
+      </c>
+      <c r="D114">
+        <v>499000</v>
+      </c>
+      <c r="E114">
+        <v>373769825000</v>
+      </c>
+      <c r="F114">
+        <v>222696256000</v>
+      </c>
+      <c r="G114">
+        <v>12872582000</v>
+      </c>
+      <c r="H114">
+        <v>35346400</v>
+      </c>
+      <c r="I114">
+        <v>609338663000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-07T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>44857541337000</v>
+      </c>
+      <c r="L114">
+        <v>2724028200</v>
+      </c>
+      <c r="M114">
+        <v>-10706600</v>
+      </c>
+      <c r="N114">
+        <v>-151073569000</v>
+      </c>
+      <c r="O114">
+        <v>-265446400</v>
+      </c>
+      <c r="P114">
+        <v>-2972335519000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1670423280000</v>
+      </c>
+      <c r="B115">
+        <v>21427600</v>
+      </c>
+      <c r="C115">
+        <v>13545300</v>
+      </c>
+      <c r="D115">
+        <v>734500</v>
+      </c>
+      <c r="E115">
+        <v>359495921000</v>
+      </c>
+      <c r="F115">
+        <v>221826023000</v>
+      </c>
+      <c r="G115">
+        <v>15490511000</v>
+      </c>
+      <c r="H115">
+        <v>35707400</v>
+      </c>
+      <c r="I115">
+        <v>596812455000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-07T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>45454353792000</v>
+      </c>
+      <c r="L115">
+        <v>2759735600</v>
+      </c>
+      <c r="M115">
+        <v>-7882300</v>
+      </c>
+      <c r="N115">
+        <v>-137669898000</v>
+      </c>
+      <c r="O115">
+        <v>-273328700</v>
+      </c>
+      <c r="P115">
+        <v>-3110005417000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1670423400000</v>
+      </c>
+      <c r="B116">
+        <v>595400</v>
+      </c>
+      <c r="C116">
+        <v>330700</v>
+      </c>
+      <c r="D116">
+        <v>1383800</v>
+      </c>
+      <c r="E116">
+        <v>8373743000</v>
+      </c>
+      <c r="F116">
+        <v>5265504000</v>
+      </c>
+      <c r="G116">
+        <v>19813499000</v>
+      </c>
+      <c r="H116">
+        <v>2309900</v>
+      </c>
+      <c r="I116">
+        <v>33452746000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-07T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>45487806538000</v>
+      </c>
+      <c r="L116">
+        <v>2762045500</v>
+      </c>
+      <c r="M116">
+        <v>-264700</v>
+      </c>
+      <c r="N116">
+        <v>-3108239000</v>
+      </c>
+      <c r="O116">
+        <v>-273593400</v>
+      </c>
+      <c r="P116">
+        <v>-3113113656000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1670423520000</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>10100</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>101000000</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>10100</v>
+      </c>
+      <c r="I117">
+        <v>101000000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-07T14:32:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>45487907538000</v>
+      </c>
+      <c r="L117">
+        <v>2762055600</v>
+      </c>
+      <c r="M117">
+        <v>10100</v>
+      </c>
+      <c r="N117">
+        <v>101000000</v>
+      </c>
+      <c r="O117">
+        <v>-273583300</v>
+      </c>
+      <c r="P117">
+        <v>-3113012656000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1670423640000</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>200</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>2000000</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>200</v>
+      </c>
+      <c r="I118">
+        <v>2000000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-07T14:34:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>45487909538000</v>
+      </c>
+      <c r="L118">
+        <v>2762055800</v>
+      </c>
+      <c r="M118">
+        <v>200</v>
+      </c>
+      <c r="N118">
+        <v>2000000</v>
+      </c>
+      <c r="O118">
+        <v>-273583100</v>
+      </c>
+      <c r="P118">
+        <v>-3113010656000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1670423760000</v>
+      </c>
+      <c r="B119">
+        <v>500</v>
+      </c>
+      <c r="C119">
+        <v>300</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>5000000</v>
+      </c>
+      <c r="F119">
+        <v>3000000</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>800</v>
+      </c>
+      <c r="I119">
+        <v>8000000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2022-12-07T14:36:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>45487917538000</v>
+      </c>
+      <c r="L119">
+        <v>2762056600</v>
+      </c>
+      <c r="M119">
+        <v>-200</v>
+      </c>
+      <c r="N119">
+        <v>-2000000</v>
+      </c>
+      <c r="O119">
+        <v>-273583300</v>
+      </c>
+      <c r="P119">
+        <v>-3113012656000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1670423880000</v>
+      </c>
+      <c r="B120">
+        <v>500</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>5000000</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>500</v>
+      </c>
+      <c r="I120">
+        <v>5000000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2022-12-07T14:38:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>45487922538000</v>
+      </c>
+      <c r="L120">
+        <v>2762057100</v>
+      </c>
+      <c r="M120">
+        <v>-500</v>
+      </c>
+      <c r="N120">
+        <v>-5000000</v>
+      </c>
+      <c r="O120">
+        <v>-273583800</v>
+      </c>
+      <c r="P120">
+        <v>-3113017656000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1670424240000</v>
+      </c>
+      <c r="B121">
+        <v>15676800</v>
+      </c>
+      <c r="C121">
+        <v>19671500</v>
+      </c>
+      <c r="D121">
+        <v>83539600</v>
+      </c>
+      <c r="E121">
+        <v>274383875000</v>
+      </c>
+      <c r="F121">
+        <v>448364982000</v>
+      </c>
+      <c r="G121">
+        <v>1555188791000</v>
+      </c>
+      <c r="H121">
+        <v>118887900</v>
+      </c>
+      <c r="I121">
+        <v>2277937648000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2022-12-07T14:44:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>47765860186000</v>
+      </c>
+      <c r="L121">
+        <v>2880945000</v>
+      </c>
+      <c r="M121">
+        <v>3994700</v>
+      </c>
+      <c r="N121">
+        <v>173981107000</v>
+      </c>
+      <c r="O121">
+        <v>-269589100</v>
+      </c>
+      <c r="P121">
+        <v>-2939036549000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1670424720000</v>
+      </c>
+      <c r="B122">
+        <v>2000</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>19800000</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>2000</v>
+      </c>
+      <c r="I122">
+        <v>19800000</v>
+      </c>
+      <c r="J122" t="str">
+        <v>2022-12-07T14:52:00.000Z</v>
+      </c>
+      <c r="K122">
+        <v>47765879986000</v>
+      </c>
+      <c r="L122">
+        <v>2880947000</v>
+      </c>
+      <c r="M122">
+        <v>-2000</v>
+      </c>
+      <c r="N122">
+        <v>-19800000</v>
+      </c>
+      <c r="O122">
+        <v>-269591100</v>
+      </c>
+      <c r="P122">
+        <v>-2939056349000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1670424840000</v>
+      </c>
+      <c r="B123">
+        <v>5700</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>56430000</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>5700</v>
+      </c>
+      <c r="I123">
+        <v>56430000</v>
+      </c>
+      <c r="J123" t="str">
+        <v>2022-12-07T14:54:00.000Z</v>
+      </c>
+      <c r="K123">
+        <v>47765936416000</v>
+      </c>
+      <c r="L123">
+        <v>2880952700</v>
+      </c>
+      <c r="M123">
+        <v>-5700</v>
+      </c>
+      <c r="N123">
+        <v>-56430000</v>
+      </c>
+      <c r="O123">
+        <v>-269596800</v>
+      </c>
+      <c r="P123">
+        <v>-2939112779000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>1670424960000</v>
+      </c>
+      <c r="B124">
         <v>3000</v>
       </c>
-      <c r="C53">
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>29700000</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>3000</v>
+      </c>
+      <c r="I124">
+        <v>29700000</v>
+      </c>
+      <c r="J124" t="str">
+        <v>2022-12-07T14:56:00.000Z</v>
+      </c>
+      <c r="K124">
+        <v>47765966116000</v>
+      </c>
+      <c r="L124">
+        <v>2880955700</v>
+      </c>
+      <c r="M124">
+        <v>-3000</v>
+      </c>
+      <c r="N124">
+        <v>-29700000</v>
+      </c>
+      <c r="O124">
+        <v>-269599800</v>
+      </c>
+      <c r="P124">
+        <v>-2939142479000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>1670425080000</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
         <v>100</v>
       </c>
-      <c r="D53">
+      <c r="D125">
         <v>0</v>
       </c>
-      <c r="E53">
-        <v>29700000</v>
-      </c>
-      <c r="F53">
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
         <v>1010000</v>
       </c>
-      <c r="G53">
+      <c r="G125">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>3100</v>
-      </c>
-      <c r="I53">
-        <v>30710000</v>
-      </c>
-      <c r="J53" t="str">
-        <v>2022-12-07T14:55:00.000Z</v>
-      </c>
-      <c r="K53">
+      <c r="H125">
+        <v>100</v>
+      </c>
+      <c r="I125">
+        <v>1010000</v>
+      </c>
+      <c r="J125" t="str">
+        <v>2022-12-07T14:58:00.000Z</v>
+      </c>
+      <c r="K125">
         <v>47765967126000</v>
       </c>
-      <c r="L53">
+      <c r="L125">
         <v>2880955800</v>
       </c>
-      <c r="M53">
-        <v>-2900</v>
-      </c>
-      <c r="N53">
-        <v>-28690000</v>
-      </c>
-      <c r="O53">
+      <c r="M125">
+        <v>100</v>
+      </c>
+      <c r="N125">
+        <v>1010000</v>
+      </c>
+      <c r="O125">
         <v>-269599700</v>
       </c>
-      <c r="P53">
+      <c r="P125">
         <v>-2939141469000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P125"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221207/VNINDEX_HOSE_5p_20221207.xlsx
+++ b/name/vnindex/20221207/VNINDEX_HOSE_5p_20221207.xlsx
@@ -466,25 +466,25 @@
         <v>51447700</v>
       </c>
       <c r="E2">
-        <v>371825051000</v>
+        <v>325473548900</v>
       </c>
       <c r="F2">
-        <v>514301810000</v>
+        <v>443268914000</v>
       </c>
       <c r="G2">
-        <v>764497253000</v>
+        <v>534754425800</v>
       </c>
       <c r="H2">
         <v>109179000</v>
       </c>
       <c r="I2">
-        <v>1650624114000</v>
+        <v>1303496888700</v>
       </c>
       <c r="J2" t="str">
         <v>2022-12-07T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>1650624114000</v>
+        <v>1303496888700</v>
       </c>
       <c r="L2">
         <v>109179000</v>
@@ -493,13 +493,13 @@
         <v>3350900</v>
       </c>
       <c r="N2">
-        <v>142476759000</v>
+        <v>117795365100</v>
       </c>
       <c r="O2">
         <v>3350900</v>
       </c>
       <c r="P2">
-        <v>142476759000</v>
+        <v>117795365100</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>537100</v>
       </c>
       <c r="E3">
-        <v>298046313000</v>
+        <v>272194590600</v>
       </c>
       <c r="F3">
-        <v>423272155000</v>
+        <v>387045917500</v>
       </c>
       <c r="G3">
-        <v>6825646000</v>
+        <v>6819252400</v>
       </c>
       <c r="H3">
         <v>48006200</v>
       </c>
       <c r="I3">
-        <v>728144114000</v>
+        <v>666059760500</v>
       </c>
       <c r="J3" t="str">
         <v>2022-12-07T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>2378768228000</v>
+        <v>1969556649200</v>
       </c>
       <c r="L3">
         <v>157185200</v>
@@ -543,13 +543,13 @@
         <v>7614300</v>
       </c>
       <c r="N3">
-        <v>125225842000</v>
+        <v>114851326900</v>
       </c>
       <c r="O3">
         <v>10965200</v>
       </c>
       <c r="P3">
-        <v>267702601000</v>
+        <v>232646692000</v>
       </c>
     </row>
     <row r="4">
@@ -566,25 +566,25 @@
         <v>222800</v>
       </c>
       <c r="E4">
-        <v>195910413000</v>
+        <v>174172173000</v>
       </c>
       <c r="F4">
-        <v>436152706000</v>
+        <v>372037085800</v>
       </c>
       <c r="G4">
-        <v>3549602000</v>
+        <v>3364587200</v>
       </c>
       <c r="H4">
         <v>38370000</v>
       </c>
       <c r="I4">
-        <v>635612721000</v>
+        <v>549573846000</v>
       </c>
       <c r="J4" t="str">
         <v>2022-12-07T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>3014380949000</v>
+        <v>2519130495200</v>
       </c>
       <c r="L4">
         <v>195555200</v>
@@ -593,13 +593,13 @@
         <v>13070400</v>
       </c>
       <c r="N4">
-        <v>240242293000</v>
+        <v>197864912800</v>
       </c>
       <c r="O4">
         <v>24035600</v>
       </c>
       <c r="P4">
-        <v>507944894000</v>
+        <v>430511604800</v>
       </c>
     </row>
     <row r="5">
@@ -616,25 +616,25 @@
         <v>94200</v>
       </c>
       <c r="E5">
-        <v>237301394000</v>
+        <v>211434386900</v>
       </c>
       <c r="F5">
-        <v>415981904000</v>
+        <v>397039665200</v>
       </c>
       <c r="G5">
-        <v>1917121000</v>
+        <v>1380458200</v>
       </c>
       <c r="H5">
         <v>40567500</v>
       </c>
       <c r="I5">
-        <v>655200419000</v>
+        <v>609854510300</v>
       </c>
       <c r="J5" t="str">
         <v>2022-12-07T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>3669581368000</v>
+        <v>3128985005500</v>
       </c>
       <c r="L5">
         <v>236122700</v>
@@ -643,13 +643,13 @@
         <v>10076700</v>
       </c>
       <c r="N5">
-        <v>178680510000</v>
+        <v>185605278300</v>
       </c>
       <c r="O5">
         <v>34112300</v>
       </c>
       <c r="P5">
-        <v>686625404000</v>
+        <v>616116883100</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>229800</v>
       </c>
       <c r="E6">
-        <v>315231430000</v>
+        <v>279839457400</v>
       </c>
       <c r="F6">
-        <v>473662566000</v>
+        <v>435277689300</v>
       </c>
       <c r="G6">
-        <v>3460965000</v>
+        <v>3299127000</v>
       </c>
       <c r="H6">
         <v>46220000</v>
       </c>
       <c r="I6">
-        <v>792354961000</v>
+        <v>718416273700</v>
       </c>
       <c r="J6" t="str">
         <v>2022-12-07T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>4461936329000</v>
+        <v>3847401279200</v>
       </c>
       <c r="L6">
         <v>282342700</v>
@@ -693,13 +693,13 @@
         <v>6661400</v>
       </c>
       <c r="N6">
-        <v>158431136000</v>
+        <v>155438231900</v>
       </c>
       <c r="O6">
         <v>40773700</v>
       </c>
       <c r="P6">
-        <v>845056540000</v>
+        <v>771555115000</v>
       </c>
     </row>
     <row r="7">
@@ -716,25 +716,25 @@
         <v>297000</v>
       </c>
       <c r="E7">
-        <v>366797650000</v>
+        <v>338352124000</v>
       </c>
       <c r="F7">
-        <v>302433001000</v>
+        <v>267278390800</v>
       </c>
       <c r="G7">
-        <v>3801665000</v>
+        <v>3665801000</v>
       </c>
       <c r="H7">
         <v>41260500</v>
       </c>
       <c r="I7">
-        <v>673032316000</v>
+        <v>609296315800</v>
       </c>
       <c r="J7" t="str">
         <v>2022-12-07T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>5134968645000</v>
+        <v>4456697595000</v>
       </c>
       <c r="L7">
         <v>323603200</v>
@@ -743,13 +743,13 @@
         <v>-5394100</v>
       </c>
       <c r="N7">
-        <v>-64364649000</v>
+        <v>-71073733200</v>
       </c>
       <c r="O7">
         <v>35379600</v>
       </c>
       <c r="P7">
-        <v>780691891000</v>
+        <v>700481381800</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>101900</v>
       </c>
       <c r="E8">
-        <v>329579527000</v>
+        <v>317044974100</v>
       </c>
       <c r="F8">
-        <v>202113334000</v>
+        <v>183750015700</v>
       </c>
       <c r="G8">
         <v>1856922000</v>
@@ -778,13 +778,13 @@
         <v>32094100</v>
       </c>
       <c r="I8">
-        <v>533549783000</v>
+        <v>502651911800</v>
       </c>
       <c r="J8" t="str">
         <v>2022-12-07T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>5668518428000</v>
+        <v>4959349506800</v>
       </c>
       <c r="L8">
         <v>355697300</v>
@@ -793,13 +793,13 @@
         <v>-8000000</v>
       </c>
       <c r="N8">
-        <v>-127466193000</v>
+        <v>-133294958400</v>
       </c>
       <c r="O8">
         <v>27379600</v>
       </c>
       <c r="P8">
-        <v>653225698000</v>
+        <v>567186423400</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>88400</v>
       </c>
       <c r="E9">
-        <v>351292296000</v>
+        <v>325906307400</v>
       </c>
       <c r="F9">
-        <v>193120231000</v>
+        <v>177003763600</v>
       </c>
       <c r="G9">
-        <v>1585615000</v>
+        <v>1583617000</v>
       </c>
       <c r="H9">
         <v>31873500</v>
       </c>
       <c r="I9">
-        <v>545998142000</v>
+        <v>504493688000</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-07T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>6214516570000</v>
+        <v>5463843194800</v>
       </c>
       <c r="L9">
         <v>387570800</v>
@@ -843,13 +843,13 @@
         <v>-9165500</v>
       </c>
       <c r="N9">
-        <v>-158172065000</v>
+        <v>-148902543800</v>
       </c>
       <c r="O9">
         <v>18214100</v>
       </c>
       <c r="P9">
-        <v>495053633000</v>
+        <v>418283879600</v>
       </c>
     </row>
     <row r="10">
@@ -866,25 +866,25 @@
         <v>171400</v>
       </c>
       <c r="E10">
-        <v>287461824000</v>
+        <v>255021197100</v>
       </c>
       <c r="F10">
-        <v>162581123000</v>
+        <v>144013309400</v>
       </c>
       <c r="G10">
-        <v>2493544000</v>
+        <v>2217820000</v>
       </c>
       <c r="H10">
         <v>29126100</v>
       </c>
       <c r="I10">
-        <v>452536491000</v>
+        <v>401252326500</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-07T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>6667053061000</v>
+        <v>5865095521300</v>
       </c>
       <c r="L10">
         <v>416696900</v>
@@ -893,13 +893,13 @@
         <v>-9966300</v>
       </c>
       <c r="N10">
-        <v>-124880701000</v>
+        <v>-111007887700</v>
       </c>
       <c r="O10">
         <v>8247800</v>
       </c>
       <c r="P10">
-        <v>370172932000</v>
+        <v>307275991900</v>
       </c>
     </row>
     <row r="11">
@@ -916,25 +916,25 @@
         <v>173000</v>
       </c>
       <c r="E11">
-        <v>269840562000</v>
+        <v>254422795200</v>
       </c>
       <c r="F11">
-        <v>159486770000</v>
+        <v>154688073500</v>
       </c>
       <c r="G11">
-        <v>3117658000</v>
+        <v>2902473400</v>
       </c>
       <c r="H11">
         <v>27034200</v>
       </c>
       <c r="I11">
-        <v>432444990000</v>
+        <v>412013342100</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-07T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>7099498051000</v>
+        <v>6277108863400</v>
       </c>
       <c r="L11">
         <v>443731100</v>
@@ -943,13 +943,13 @@
         <v>-8328800</v>
       </c>
       <c r="N11">
-        <v>-110353792000</v>
+        <v>-99734721700</v>
       </c>
       <c r="O11">
         <v>-81000</v>
       </c>
       <c r="P11">
-        <v>259819140000</v>
+        <v>207541270200</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>108800</v>
       </c>
       <c r="E12">
-        <v>217786700000</v>
+        <v>195734374400</v>
       </c>
       <c r="F12">
-        <v>167878704000</v>
+        <v>157964028600</v>
       </c>
       <c r="G12">
-        <v>2151444000</v>
+        <v>2068427100</v>
       </c>
       <c r="H12">
         <v>22723300</v>
       </c>
       <c r="I12">
-        <v>387816848000</v>
+        <v>355766830100</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-07T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>7487314899000</v>
+        <v>6632875693500</v>
       </c>
       <c r="L12">
         <v>466454400</v>
@@ -993,13 +993,13 @@
         <v>-2638500</v>
       </c>
       <c r="N12">
-        <v>-49907996000</v>
+        <v>-37770345800</v>
       </c>
       <c r="O12">
         <v>-2719500</v>
       </c>
       <c r="P12">
-        <v>209911144000</v>
+        <v>169770924400</v>
       </c>
     </row>
     <row r="13">
@@ -1016,25 +1016,25 @@
         <v>114100</v>
       </c>
       <c r="E13">
-        <v>104970473000</v>
+        <v>91226430800</v>
       </c>
       <c r="F13">
-        <v>295333866000</v>
+        <v>246565583100</v>
       </c>
       <c r="G13">
-        <v>2448590000</v>
+        <v>1824414800</v>
       </c>
       <c r="H13">
         <v>23352400</v>
       </c>
       <c r="I13">
-        <v>402752929000</v>
+        <v>339616428700</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-07T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>7890067828000</v>
+        <v>6972492122200</v>
       </c>
       <c r="L13">
         <v>489806800</v>
@@ -1043,13 +1043,13 @@
         <v>10667100</v>
       </c>
       <c r="N13">
-        <v>190363393000</v>
+        <v>155339152300</v>
       </c>
       <c r="O13">
         <v>7947600</v>
       </c>
       <c r="P13">
-        <v>400274537000</v>
+        <v>325110076700</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>134200</v>
       </c>
       <c r="E14">
-        <v>104570835000</v>
+        <v>88302219900</v>
       </c>
       <c r="F14">
-        <v>293344960000</v>
+        <v>255047595700</v>
       </c>
       <c r="G14">
-        <v>2166116000</v>
+        <v>2117165000</v>
       </c>
       <c r="H14">
         <v>24490100</v>
       </c>
       <c r="I14">
-        <v>400081911000</v>
+        <v>345466980600</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-07T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>8290149739000</v>
+        <v>7317959102800</v>
       </c>
       <c r="L14">
         <v>514296900</v>
@@ -1093,13 +1093,13 @@
         <v>11007700</v>
       </c>
       <c r="N14">
-        <v>188774125000</v>
+        <v>166745375800</v>
       </c>
       <c r="O14">
         <v>18955300</v>
       </c>
       <c r="P14">
-        <v>589048662000</v>
+        <v>491855452500</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>52800</v>
       </c>
       <c r="E15">
-        <v>99838031000</v>
+        <v>86481900500</v>
       </c>
       <c r="F15">
-        <v>218528579000</v>
+        <v>199624202300</v>
       </c>
       <c r="G15">
         <v>1522179000</v>
@@ -1128,13 +1128,13 @@
         <v>20155400</v>
       </c>
       <c r="I15">
-        <v>319888789000</v>
+        <v>287628281800</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-07T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>8610038528000</v>
+        <v>7605587384600</v>
       </c>
       <c r="L15">
         <v>534452300</v>
@@ -1143,13 +1143,13 @@
         <v>8592000</v>
       </c>
       <c r="N15">
-        <v>118690548000</v>
+        <v>113142301800</v>
       </c>
       <c r="O15">
         <v>27547300</v>
       </c>
       <c r="P15">
-        <v>707739210000</v>
+        <v>604997754300</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>104500</v>
       </c>
       <c r="E16">
-        <v>99208095000</v>
+        <v>90163248900</v>
       </c>
       <c r="F16">
-        <v>227415806000</v>
+        <v>197396255600</v>
       </c>
       <c r="G16">
-        <v>1485563000</v>
+        <v>1455393200</v>
       </c>
       <c r="H16">
         <v>17625100</v>
       </c>
       <c r="I16">
-        <v>328109464000</v>
+        <v>289014897700</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-07T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>8938147992000</v>
+        <v>7894602282300</v>
       </c>
       <c r="L16">
         <v>552077400</v>
@@ -1193,13 +1193,13 @@
         <v>6025200</v>
       </c>
       <c r="N16">
-        <v>128207711000</v>
+        <v>107233006700</v>
       </c>
       <c r="O16">
         <v>33572500</v>
       </c>
       <c r="P16">
-        <v>835946921000</v>
+        <v>712230761000</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>53800</v>
       </c>
       <c r="E17">
-        <v>127192162000</v>
+        <v>116994469900</v>
       </c>
       <c r="F17">
-        <v>204162511000</v>
+        <v>187152837700</v>
       </c>
       <c r="G17">
         <v>1009964000</v>
@@ -1228,13 +1228,13 @@
         <v>19385200</v>
       </c>
       <c r="I17">
-        <v>332364637000</v>
+        <v>305157271600</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-07T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>9270512629000</v>
+        <v>8199759553900</v>
       </c>
       <c r="L17">
         <v>571462600</v>
@@ -1243,13 +1243,13 @@
         <v>3075000</v>
       </c>
       <c r="N17">
-        <v>76970349000</v>
+        <v>70158367800</v>
       </c>
       <c r="O17">
         <v>36647500</v>
       </c>
       <c r="P17">
-        <v>912917270000</v>
+        <v>782389128800</v>
       </c>
     </row>
     <row r="18">
@@ -1266,25 +1266,25 @@
         <v>104000</v>
       </c>
       <c r="E18">
-        <v>136334815000</v>
+        <v>127735123300</v>
       </c>
       <c r="F18">
-        <v>172454441000</v>
+        <v>161025181700</v>
       </c>
       <c r="G18">
-        <v>1068004000</v>
+        <v>1030241800</v>
       </c>
       <c r="H18">
         <v>21675700</v>
       </c>
       <c r="I18">
-        <v>309857260000</v>
+        <v>289790546800</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-07T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>9580369889000</v>
+        <v>8489550100700</v>
       </c>
       <c r="L18">
         <v>593138300</v>
@@ -1293,13 +1293,13 @@
         <v>3698300</v>
       </c>
       <c r="N18">
-        <v>36119626000</v>
+        <v>33290058400</v>
       </c>
       <c r="O18">
         <v>40345800</v>
       </c>
       <c r="P18">
-        <v>949036896000</v>
+        <v>815679187200</v>
       </c>
     </row>
     <row r="19">
@@ -1316,25 +1316,25 @@
         <v>53600</v>
       </c>
       <c r="E19">
-        <v>129659119000</v>
+        <v>117506383900</v>
       </c>
       <c r="F19">
-        <v>139085273000</v>
+        <v>132019445900</v>
       </c>
       <c r="G19">
-        <v>1059855000</v>
+        <v>924490500</v>
       </c>
       <c r="H19">
         <v>16720800</v>
       </c>
       <c r="I19">
-        <v>269804247000</v>
+        <v>250450320300</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-07T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>9850174136000</v>
+        <v>8740000421000</v>
       </c>
       <c r="L19">
         <v>609859100</v>
@@ -1343,13 +1343,13 @@
         <v>-828400</v>
       </c>
       <c r="N19">
-        <v>9426154000</v>
+        <v>14513062000</v>
       </c>
       <c r="O19">
         <v>39517400</v>
       </c>
       <c r="P19">
-        <v>958463050000</v>
+        <v>830192249200</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>45200</v>
       </c>
       <c r="E20">
-        <v>161376240000</v>
+        <v>138178660800</v>
       </c>
       <c r="F20">
-        <v>128147124000</v>
+        <v>117532349400</v>
       </c>
       <c r="G20">
         <v>602563000</v>
@@ -1378,13 +1378,13 @@
         <v>17483300</v>
       </c>
       <c r="I20">
-        <v>290125927000</v>
+        <v>256313573200</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-07T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>10140300063000</v>
+        <v>8996313994200</v>
       </c>
       <c r="L20">
         <v>627342400</v>
@@ -1393,13 +1393,13 @@
         <v>-943700</v>
       </c>
       <c r="N20">
-        <v>-33229116000</v>
+        <v>-20646311400</v>
       </c>
       <c r="O20">
         <v>38573700</v>
       </c>
       <c r="P20">
-        <v>925233934000</v>
+        <v>809545937800</v>
       </c>
     </row>
     <row r="21">
@@ -1416,25 +1416,25 @@
         <v>149800</v>
       </c>
       <c r="E21">
-        <v>183917879000</v>
+        <v>172573934300</v>
       </c>
       <c r="F21">
-        <v>142902005000</v>
+        <v>133919096900</v>
       </c>
       <c r="G21">
-        <v>2418351000</v>
+        <v>2404564800</v>
       </c>
       <c r="H21">
         <v>20855000</v>
       </c>
       <c r="I21">
-        <v>329238235000</v>
+        <v>308897596000</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-07T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>10469538298000</v>
+        <v>9305211590200</v>
       </c>
       <c r="L21">
         <v>648197400</v>
@@ -1443,13 +1443,13 @@
         <v>-1393600</v>
       </c>
       <c r="N21">
-        <v>-41015874000</v>
+        <v>-38654837400</v>
       </c>
       <c r="O21">
         <v>37180100</v>
       </c>
       <c r="P21">
-        <v>884218060000</v>
+        <v>770891100400</v>
       </c>
     </row>
     <row r="22">
@@ -1466,25 +1466,25 @@
         <v>39400</v>
       </c>
       <c r="E22">
-        <v>155647887000</v>
+        <v>124711454400</v>
       </c>
       <c r="F22">
-        <v>123643175000</v>
+        <v>112863865100</v>
       </c>
       <c r="G22">
-        <v>824931000</v>
+        <v>794161800</v>
       </c>
       <c r="H22">
         <v>16954300</v>
       </c>
       <c r="I22">
-        <v>280115993000</v>
+        <v>238369481300</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-07T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>10749654291000</v>
+        <v>9543581071500</v>
       </c>
       <c r="L22">
         <v>665151700</v>
@@ -1493,13 +1493,13 @@
         <v>-3381300</v>
       </c>
       <c r="N22">
-        <v>-32004712000</v>
+        <v>-11847589300</v>
       </c>
       <c r="O22">
         <v>33798800</v>
       </c>
       <c r="P22">
-        <v>852213348000</v>
+        <v>759043511100</v>
       </c>
     </row>
     <row r="23">
@@ -1516,25 +1516,25 @@
         <v>65600</v>
       </c>
       <c r="E23">
-        <v>117062610000</v>
+        <v>98579711400</v>
       </c>
       <c r="F23">
-        <v>98967856000</v>
+        <v>86862773200</v>
       </c>
       <c r="G23">
-        <v>999884000</v>
+        <v>925958000</v>
       </c>
       <c r="H23">
         <v>12829300</v>
       </c>
       <c r="I23">
-        <v>217030350000</v>
+        <v>186368442600</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-07T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>10966684641000</v>
+        <v>9729949514100</v>
       </c>
       <c r="L23">
         <v>677981000</v>
@@ -1543,13 +1543,13 @@
         <v>-2083300</v>
       </c>
       <c r="N23">
-        <v>-18094754000</v>
+        <v>-11716938200</v>
       </c>
       <c r="O23">
         <v>31715500</v>
       </c>
       <c r="P23">
-        <v>834118594000</v>
+        <v>747326572900</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>64600</v>
       </c>
       <c r="E24">
-        <v>106257276000</v>
+        <v>99754984800</v>
       </c>
       <c r="F24">
-        <v>101977573000</v>
+        <v>88120843600</v>
       </c>
       <c r="G24">
         <v>795725000</v>
@@ -1578,13 +1578,13 @@
         <v>12014400</v>
       </c>
       <c r="I24">
-        <v>209030574000</v>
+        <v>188671553400</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-07T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>11175715215000</v>
+        <v>9918621067500</v>
       </c>
       <c r="L24">
         <v>689995400</v>
@@ -1593,13 +1593,13 @@
         <v>-449800</v>
       </c>
       <c r="N24">
-        <v>-4279703000</v>
+        <v>-11634141200</v>
       </c>
       <c r="O24">
         <v>31265700</v>
       </c>
       <c r="P24">
-        <v>829838891000</v>
+        <v>735692431700</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>196200</v>
       </c>
       <c r="E25">
-        <v>128094280000</v>
+        <v>115881804700</v>
       </c>
       <c r="F25">
-        <v>102858786000</v>
+        <v>92086169400</v>
       </c>
       <c r="G25">
-        <v>1677830000</v>
+        <v>1554653300</v>
       </c>
       <c r="H25">
         <v>13808500</v>
       </c>
       <c r="I25">
-        <v>232630896000</v>
+        <v>209522627400</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-07T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>11408346111000</v>
+        <v>10128143694900</v>
       </c>
       <c r="L25">
         <v>703803900</v>
@@ -1643,13 +1643,13 @@
         <v>-2050100</v>
       </c>
       <c r="N25">
-        <v>-25235494000</v>
+        <v>-23795635300</v>
       </c>
       <c r="O25">
         <v>29215600</v>
       </c>
       <c r="P25">
-        <v>804603397000</v>
+        <v>711896796400</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>37700</v>
       </c>
       <c r="E26">
-        <v>175060627000</v>
+        <v>160692909100</v>
       </c>
       <c r="F26">
-        <v>67010925000</v>
+        <v>62142798000</v>
       </c>
       <c r="G26">
         <v>686997000</v>
@@ -1678,13 +1678,13 @@
         <v>14373400</v>
       </c>
       <c r="I26">
-        <v>242758549000</v>
+        <v>223522704100</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-07T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>11651104660000</v>
+        <v>10351666399000</v>
       </c>
       <c r="L26">
         <v>718177300</v>
@@ -1693,13 +1693,13 @@
         <v>-6601300</v>
       </c>
       <c r="N26">
-        <v>-108049702000</v>
+        <v>-98550111100</v>
       </c>
       <c r="O26">
         <v>22614300</v>
       </c>
       <c r="P26">
-        <v>696553695000</v>
+        <v>613346685300</v>
       </c>
     </row>
     <row r="27">
@@ -1716,25 +1716,25 @@
         <v>152400</v>
       </c>
       <c r="E27">
-        <v>270276035000</v>
+        <v>252029699600</v>
       </c>
       <c r="F27">
-        <v>59463365000</v>
+        <v>55885446500</v>
       </c>
       <c r="G27">
-        <v>1948439000</v>
+        <v>1888499000</v>
       </c>
       <c r="H27">
         <v>21051400</v>
       </c>
       <c r="I27">
-        <v>331687839000</v>
+        <v>309803645100</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-07T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>11982792499000</v>
+        <v>10661470044100</v>
       </c>
       <c r="L27">
         <v>739228700</v>
@@ -1743,13 +1743,13 @@
         <v>-13391200</v>
       </c>
       <c r="N27">
-        <v>-210812670000</v>
+        <v>-196144253100</v>
       </c>
       <c r="O27">
         <v>9223100</v>
       </c>
       <c r="P27">
-        <v>485741025000</v>
+        <v>417202432200</v>
       </c>
     </row>
     <row r="28">
@@ -1766,25 +1766,25 @@
         <v>129000</v>
       </c>
       <c r="E28">
-        <v>404062202000</v>
+        <v>375552540200</v>
       </c>
       <c r="F28">
-        <v>63698278000</v>
+        <v>58761919300</v>
       </c>
       <c r="G28">
-        <v>1461092000</v>
+        <v>1458294800</v>
       </c>
       <c r="H28">
         <v>30216500</v>
       </c>
       <c r="I28">
-        <v>469221572000</v>
+        <v>435772754300</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-07T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>12452014071000</v>
+        <v>11097242798400</v>
       </c>
       <c r="L28">
         <v>769445200</v>
@@ -1793,13 +1793,13 @@
         <v>-22441300</v>
       </c>
       <c r="N28">
-        <v>-340363924000</v>
+        <v>-316790620900</v>
       </c>
       <c r="O28">
         <v>-13218200</v>
       </c>
       <c r="P28">
-        <v>145377101000</v>
+        <v>100411811300</v>
       </c>
     </row>
     <row r="29">
@@ -1816,25 +1816,25 @@
         <v>109900</v>
       </c>
       <c r="E29">
-        <v>546633918000</v>
+        <v>501710886000</v>
       </c>
       <c r="F29">
-        <v>85257032000</v>
+        <v>81163829300</v>
       </c>
       <c r="G29">
-        <v>1800419000</v>
+        <v>1799619800</v>
       </c>
       <c r="H29">
         <v>41917500</v>
       </c>
       <c r="I29">
-        <v>633691369000</v>
+        <v>584674335100</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-07T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>13085705440000</v>
+        <v>11681917133500</v>
       </c>
       <c r="L29">
         <v>811362700</v>
@@ -1843,13 +1843,13 @@
         <v>-30099000</v>
       </c>
       <c r="N29">
-        <v>-461376886000</v>
+        <v>-420547056700</v>
       </c>
       <c r="O29">
         <v>-43317200</v>
       </c>
       <c r="P29">
-        <v>-315999785000</v>
+        <v>-320135245400</v>
       </c>
     </row>
     <row r="30">
@@ -1866,25 +1866,25 @@
         <v>135500</v>
       </c>
       <c r="E30">
-        <v>443044391000</v>
+        <v>399837341300</v>
       </c>
       <c r="F30">
-        <v>97421656000</v>
+        <v>88072114900</v>
       </c>
       <c r="G30">
-        <v>1809807000</v>
+        <v>1377739500</v>
       </c>
       <c r="H30">
         <v>37022900</v>
       </c>
       <c r="I30">
-        <v>542275854000</v>
+        <v>489287195700</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-07T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>13627981294000</v>
+        <v>12171204329200</v>
       </c>
       <c r="L30">
         <v>848385600</v>
@@ -1893,13 +1893,13 @@
         <v>-24680200</v>
       </c>
       <c r="N30">
-        <v>-345622735000</v>
+        <v>-311765226400</v>
       </c>
       <c r="O30">
         <v>-67997400</v>
       </c>
       <c r="P30">
-        <v>-661622520000</v>
+        <v>-631900471800</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>198100</v>
       </c>
       <c r="E31">
-        <v>244856114000</v>
+        <v>214175825000</v>
       </c>
       <c r="F31">
-        <v>169990629000</v>
+        <v>146641601400</v>
       </c>
       <c r="G31">
         <v>4168662000</v>
@@ -1928,13 +1928,13 @@
         <v>25959400</v>
       </c>
       <c r="I31">
-        <v>419015405000</v>
+        <v>364986088400</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-07T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>14046996699000</v>
+        <v>12536190417600</v>
       </c>
       <c r="L31">
         <v>874345000</v>
@@ -1943,13 +1943,13 @@
         <v>-4811100</v>
       </c>
       <c r="N31">
-        <v>-74865485000</v>
+        <v>-67534223600</v>
       </c>
       <c r="O31">
         <v>-72808500</v>
       </c>
       <c r="P31">
-        <v>-736488005000</v>
+        <v>-699434695400</v>
       </c>
     </row>
     <row r="32">
@@ -1966,25 +1966,25 @@
         <v>144900</v>
       </c>
       <c r="E32">
-        <v>129308691000</v>
+        <v>111530087400</v>
       </c>
       <c r="F32">
-        <v>182096987000</v>
+        <v>173276816000</v>
       </c>
       <c r="G32">
-        <v>1623584000</v>
+        <v>1613594000</v>
       </c>
       <c r="H32">
         <v>19512500</v>
       </c>
       <c r="I32">
-        <v>313029262000</v>
+        <v>286420497400</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-07T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>14360025961000</v>
+        <v>12822610915000</v>
       </c>
       <c r="L32">
         <v>893857500</v>
@@ -1993,13 +1993,13 @@
         <v>3139000</v>
       </c>
       <c r="N32">
-        <v>52788296000</v>
+        <v>61746728600</v>
       </c>
       <c r="O32">
         <v>-69669500</v>
       </c>
       <c r="P32">
-        <v>-683699709000</v>
+        <v>-637687966800</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>51100</v>
       </c>
       <c r="E33">
-        <v>90647782000</v>
+        <v>86546887000</v>
       </c>
       <c r="F33">
-        <v>166802302000</v>
+        <v>156893221000</v>
       </c>
       <c r="G33">
         <v>899060000</v>
@@ -2028,13 +2028,13 @@
         <v>16927200</v>
       </c>
       <c r="I33">
-        <v>258349144000</v>
+        <v>244339168000</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-07T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>14618375105000</v>
+        <v>13066950083000</v>
       </c>
       <c r="L33">
         <v>910784700</v>
@@ -2043,13 +2043,13 @@
         <v>4041900</v>
       </c>
       <c r="N33">
-        <v>76154520000</v>
+        <v>70346334000</v>
       </c>
       <c r="O33">
         <v>-65627600</v>
       </c>
       <c r="P33">
-        <v>-607545189000</v>
+        <v>-567341632800</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>101000</v>
       </c>
       <c r="E34">
-        <v>93348585000</v>
+        <v>87882856200</v>
       </c>
       <c r="F34">
-        <v>159617585000</v>
+        <v>146543971700</v>
       </c>
       <c r="G34">
         <v>2342433000</v>
@@ -2078,13 +2078,13 @@
         <v>15534100</v>
       </c>
       <c r="I34">
-        <v>255308603000</v>
+        <v>236769260900</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-07T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>14873683708000</v>
+        <v>13303719343900</v>
       </c>
       <c r="L34">
         <v>926318800</v>
@@ -2093,13 +2093,13 @@
         <v>3789300</v>
       </c>
       <c r="N34">
-        <v>66269000000</v>
+        <v>58661115500</v>
       </c>
       <c r="O34">
         <v>-61838300</v>
       </c>
       <c r="P34">
-        <v>-541276189000</v>
+        <v>-508680517300</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>45600</v>
       </c>
       <c r="E35">
-        <v>127248211000</v>
+        <v>120437928100</v>
       </c>
       <c r="F35">
-        <v>77697903000</v>
+        <v>65077536000</v>
       </c>
       <c r="G35">
-        <v>625190000</v>
+        <v>581234000</v>
       </c>
       <c r="H35">
         <v>11931900</v>
       </c>
       <c r="I35">
-        <v>205571304000</v>
+        <v>186096698100</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-07T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>15079255012000</v>
+        <v>13489816042000</v>
       </c>
       <c r="L35">
         <v>938250700</v>
@@ -2143,13 +2143,13 @@
         <v>-2770500</v>
       </c>
       <c r="N35">
-        <v>-49550308000</v>
+        <v>-55360392100</v>
       </c>
       <c r="O35">
         <v>-64608800</v>
       </c>
       <c r="P35">
-        <v>-590826497000</v>
+        <v>-564040909400</v>
       </c>
     </row>
     <row r="36">
@@ -2166,25 +2166,25 @@
         <v>43000</v>
       </c>
       <c r="E36">
-        <v>126047739000</v>
+        <v>119403090300</v>
       </c>
       <c r="F36">
-        <v>56156201000</v>
+        <v>50455607300</v>
       </c>
       <c r="G36">
-        <v>486092000</v>
+        <v>475302800</v>
       </c>
       <c r="H36">
         <v>11824700</v>
       </c>
       <c r="I36">
-        <v>182690032000</v>
+        <v>170334000400</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-07T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>15261945044000</v>
+        <v>13660150042400</v>
       </c>
       <c r="L36">
         <v>950075400</v>
@@ -2193,13 +2193,13 @@
         <v>-4638300</v>
       </c>
       <c r="N36">
-        <v>-69891538000</v>
+        <v>-68947483000</v>
       </c>
       <c r="O36">
         <v>-69247100</v>
       </c>
       <c r="P36">
-        <v>-660718035000</v>
+        <v>-632988392400</v>
       </c>
     </row>
     <row r="37">
@@ -2216,25 +2216,25 @@
         <v>17400</v>
       </c>
       <c r="E37">
-        <v>144963992000</v>
+        <v>133534532900</v>
       </c>
       <c r="F37">
-        <v>49337544000</v>
+        <v>45161224500</v>
       </c>
       <c r="G37">
-        <v>266847000</v>
+        <v>171742200</v>
       </c>
       <c r="H37">
         <v>12834800</v>
       </c>
       <c r="I37">
-        <v>194568383000</v>
+        <v>178867499600</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-07T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>15456513427000</v>
+        <v>13839017542000</v>
       </c>
       <c r="L37">
         <v>962910200</v>
@@ -2243,13 +2243,13 @@
         <v>-6551000</v>
       </c>
       <c r="N37">
-        <v>-95626448000</v>
+        <v>-88373308400</v>
       </c>
       <c r="O37">
         <v>-75798100</v>
       </c>
       <c r="P37">
-        <v>-756344483000</v>
+        <v>-721361700800</v>
       </c>
     </row>
     <row r="38">
@@ -2266,25 +2266,25 @@
         <v>47100</v>
       </c>
       <c r="E38">
-        <v>222521291000</v>
+        <v>205740888200</v>
       </c>
       <c r="F38">
-        <v>58457124000</v>
+        <v>54052533000</v>
       </c>
       <c r="G38">
-        <v>435616000</v>
+        <v>255796000</v>
       </c>
       <c r="H38">
         <v>17351800</v>
       </c>
       <c r="I38">
-        <v>281414031000</v>
+        <v>260049217200</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-07T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>15737927458000</v>
+        <v>14099066759200</v>
       </c>
       <c r="L38">
         <v>980262000</v>
@@ -2293,13 +2293,13 @@
         <v>-10432900</v>
       </c>
       <c r="N38">
-        <v>-164064167000</v>
+        <v>-151688355200</v>
       </c>
       <c r="O38">
         <v>-86231000</v>
       </c>
       <c r="P38">
-        <v>-920408650000</v>
+        <v>-873050056000</v>
       </c>
     </row>
     <row r="39">
@@ -2316,25 +2316,25 @@
         <v>19800</v>
       </c>
       <c r="E39">
-        <v>323960072000</v>
+        <v>288781785500</v>
       </c>
       <c r="F39">
-        <v>65858573000</v>
+        <v>62072662700</v>
       </c>
       <c r="G39">
-        <v>247839000</v>
+        <v>244442400</v>
       </c>
       <c r="H39">
         <v>24960200</v>
       </c>
       <c r="I39">
-        <v>390066484000</v>
+        <v>351098890600</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-07T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>16127993942000</v>
+        <v>14450165649800</v>
       </c>
       <c r="L39">
         <v>1005222200</v>
@@ -2343,13 +2343,13 @@
         <v>-17608000</v>
       </c>
       <c r="N39">
-        <v>-258101499000</v>
+        <v>-226709122800</v>
       </c>
       <c r="O39">
         <v>-103839000</v>
       </c>
       <c r="P39">
-        <v>-1178510149000</v>
+        <v>-1099759178800</v>
       </c>
     </row>
     <row r="40">
@@ -2366,25 +2366,25 @@
         <v>146300</v>
       </c>
       <c r="E40">
-        <v>312197103000</v>
+        <v>282821308200</v>
       </c>
       <c r="F40">
-        <v>81680792000</v>
+        <v>77238438800</v>
       </c>
       <c r="G40">
-        <v>2554880000</v>
+        <v>2316418700</v>
       </c>
       <c r="H40">
         <v>25652500</v>
       </c>
       <c r="I40">
-        <v>396432775000</v>
+        <v>362376165700</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-07T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>16524426717000</v>
+        <v>14812541815500</v>
       </c>
       <c r="L40">
         <v>1030874700</v>
@@ -2393,13 +2393,13 @@
         <v>-15298000</v>
       </c>
       <c r="N40">
-        <v>-230516311000</v>
+        <v>-205582869400</v>
       </c>
       <c r="O40">
         <v>-119137000</v>
       </c>
       <c r="P40">
-        <v>-1409026460000</v>
+        <v>-1305342048200</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>109500</v>
       </c>
       <c r="E41">
-        <v>238756126000</v>
+        <v>199097424400</v>
       </c>
       <c r="F41">
-        <v>121875481000</v>
+        <v>110649418300</v>
       </c>
       <c r="G41">
-        <v>2044827000</v>
+        <v>2037234600</v>
       </c>
       <c r="H41">
         <v>22156600</v>
       </c>
       <c r="I41">
-        <v>362676434000</v>
+        <v>311784077300</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-07T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>16887103151000</v>
+        <v>15124325892800</v>
       </c>
       <c r="L41">
         <v>1053031300</v>
@@ -2443,13 +2443,13 @@
         <v>-7928300</v>
       </c>
       <c r="N41">
-        <v>-116880645000</v>
+        <v>-88448006100</v>
       </c>
       <c r="O41">
         <v>-127065300</v>
       </c>
       <c r="P41">
-        <v>-1525907105000</v>
+        <v>-1393790054300</v>
       </c>
     </row>
     <row r="42">
@@ -2466,25 +2466,25 @@
         <v>48000</v>
       </c>
       <c r="E42">
-        <v>202544986000</v>
+        <v>191176166200</v>
       </c>
       <c r="F42">
-        <v>139928787000</v>
+        <v>120359775600</v>
       </c>
       <c r="G42">
-        <v>580949000</v>
+        <v>413716400</v>
       </c>
       <c r="H42">
         <v>21971100</v>
       </c>
       <c r="I42">
-        <v>343054722000</v>
+        <v>311949658200</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-07T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>17230157873000</v>
+        <v>15436275551000</v>
       </c>
       <c r="L42">
         <v>1075002400</v>
@@ -2493,13 +2493,13 @@
         <v>-4939900</v>
       </c>
       <c r="N42">
-        <v>-62616199000</v>
+        <v>-70816390600</v>
       </c>
       <c r="O42">
         <v>-132005200</v>
       </c>
       <c r="P42">
-        <v>-1588523304000</v>
+        <v>-1464606444900</v>
       </c>
     </row>
     <row r="43">
@@ -2516,25 +2516,25 @@
         <v>9200</v>
       </c>
       <c r="E43">
-        <v>193511218000</v>
+        <v>159143819800</v>
       </c>
       <c r="F43">
-        <v>103605034000</v>
+        <v>93810937900</v>
       </c>
       <c r="G43">
-        <v>245150000</v>
+        <v>236159000</v>
       </c>
       <c r="H43">
         <v>20002500</v>
       </c>
       <c r="I43">
-        <v>297361402000</v>
+        <v>253190916700</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-07T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>17527519275000</v>
+        <v>15689466467700</v>
       </c>
       <c r="L43">
         <v>1095004900</v>
@@ -2543,13 +2543,13 @@
         <v>-6486700</v>
       </c>
       <c r="N43">
-        <v>-89906184000</v>
+        <v>-65332881900</v>
       </c>
       <c r="O43">
         <v>-138491900</v>
       </c>
       <c r="P43">
-        <v>-1678429488000</v>
+        <v>-1529939326800</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>53100</v>
       </c>
       <c r="E44">
-        <v>166797814000</v>
+        <v>156845576200</v>
       </c>
       <c r="F44">
-        <v>99175715000</v>
+        <v>92255542100</v>
       </c>
       <c r="G44">
         <v>1197494000</v>
@@ -2578,13 +2578,13 @@
         <v>18247300</v>
       </c>
       <c r="I44">
-        <v>267171023000</v>
+        <v>250298612300</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-07T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>17794690298000</v>
+        <v>15939765080000</v>
       </c>
       <c r="L44">
         <v>1113252200</v>
@@ -2593,13 +2593,13 @@
         <v>-3693600</v>
       </c>
       <c r="N44">
-        <v>-67622099000</v>
+        <v>-64590034100</v>
       </c>
       <c r="O44">
         <v>-142185500</v>
       </c>
       <c r="P44">
-        <v>-1746051587000</v>
+        <v>-1594529360900</v>
       </c>
     </row>
     <row r="45">
@@ -2616,25 +2616,25 @@
         <v>152100</v>
       </c>
       <c r="E45">
-        <v>187566254000</v>
+        <v>178206722900</v>
       </c>
       <c r="F45">
-        <v>89898960000</v>
+        <v>82829736300</v>
       </c>
       <c r="G45">
-        <v>2844440000</v>
+        <v>2841343100</v>
       </c>
       <c r="H45">
         <v>19939800</v>
       </c>
       <c r="I45">
-        <v>280309654000</v>
+        <v>263877802300</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-07T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>18074999952000</v>
+        <v>16203642882300</v>
       </c>
       <c r="L45">
         <v>1133192000</v>
@@ -2643,13 +2643,13 @@
         <v>-7387300</v>
       </c>
       <c r="N45">
-        <v>-97667294000</v>
+        <v>-95376986600</v>
       </c>
       <c r="O45">
         <v>-149572800</v>
       </c>
       <c r="P45">
-        <v>-1843718881000</v>
+        <v>-1689906347500</v>
       </c>
     </row>
     <row r="46">
@@ -2666,25 +2666,25 @@
         <v>78400</v>
       </c>
       <c r="E46">
-        <v>190196987000</v>
+        <v>172804896500</v>
       </c>
       <c r="F46">
-        <v>87781442000</v>
+        <v>79022809400</v>
       </c>
       <c r="G46">
-        <v>1899392000</v>
+        <v>1839452000</v>
       </c>
       <c r="H46">
         <v>17052300</v>
       </c>
       <c r="I46">
-        <v>279877821000</v>
+        <v>253667157900</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-07T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>18354877773000</v>
+        <v>16457310040200</v>
       </c>
       <c r="L46">
         <v>1150244300</v>
@@ -2693,13 +2693,13 @@
         <v>-6062300</v>
       </c>
       <c r="N46">
-        <v>-102415545000</v>
+        <v>-93782087100</v>
       </c>
       <c r="O46">
         <v>-155635100</v>
       </c>
       <c r="P46">
-        <v>-1946134426000</v>
+        <v>-1783688434600</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>325700</v>
       </c>
       <c r="E47">
-        <v>125569930000</v>
+        <v>116544864100</v>
       </c>
       <c r="F47">
-        <v>120053599000</v>
+        <v>107006059600</v>
       </c>
       <c r="G47">
         <v>4304907000</v>
@@ -2728,13 +2728,13 @@
         <v>15168700</v>
       </c>
       <c r="I47">
-        <v>249928436000</v>
+        <v>227855830700</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-07T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>18604806209000</v>
+        <v>16685165870900</v>
       </c>
       <c r="L47">
         <v>1165413000</v>
@@ -2743,13 +2743,13 @@
         <v>-535000</v>
       </c>
       <c r="N47">
-        <v>-5516331000</v>
+        <v>-9538804500</v>
       </c>
       <c r="O47">
         <v>-156170100</v>
       </c>
       <c r="P47">
-        <v>-1951650757000</v>
+        <v>-1793227239100</v>
       </c>
     </row>
     <row r="48">
@@ -2766,25 +2766,25 @@
         <v>39000</v>
       </c>
       <c r="E48">
-        <v>100316328000</v>
+        <v>90880373400</v>
       </c>
       <c r="F48">
-        <v>149816085000</v>
+        <v>118996835100</v>
       </c>
       <c r="G48">
-        <v>652705000</v>
+        <v>601356400</v>
       </c>
       <c r="H48">
         <v>15961300</v>
       </c>
       <c r="I48">
-        <v>250785118000</v>
+        <v>210478564900</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-07T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>18855591327000</v>
+        <v>16895644435800</v>
       </c>
       <c r="L48">
         <v>1181374300</v>
@@ -2793,13 +2793,13 @@
         <v>3215700</v>
       </c>
       <c r="N48">
-        <v>49499757000</v>
+        <v>28116461700</v>
       </c>
       <c r="O48">
         <v>-152954400</v>
       </c>
       <c r="P48">
-        <v>-1902151000000</v>
+        <v>-1765110777400</v>
       </c>
     </row>
     <row r="49">
@@ -2816,25 +2816,25 @@
         <v>74300</v>
       </c>
       <c r="E49">
-        <v>80302623000</v>
+        <v>74550980400</v>
       </c>
       <c r="F49">
-        <v>203021614000</v>
+        <v>182490265900</v>
       </c>
       <c r="G49">
-        <v>868409000</v>
+        <v>848429000</v>
       </c>
       <c r="H49">
         <v>16075900</v>
       </c>
       <c r="I49">
-        <v>284192646000</v>
+        <v>257889675300</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-07T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>19139783973000</v>
+        <v>17153534111100</v>
       </c>
       <c r="L49">
         <v>1197450200</v>
@@ -2843,13 +2843,13 @@
         <v>6746400</v>
       </c>
       <c r="N49">
-        <v>122718991000</v>
+        <v>107939285500</v>
       </c>
       <c r="O49">
         <v>-146208000</v>
       </c>
       <c r="P49">
-        <v>-1779432009000</v>
+        <v>-1657171491900</v>
       </c>
     </row>
     <row r="50">
@@ -2866,25 +2866,25 @@
         <v>56000</v>
       </c>
       <c r="E50">
-        <v>63804308000</v>
+        <v>60791423900</v>
       </c>
       <c r="F50">
-        <v>157955084000</v>
+        <v>138611047400</v>
       </c>
       <c r="G50">
-        <v>1426247000</v>
+        <v>965708000</v>
       </c>
       <c r="H50">
         <v>13264000</v>
       </c>
       <c r="I50">
-        <v>223185639000</v>
+        <v>200368179300</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-07T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>19362969612000</v>
+        <v>17353902290400</v>
       </c>
       <c r="L50">
         <v>1210714200</v>
@@ -2893,13 +2893,13 @@
         <v>5823000</v>
       </c>
       <c r="N50">
-        <v>94150776000</v>
+        <v>77819623500</v>
       </c>
       <c r="O50">
         <v>-140385000</v>
       </c>
       <c r="P50">
-        <v>-1685281233000</v>
+        <v>-1579351868400</v>
       </c>
     </row>
     <row r="51">
@@ -2916,25 +2916,25 @@
         <v>30600</v>
       </c>
       <c r="E51">
-        <v>55614999000</v>
+        <v>50369250000</v>
       </c>
       <c r="F51">
-        <v>176446112000</v>
+        <v>160012661900</v>
       </c>
       <c r="G51">
-        <v>465037000</v>
+        <v>420082000</v>
       </c>
       <c r="H51">
         <v>13824700</v>
       </c>
       <c r="I51">
-        <v>232526148000</v>
+        <v>210801993900</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-07T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>19595495760000</v>
+        <v>17564704284300</v>
       </c>
       <c r="L51">
         <v>1224538900</v>
@@ -2943,13 +2943,13 @@
         <v>6644500</v>
       </c>
       <c r="N51">
-        <v>120831113000</v>
+        <v>109643411900</v>
       </c>
       <c r="O51">
         <v>-133740500</v>
       </c>
       <c r="P51">
-        <v>-1564450120000</v>
+        <v>-1469708456500</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>55600</v>
       </c>
       <c r="E52">
-        <v>65669027000</v>
+        <v>62344854500</v>
       </c>
       <c r="F52">
-        <v>122125639000</v>
+        <v>109859017900</v>
       </c>
       <c r="G52">
         <v>1210197000</v>
@@ -2978,13 +2978,13 @@
         <v>10721100</v>
       </c>
       <c r="I52">
-        <v>189004863000</v>
+        <v>173414069400</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-07T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>19784500623000</v>
+        <v>17738118353700</v>
       </c>
       <c r="L52">
         <v>1235260000</v>
@@ -2993,13 +2993,13 @@
         <v>2910300</v>
       </c>
       <c r="N52">
-        <v>56456612000</v>
+        <v>47514163400</v>
       </c>
       <c r="O52">
         <v>-130830200</v>
       </c>
       <c r="P52">
-        <v>-1507993508000</v>
+        <v>-1422194293100</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>75100</v>
       </c>
       <c r="E53">
-        <v>68588374000</v>
+        <v>64007559400</v>
       </c>
       <c r="F53">
-        <v>159931056000</v>
+        <v>130212404400</v>
       </c>
       <c r="G53">
         <v>1792801000</v>
@@ -3028,13 +3028,13 @@
         <v>11450700</v>
       </c>
       <c r="I53">
-        <v>230312231000</v>
+        <v>196012764800</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-07T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>20014812854000</v>
+        <v>17934131118500</v>
       </c>
       <c r="L53">
         <v>1246710700</v>
@@ -3043,13 +3043,13 @@
         <v>4289600</v>
       </c>
       <c r="N53">
-        <v>91342682000</v>
+        <v>66204845000</v>
       </c>
       <c r="O53">
         <v>-126540600</v>
       </c>
       <c r="P53">
-        <v>-1416650826000</v>
+        <v>-1355989448100</v>
       </c>
     </row>
     <row r="54">
@@ -3066,25 +3066,25 @@
         <v>128100</v>
       </c>
       <c r="E54">
-        <v>72523095000</v>
+        <v>66682341600</v>
       </c>
       <c r="F54">
-        <v>183616097000</v>
+        <v>157148491100</v>
       </c>
       <c r="G54">
-        <v>2884428000</v>
+        <v>2815696800</v>
       </c>
       <c r="H54">
         <v>14002400</v>
       </c>
       <c r="I54">
-        <v>259023620000</v>
+        <v>226646529500</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-07T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>20273836474000</v>
+        <v>18160777648000</v>
       </c>
       <c r="L54">
         <v>1260713100</v>
@@ -3093,13 +3093,13 @@
         <v>5411900</v>
       </c>
       <c r="N54">
-        <v>111093002000</v>
+        <v>90466149500</v>
       </c>
       <c r="O54">
         <v>-121128700</v>
       </c>
       <c r="P54">
-        <v>-1305557824000</v>
+        <v>-1265523298600</v>
       </c>
     </row>
     <row r="55">
@@ -3116,25 +3116,25 @@
         <v>209300</v>
       </c>
       <c r="E55">
-        <v>70890106000</v>
+        <v>63887116000</v>
       </c>
       <c r="F55">
-        <v>259618481000</v>
+        <v>218874365900</v>
       </c>
       <c r="G55">
-        <v>3460722000</v>
+        <v>3320462400</v>
       </c>
       <c r="H55">
         <v>21361300</v>
       </c>
       <c r="I55">
-        <v>333969309000</v>
+        <v>286081944300</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-07T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>20607805783000</v>
+        <v>18446859592300</v>
       </c>
       <c r="L55">
         <v>1282074400</v>
@@ -3143,13 +3143,13 @@
         <v>11223200</v>
       </c>
       <c r="N55">
-        <v>188728375000</v>
+        <v>154987249900</v>
       </c>
       <c r="O55">
         <v>-109905500</v>
       </c>
       <c r="P55">
-        <v>-1116829449000</v>
+        <v>-1110536048700</v>
       </c>
     </row>
     <row r="56">
@@ -3166,25 +3166,25 @@
         <v>120200</v>
       </c>
       <c r="E56">
-        <v>85658971000</v>
+        <v>71279265100</v>
       </c>
       <c r="F56">
-        <v>213887846000</v>
+        <v>191299057400</v>
       </c>
       <c r="G56">
-        <v>2112135000</v>
+        <v>743904600</v>
       </c>
       <c r="H56">
         <v>17365400</v>
       </c>
       <c r="I56">
-        <v>301658952000</v>
+        <v>263322227100</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-07T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>20909464735000</v>
+        <v>18710181819400</v>
       </c>
       <c r="L56">
         <v>1299439800</v>
@@ -3193,13 +3193,13 @@
         <v>7153600</v>
       </c>
       <c r="N56">
-        <v>128228875000</v>
+        <v>120019792300</v>
       </c>
       <c r="O56">
         <v>-102751900</v>
       </c>
       <c r="P56">
-        <v>-988600574000</v>
+        <v>-990516256400</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>131300</v>
       </c>
       <c r="E57">
-        <v>108223623000</v>
+        <v>94348312200</v>
       </c>
       <c r="F57">
-        <v>207908938000</v>
+        <v>181099274500</v>
       </c>
       <c r="G57">
         <v>1905301000</v>
@@ -3228,13 +3228,13 @@
         <v>20395500</v>
       </c>
       <c r="I57">
-        <v>318037862000</v>
+        <v>277352887700</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-07T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>21227502597000</v>
+        <v>18987534707100</v>
       </c>
       <c r="L57">
         <v>1319835300</v>
@@ -3243,13 +3243,13 @@
         <v>5450200</v>
       </c>
       <c r="N57">
-        <v>99685315000</v>
+        <v>86750962300</v>
       </c>
       <c r="O57">
         <v>-97301700</v>
       </c>
       <c r="P57">
-        <v>-888915259000</v>
+        <v>-903765294100</v>
       </c>
     </row>
     <row r="58">
@@ -3266,25 +3266,25 @@
         <v>82300</v>
       </c>
       <c r="E58">
-        <v>116101166000</v>
+        <v>107279796200</v>
       </c>
       <c r="F58">
-        <v>180115094000</v>
+        <v>170000318900</v>
       </c>
       <c r="G58">
-        <v>1479803000</v>
+        <v>1365417500</v>
       </c>
       <c r="H58">
         <v>16057400</v>
       </c>
       <c r="I58">
-        <v>297696063000</v>
+        <v>278645532600</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-07T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>21525198660000</v>
+        <v>19266180239700</v>
       </c>
       <c r="L58">
         <v>1335892700</v>
@@ -3293,13 +3293,13 @@
         <v>3391100</v>
       </c>
       <c r="N58">
-        <v>64013928000</v>
+        <v>62720522700</v>
       </c>
       <c r="O58">
         <v>-93910600</v>
       </c>
       <c r="P58">
-        <v>-824901331000</v>
+        <v>-841044771400</v>
       </c>
     </row>
     <row r="59">
@@ -3316,25 +3316,25 @@
         <v>88500</v>
       </c>
       <c r="E59">
-        <v>114985704000</v>
+        <v>98530076100</v>
       </c>
       <c r="F59">
-        <v>108413164000</v>
+        <v>102239543800</v>
       </c>
       <c r="G59">
-        <v>1292912000</v>
+        <v>1244960000</v>
       </c>
       <c r="H59">
         <v>12339900</v>
       </c>
       <c r="I59">
-        <v>224691780000</v>
+        <v>202014579900</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-07T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>21749890440000</v>
+        <v>19468194819600</v>
       </c>
       <c r="L59">
         <v>1348232600</v>
@@ -3343,13 +3343,13 @@
         <v>-364800</v>
       </c>
       <c r="N59">
-        <v>-6572540000</v>
+        <v>3709467700</v>
       </c>
       <c r="O59">
         <v>-94275400</v>
       </c>
       <c r="P59">
-        <v>-831473871000</v>
+        <v>-837335303700</v>
       </c>
     </row>
     <row r="60">
@@ -3366,25 +3366,25 @@
         <v>24200</v>
       </c>
       <c r="E60">
-        <v>76130353000</v>
+        <v>72215272000</v>
       </c>
       <c r="F60">
-        <v>172532048000</v>
+        <v>136940675000</v>
       </c>
       <c r="G60">
-        <v>501939000</v>
+        <v>444396600</v>
       </c>
       <c r="H60">
         <v>13570100</v>
       </c>
       <c r="I60">
-        <v>249164340000</v>
+        <v>209600343600</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-07T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>21999054780000</v>
+        <v>19677795163200</v>
       </c>
       <c r="L60">
         <v>1361802700</v>
@@ -3393,13 +3393,13 @@
         <v>4210900</v>
       </c>
       <c r="N60">
-        <v>96401695000</v>
+        <v>64725403000</v>
       </c>
       <c r="O60">
         <v>-90064500</v>
       </c>
       <c r="P60">
-        <v>-735072176000</v>
+        <v>-772609900700</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>25600</v>
       </c>
       <c r="E61">
-        <v>94066192000</v>
+        <v>86358907000</v>
       </c>
       <c r="F61">
-        <v>245654784000</v>
+        <v>232318433700</v>
       </c>
       <c r="G61">
         <v>479021000</v>
@@ -3428,13 +3428,13 @@
         <v>20052800</v>
       </c>
       <c r="I61">
-        <v>340199997000</v>
+        <v>319156361700</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-07T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>22339254777000</v>
+        <v>19996951524900</v>
       </c>
       <c r="L61">
         <v>1381855500</v>
@@ -3443,13 +3443,13 @@
         <v>9606000</v>
       </c>
       <c r="N61">
-        <v>151588592000</v>
+        <v>145959526700</v>
       </c>
       <c r="O61">
         <v>-80458500</v>
       </c>
       <c r="P61">
-        <v>-583483584000</v>
+        <v>-626650374000</v>
       </c>
     </row>
     <row r="62">
@@ -3466,25 +3466,25 @@
         <v>35900</v>
       </c>
       <c r="E62">
-        <v>109044759000</v>
+        <v>101783327700</v>
       </c>
       <c r="F62">
-        <v>296114528000</v>
+        <v>241685911100</v>
       </c>
       <c r="G62">
-        <v>938145000</v>
+        <v>917765400</v>
       </c>
       <c r="H62">
         <v>24707400</v>
       </c>
       <c r="I62">
-        <v>406097432000</v>
+        <v>344387004200</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-07T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>22745352209000</v>
+        <v>20341338529100</v>
       </c>
       <c r="L62">
         <v>1406562900</v>
@@ -3493,13 +3493,13 @@
         <v>12314700</v>
       </c>
       <c r="N62">
-        <v>187069769000</v>
+        <v>139902583400</v>
       </c>
       <c r="O62">
         <v>-68143800</v>
       </c>
       <c r="P62">
-        <v>-396413815000</v>
+        <v>-486747790600</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>86300</v>
       </c>
       <c r="E63">
-        <v>97116488000</v>
+        <v>93017291300</v>
       </c>
       <c r="F63">
-        <v>245060725000</v>
+        <v>216437876500</v>
       </c>
       <c r="G63">
         <v>1877706000</v>
@@ -3528,13 +3528,13 @@
         <v>20962400</v>
       </c>
       <c r="I63">
-        <v>344054919000</v>
+        <v>311332873800</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-07T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>23089407128000</v>
+        <v>20652671402900</v>
       </c>
       <c r="L63">
         <v>1427525300</v>
@@ -3543,13 +3543,13 @@
         <v>9463100</v>
       </c>
       <c r="N63">
-        <v>147944237000</v>
+        <v>123420585200</v>
       </c>
       <c r="O63">
         <v>-58680700</v>
       </c>
       <c r="P63">
-        <v>-248469578000</v>
+        <v>-363327205400</v>
       </c>
     </row>
     <row r="64">
@@ -3566,25 +3566,25 @@
         <v>20300</v>
       </c>
       <c r="E64">
-        <v>71965989000</v>
+        <v>67298561100</v>
       </c>
       <c r="F64">
-        <v>163808620000</v>
+        <v>149409933100</v>
       </c>
       <c r="G64">
-        <v>216192000</v>
+        <v>167640600</v>
       </c>
       <c r="H64">
         <v>14591400</v>
       </c>
       <c r="I64">
-        <v>235990801000</v>
+        <v>216876134800</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-07T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>23325397929000</v>
+        <v>20869547537700</v>
       </c>
       <c r="L64">
         <v>1442116700</v>
@@ -3593,13 +3593,13 @@
         <v>6360300</v>
       </c>
       <c r="N64">
-        <v>91842631000</v>
+        <v>82111372000</v>
       </c>
       <c r="O64">
         <v>-52320400</v>
       </c>
       <c r="P64">
-        <v>-156626947000</v>
+        <v>-281215833400</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>74700</v>
       </c>
       <c r="E65">
-        <v>73712763000</v>
+        <v>67788992700</v>
       </c>
       <c r="F65">
-        <v>200216874000</v>
+        <v>184550056500</v>
       </c>
       <c r="G65">
         <v>1056324000</v>
@@ -3628,13 +3628,13 @@
         <v>16157900</v>
       </c>
       <c r="I65">
-        <v>274985961000</v>
+        <v>253395373200</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-07T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>23600383890000</v>
+        <v>21122942910900</v>
       </c>
       <c r="L65">
         <v>1458274600</v>
@@ -3643,13 +3643,13 @@
         <v>7394800</v>
       </c>
       <c r="N65">
-        <v>126504111000</v>
+        <v>116761063800</v>
       </c>
       <c r="O65">
         <v>-44925600</v>
       </c>
       <c r="P65">
-        <v>-30122836000</v>
+        <v>-164454769600</v>
       </c>
     </row>
     <row r="66">
@@ -3666,25 +3666,25 @@
         <v>46800</v>
       </c>
       <c r="E66">
-        <v>119918662000</v>
+        <v>110587602400</v>
       </c>
       <c r="F66">
-        <v>122088665000</v>
+        <v>109515151100</v>
       </c>
       <c r="G66">
-        <v>503683000</v>
+        <v>492494200</v>
       </c>
       <c r="H66">
         <v>14403600</v>
       </c>
       <c r="I66">
-        <v>242511010000</v>
+        <v>220595247700</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-07T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>23842894900000</v>
+        <v>21343538158600</v>
       </c>
       <c r="L66">
         <v>1472678200</v>
@@ -3693,13 +3693,13 @@
         <v>282600</v>
       </c>
       <c r="N66">
-        <v>2170003000</v>
+        <v>-1072451300</v>
       </c>
       <c r="O66">
         <v>-44643000</v>
       </c>
       <c r="P66">
-        <v>-27952833000</v>
+        <v>-165527220900</v>
       </c>
     </row>
     <row r="67">
@@ -3716,25 +3716,25 @@
         <v>35200</v>
       </c>
       <c r="E67">
-        <v>162617017000</v>
+        <v>149921525200</v>
       </c>
       <c r="F67">
-        <v>78874558000</v>
+        <v>63929817700</v>
       </c>
       <c r="G67">
-        <v>449081000</v>
+        <v>404925200</v>
       </c>
       <c r="H67">
         <v>14234000</v>
       </c>
       <c r="I67">
-        <v>241940656000</v>
+        <v>214256268100</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-07T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>24084835556000</v>
+        <v>21557794426700</v>
       </c>
       <c r="L67">
         <v>1486912200</v>
@@ -3743,13 +3743,13 @@
         <v>-5008800</v>
       </c>
       <c r="N67">
-        <v>-83742459000</v>
+        <v>-85991707500</v>
       </c>
       <c r="O67">
         <v>-49651800</v>
       </c>
       <c r="P67">
-        <v>-111695292000</v>
+        <v>-251518928400</v>
       </c>
     </row>
     <row r="68">
@@ -3766,25 +3766,25 @@
         <v>38600</v>
       </c>
       <c r="E68">
-        <v>134455421000</v>
+        <v>127435647800</v>
       </c>
       <c r="F68">
-        <v>84498228000</v>
+        <v>70204835700</v>
       </c>
       <c r="G68">
-        <v>916158000</v>
+        <v>716957400</v>
       </c>
       <c r="H68">
         <v>12535000</v>
       </c>
       <c r="I68">
-        <v>219869807000</v>
+        <v>198357440900</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-07T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>24304705363000</v>
+        <v>21756151867600</v>
       </c>
       <c r="L68">
         <v>1499447200</v>
@@ -3793,13 +3793,13 @@
         <v>-3486200</v>
       </c>
       <c r="N68">
-        <v>-49957193000</v>
+        <v>-57230812100</v>
       </c>
       <c r="O68">
         <v>-53138000</v>
       </c>
       <c r="P68">
-        <v>-161652485000</v>
+        <v>-308749740500</v>
       </c>
     </row>
     <row r="69">
@@ -3816,25 +3816,25 @@
         <v>67500</v>
       </c>
       <c r="E69">
-        <v>103325265000</v>
+        <v>94290209100</v>
       </c>
       <c r="F69">
-        <v>78496563000</v>
+        <v>71123943000</v>
       </c>
       <c r="G69">
-        <v>1216137000</v>
+        <v>1097355900</v>
       </c>
       <c r="H69">
         <v>9791000</v>
       </c>
       <c r="I69">
-        <v>183037965000</v>
+        <v>166511508000</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-07T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>24487743328000</v>
+        <v>21922663375600</v>
       </c>
       <c r="L69">
         <v>1509238200</v>
@@ -3843,13 +3843,13 @@
         <v>-2718700</v>
       </c>
       <c r="N69">
-        <v>-24828702000</v>
+        <v>-23166266100</v>
       </c>
       <c r="O69">
         <v>-55856700</v>
       </c>
       <c r="P69">
-        <v>-186481187000</v>
+        <v>-331916006600</v>
       </c>
     </row>
     <row r="70">
@@ -3884,7 +3884,7 @@
         <v>2022-12-07T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>24489371728000</v>
+        <v>21924291775600</v>
       </c>
       <c r="L70">
         <v>1509335200</v>
@@ -3899,7 +3899,7 @@
         <v>-55774200</v>
       </c>
       <c r="P70">
-        <v>-185134839000</v>
+        <v>-330569658600</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>1234600</v>
       </c>
       <c r="E71">
-        <v>426973511000</v>
+        <v>404641065800</v>
       </c>
       <c r="F71">
-        <v>283426374000</v>
+        <v>253775754300</v>
       </c>
       <c r="G71">
-        <v>19337559000</v>
+        <v>18256241400</v>
       </c>
       <c r="H71">
         <v>44486000</v>
       </c>
       <c r="I71">
-        <v>729737444000</v>
+        <v>676673061500</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-07T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>25219109172000</v>
+        <v>22600964837100</v>
       </c>
       <c r="L71">
         <v>1553821200</v>
@@ -3943,13 +3943,13 @@
         <v>-10534600</v>
       </c>
       <c r="N71">
-        <v>-143547137000</v>
+        <v>-150865311500</v>
       </c>
       <c r="O71">
         <v>-66308800</v>
       </c>
       <c r="P71">
-        <v>-328681976000</v>
+        <v>-481434970100</v>
       </c>
     </row>
     <row r="72">
@@ -3966,25 +3966,25 @@
         <v>91400</v>
       </c>
       <c r="E72">
-        <v>172878079000</v>
+        <v>163552414000</v>
       </c>
       <c r="F72">
-        <v>199570729000</v>
+        <v>179654665000</v>
       </c>
       <c r="G72">
-        <v>1635115000</v>
+        <v>1548301900</v>
       </c>
       <c r="H72">
         <v>21728500</v>
       </c>
       <c r="I72">
-        <v>374083923000</v>
+        <v>344755380900</v>
       </c>
       <c r="J72" t="str">
         <v>2022-12-07T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>25593193095000</v>
+        <v>22945720218000</v>
       </c>
       <c r="L72">
         <v>1575549700</v>
@@ -3993,13 +3993,13 @@
         <v>146500</v>
       </c>
       <c r="N72">
-        <v>26692650000</v>
+        <v>16102251000</v>
       </c>
       <c r="O72">
         <v>-66162300</v>
       </c>
       <c r="P72">
-        <v>-301989326000</v>
+        <v>-465332719100</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>56400</v>
       </c>
       <c r="E73">
-        <v>181425289000</v>
+        <v>170547377800</v>
       </c>
       <c r="F73">
-        <v>148890028000</v>
+        <v>139559368000</v>
       </c>
       <c r="G73">
         <v>1334549000</v>
@@ -4028,13 +4028,13 @@
         <v>18844800</v>
       </c>
       <c r="I73">
-        <v>331649866000</v>
+        <v>311441294800</v>
       </c>
       <c r="J73" t="str">
         <v>2022-12-07T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>25924842961000</v>
+        <v>23257161512800</v>
       </c>
       <c r="L73">
         <v>1594394500</v>
@@ -4043,13 +4043,13 @@
         <v>-3195200</v>
       </c>
       <c r="N73">
-        <v>-32535261000</v>
+        <v>-30988009800</v>
       </c>
       <c r="O73">
         <v>-69357500</v>
       </c>
       <c r="P73">
-        <v>-334524587000</v>
+        <v>-496320728900</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>58200</v>
       </c>
       <c r="E74">
-        <v>214311337000</v>
+        <v>200941819900</v>
       </c>
       <c r="F74">
-        <v>107234502000</v>
+        <v>100152491100</v>
       </c>
       <c r="G74">
         <v>922495000</v>
@@ -4078,13 +4078,13 @@
         <v>20629100</v>
       </c>
       <c r="I74">
-        <v>322468334000</v>
+        <v>302016806000</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-07T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>26247311295000</v>
+        <v>23559178318800</v>
       </c>
       <c r="L74">
         <v>1615023600</v>
@@ -4093,13 +4093,13 @@
         <v>-7672100</v>
       </c>
       <c r="N74">
-        <v>-107076835000</v>
+        <v>-100789328800</v>
       </c>
       <c r="O74">
         <v>-77029600</v>
       </c>
       <c r="P74">
-        <v>-441601422000</v>
+        <v>-597110057700</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>361100</v>
       </c>
       <c r="E75">
-        <v>219350176000</v>
+        <v>208954282300</v>
       </c>
       <c r="F75">
-        <v>133036920000</v>
+        <v>122952514500</v>
       </c>
       <c r="G75">
-        <v>7181874000</v>
+        <v>7163192700</v>
       </c>
       <c r="H75">
         <v>21654800</v>
       </c>
       <c r="I75">
-        <v>359568970000</v>
+        <v>339069989500</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-07T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>26606880265000</v>
+        <v>23898248308300</v>
       </c>
       <c r="L75">
         <v>1636678400</v>
@@ -4143,13 +4143,13 @@
         <v>-7601500</v>
       </c>
       <c r="N75">
-        <v>-86313256000</v>
+        <v>-86001767800</v>
       </c>
       <c r="O75">
         <v>-84631100</v>
       </c>
       <c r="P75">
-        <v>-527914678000</v>
+        <v>-683111825500</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>288800</v>
       </c>
       <c r="E76">
-        <v>236869575000</v>
+        <v>186692102700</v>
       </c>
       <c r="F76">
-        <v>203892847000</v>
+        <v>172844426500</v>
       </c>
       <c r="G76">
         <v>3266433000</v>
@@ -4178,13 +4178,13 @@
         <v>26342900</v>
       </c>
       <c r="I76">
-        <v>444028855000</v>
+        <v>362802962200</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-07T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>27050909120000</v>
+        <v>24261051270500</v>
       </c>
       <c r="L76">
         <v>1663021300</v>
@@ -4193,13 +4193,13 @@
         <v>-4142700</v>
       </c>
       <c r="N76">
-        <v>-32976728000</v>
+        <v>-13847676200</v>
       </c>
       <c r="O76">
         <v>-88773800</v>
       </c>
       <c r="P76">
-        <v>-560891406000</v>
+        <v>-696959501700</v>
       </c>
     </row>
     <row r="77">
@@ -4216,25 +4216,25 @@
         <v>234700</v>
       </c>
       <c r="E77">
-        <v>204247435000</v>
+        <v>184288613800</v>
       </c>
       <c r="F77">
-        <v>133726512000</v>
+        <v>120637614000</v>
       </c>
       <c r="G77">
-        <v>4256122000</v>
+        <v>3986891500</v>
       </c>
       <c r="H77">
         <v>20222200</v>
       </c>
       <c r="I77">
-        <v>342230069000</v>
+        <v>308913119300</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-07T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>27393139189000</v>
+        <v>24569964389800</v>
       </c>
       <c r="L77">
         <v>1683243500</v>
@@ -4243,13 +4243,13 @@
         <v>-5132500</v>
       </c>
       <c r="N77">
-        <v>-70520923000</v>
+        <v>-63650999800</v>
       </c>
       <c r="O77">
         <v>-93906300</v>
       </c>
       <c r="P77">
-        <v>-631412329000</v>
+        <v>-760610501500</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>60400</v>
       </c>
       <c r="E78">
-        <v>203908987000</v>
+        <v>175773550600</v>
       </c>
       <c r="F78">
-        <v>197788043000</v>
+        <v>169984074800</v>
       </c>
       <c r="G78">
         <v>1016497000</v>
@@ -4278,13 +4278,13 @@
         <v>22365400</v>
       </c>
       <c r="I78">
-        <v>402713527000</v>
+        <v>346774122400</v>
       </c>
       <c r="J78" t="str">
         <v>2022-12-07T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>27795852716000</v>
+        <v>24916738512200</v>
       </c>
       <c r="L78">
         <v>1705608900</v>
@@ -4293,13 +4293,13 @@
         <v>-1916000</v>
       </c>
       <c r="N78">
-        <v>-6120944000</v>
+        <v>-5789475800</v>
       </c>
       <c r="O78">
         <v>-95822300</v>
       </c>
       <c r="P78">
-        <v>-637533273000</v>
+        <v>-766399977300</v>
       </c>
     </row>
     <row r="79">
@@ -4316,25 +4316,25 @@
         <v>94800</v>
       </c>
       <c r="E79">
-        <v>169662126000</v>
+        <v>140167949700</v>
       </c>
       <c r="F79">
-        <v>234399022000</v>
+        <v>219376859200</v>
       </c>
       <c r="G79">
-        <v>1664673000</v>
+        <v>1658978700</v>
       </c>
       <c r="H79">
         <v>21258700</v>
       </c>
       <c r="I79">
-        <v>405725821000</v>
+        <v>361203787600</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-07T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>28201578537000</v>
+        <v>25277942299800</v>
       </c>
       <c r="L79">
         <v>1726867600</v>
@@ -4343,13 +4343,13 @@
         <v>2905700</v>
       </c>
       <c r="N79">
-        <v>64736896000</v>
+        <v>79208909500</v>
       </c>
       <c r="O79">
         <v>-92916600</v>
       </c>
       <c r="P79">
-        <v>-572796377000</v>
+        <v>-687191067800</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>152000</v>
       </c>
       <c r="E80">
-        <v>217404660000</v>
+        <v>195846839400</v>
       </c>
       <c r="F80">
-        <v>231942961000</v>
+        <v>210702822400</v>
       </c>
       <c r="G80">
         <v>2873430000</v>
@@ -4378,13 +4378,13 @@
         <v>25767100</v>
       </c>
       <c r="I80">
-        <v>452221051000</v>
+        <v>409423091800</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-07T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>28653799588000</v>
+        <v>25687365391600</v>
       </c>
       <c r="L80">
         <v>1752634700</v>
@@ -4393,13 +4393,13 @@
         <v>1333700</v>
       </c>
       <c r="N80">
-        <v>14538301000</v>
+        <v>14855983000</v>
       </c>
       <c r="O80">
         <v>-91582900</v>
       </c>
       <c r="P80">
-        <v>-558258076000</v>
+        <v>-672335084800</v>
       </c>
     </row>
     <row r="81">
@@ -4416,25 +4416,25 @@
         <v>54800</v>
       </c>
       <c r="E81">
-        <v>246039560000</v>
+        <v>223492729400</v>
       </c>
       <c r="F81">
-        <v>120911743000</v>
+        <v>106038631000</v>
       </c>
       <c r="G81">
-        <v>1153653000</v>
+        <v>857949000</v>
       </c>
       <c r="H81">
         <v>21026500</v>
       </c>
       <c r="I81">
-        <v>368104956000</v>
+        <v>330389309400</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-07T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>29021904544000</v>
+        <v>26017754701000</v>
       </c>
       <c r="L81">
         <v>1773661200</v>
@@ -4443,13 +4443,13 @@
         <v>-7102500</v>
       </c>
       <c r="N81">
-        <v>-125127817000</v>
+        <v>-117454098400</v>
       </c>
       <c r="O81">
         <v>-98685400</v>
       </c>
       <c r="P81">
-        <v>-683385893000</v>
+        <v>-789789183200</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>400600</v>
       </c>
       <c r="E82">
-        <v>296889272000</v>
+        <v>282449925800</v>
       </c>
       <c r="F82">
-        <v>103004925000</v>
+        <v>93044994900</v>
       </c>
       <c r="G82">
         <v>4683672000</v>
@@ -4478,13 +4478,13 @@
         <v>24036100</v>
       </c>
       <c r="I82">
-        <v>404577869000</v>
+        <v>380178592700</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-07T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>29426482413000</v>
+        <v>26397933293700</v>
       </c>
       <c r="L82">
         <v>1797697300</v>
@@ -4493,13 +4493,13 @@
         <v>-11854700</v>
       </c>
       <c r="N82">
-        <v>-193884347000</v>
+        <v>-189404930900</v>
       </c>
       <c r="O82">
         <v>-110540100</v>
       </c>
       <c r="P82">
-        <v>-877270240000</v>
+        <v>-979194114100</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>249800</v>
       </c>
       <c r="E83">
-        <v>326082304000</v>
+        <v>293440778200</v>
       </c>
       <c r="F83">
-        <v>119024288000</v>
+        <v>112236582500</v>
       </c>
       <c r="G83">
         <v>2954047000</v>
@@ -4528,13 +4528,13 @@
         <v>27574200</v>
       </c>
       <c r="I83">
-        <v>448060639000</v>
+        <v>408631407700</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-07T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>29874543052000</v>
+        <v>26806564701400</v>
       </c>
       <c r="L83">
         <v>1825271500</v>
@@ -4543,13 +4543,13 @@
         <v>-13806600</v>
       </c>
       <c r="N83">
-        <v>-207058016000</v>
+        <v>-181204195700</v>
       </c>
       <c r="O83">
         <v>-124346700</v>
       </c>
       <c r="P83">
-        <v>-1084328256000</v>
+        <v>-1160398309800</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>132600</v>
       </c>
       <c r="E84">
-        <v>383360947000</v>
+        <v>325681783900</v>
       </c>
       <c r="F84">
-        <v>150276059000</v>
+        <v>128779676900</v>
       </c>
       <c r="G84">
-        <v>2551765000</v>
+        <v>2538578200</v>
       </c>
       <c r="H84">
         <v>31269200</v>
       </c>
       <c r="I84">
-        <v>536188771000</v>
+        <v>457000039000</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-07T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>30410731823000</v>
+        <v>27263564740400</v>
       </c>
       <c r="L84">
         <v>1856540700</v>
@@ -4593,13 +4593,13 @@
         <v>-15036200</v>
       </c>
       <c r="N84">
-        <v>-233084888000</v>
+        <v>-196902107000</v>
       </c>
       <c r="O84">
         <v>-139382900</v>
       </c>
       <c r="P84">
-        <v>-1317413144000</v>
+        <v>-1357300416800</v>
       </c>
     </row>
     <row r="85">
@@ -4616,25 +4616,25 @@
         <v>130600</v>
       </c>
       <c r="E85">
-        <v>280589307000</v>
+        <v>253696926300</v>
       </c>
       <c r="F85">
-        <v>198887714000</v>
+        <v>181764154700</v>
       </c>
       <c r="G85">
-        <v>2066650000</v>
+        <v>1990925800</v>
       </c>
       <c r="H85">
         <v>28873900</v>
       </c>
       <c r="I85">
-        <v>481543671000</v>
+        <v>437452006800</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-07T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>30892275494000</v>
+        <v>27701016747200</v>
       </c>
       <c r="L85">
         <v>1885414600</v>
@@ -4643,13 +4643,13 @@
         <v>-5862700</v>
       </c>
       <c r="N85">
-        <v>-81701593000</v>
+        <v>-71932771600</v>
       </c>
       <c r="O85">
         <v>-145245600</v>
       </c>
       <c r="P85">
-        <v>-1399114737000</v>
+        <v>-1429233188400</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>148600</v>
       </c>
       <c r="E86">
-        <v>124913051000</v>
+        <v>105395887700</v>
       </c>
       <c r="F86">
-        <v>194525435000</v>
+        <v>187801865300</v>
       </c>
       <c r="G86">
         <v>2490222000</v>
@@ -4678,13 +4678,13 @@
         <v>19158000</v>
       </c>
       <c r="I86">
-        <v>321928708000</v>
+        <v>295687975000</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-07T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>31214204202000</v>
+        <v>27996704722200</v>
       </c>
       <c r="L86">
         <v>1904572600</v>
@@ -4693,13 +4693,13 @@
         <v>3831800</v>
       </c>
       <c r="N86">
-        <v>69612384000</v>
+        <v>82405977600</v>
       </c>
       <c r="O86">
         <v>-141413800</v>
       </c>
       <c r="P86">
-        <v>-1329502353000</v>
+        <v>-1346827210800</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>95400</v>
       </c>
       <c r="E87">
-        <v>118458913000</v>
+        <v>101173715500</v>
       </c>
       <c r="F87">
-        <v>337249140000</v>
+        <v>306959659800</v>
       </c>
       <c r="G87">
-        <v>2411607000</v>
+        <v>2396422200</v>
       </c>
       <c r="H87">
         <v>26734700</v>
       </c>
       <c r="I87">
-        <v>458119660000</v>
+        <v>410529797500</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-07T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>31672323862000</v>
+        <v>28407234519700</v>
       </c>
       <c r="L87">
         <v>1931307300</v>
@@ -4743,13 +4743,13 @@
         <v>13864300</v>
       </c>
       <c r="N87">
-        <v>218790227000</v>
+        <v>205785944300</v>
       </c>
       <c r="O87">
         <v>-127549500</v>
       </c>
       <c r="P87">
-        <v>-1110712126000</v>
+        <v>-1141041266500</v>
       </c>
     </row>
     <row r="88">
@@ -4766,25 +4766,25 @@
         <v>233800</v>
       </c>
       <c r="E88">
-        <v>169233398000</v>
+        <v>145907147600</v>
       </c>
       <c r="F88">
-        <v>415435615000</v>
+        <v>348170147800</v>
       </c>
       <c r="G88">
-        <v>3322480000</v>
+        <v>2718384700</v>
       </c>
       <c r="H88">
         <v>33770100</v>
       </c>
       <c r="I88">
-        <v>587991493000</v>
+        <v>496795680100</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-07T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>32260315355000</v>
+        <v>28904030199800</v>
       </c>
       <c r="L88">
         <v>1965077400</v>
@@ -4793,13 +4793,13 @@
         <v>15781100</v>
       </c>
       <c r="N88">
-        <v>246202217000</v>
+        <v>202263000200</v>
       </c>
       <c r="O88">
         <v>-111768400</v>
       </c>
       <c r="P88">
-        <v>-864509909000</v>
+        <v>-938778266300</v>
       </c>
     </row>
     <row r="89">
@@ -4816,25 +4816,25 @@
         <v>293900</v>
       </c>
       <c r="E89">
-        <v>200521909000</v>
+        <v>181811238400</v>
       </c>
       <c r="F89">
-        <v>321829793000</v>
+        <v>289750504400</v>
       </c>
       <c r="G89">
-        <v>5437372000</v>
+        <v>3429981400</v>
       </c>
       <c r="H89">
         <v>31600300</v>
       </c>
       <c r="I89">
-        <v>527789074000</v>
+        <v>474991724200</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-07T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>32788104429000</v>
+        <v>29379021924000</v>
       </c>
       <c r="L89">
         <v>1996677700</v>
@@ -4843,13 +4843,13 @@
         <v>8749200</v>
       </c>
       <c r="N89">
-        <v>121307884000</v>
+        <v>107939266000</v>
       </c>
       <c r="O89">
         <v>-103019200</v>
       </c>
       <c r="P89">
-        <v>-743202025000</v>
+        <v>-830839000300</v>
       </c>
     </row>
     <row r="90">
@@ -4866,25 +4866,25 @@
         <v>190100</v>
       </c>
       <c r="E90">
-        <v>305434621000</v>
+        <v>278344538200</v>
       </c>
       <c r="F90">
-        <v>212137879000</v>
+        <v>188498542000</v>
       </c>
       <c r="G90">
-        <v>4560447000</v>
+        <v>4545761700</v>
       </c>
       <c r="H90">
         <v>30932700</v>
       </c>
       <c r="I90">
-        <v>522132947000</v>
+        <v>471388841900</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-07T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>33310237376000</v>
+        <v>29850410765900</v>
       </c>
       <c r="L90">
         <v>2027610400</v>
@@ -4893,13 +4893,13 @@
         <v>-5949800</v>
       </c>
       <c r="N90">
-        <v>-93296742000</v>
+        <v>-89845996200</v>
       </c>
       <c r="O90">
         <v>-108969000</v>
       </c>
       <c r="P90">
-        <v>-836498767000</v>
+        <v>-920684996500</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>148500</v>
       </c>
       <c r="E91">
-        <v>214706766000</v>
+        <v>179535472500</v>
       </c>
       <c r="F91">
-        <v>173179275000</v>
+        <v>145535746200</v>
       </c>
       <c r="G91">
-        <v>2371678000</v>
+        <v>2230719100</v>
       </c>
       <c r="H91">
         <v>22485400</v>
       </c>
       <c r="I91">
-        <v>390257719000</v>
+        <v>327301937800</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-07T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>33700495095000</v>
+        <v>30177712703700</v>
       </c>
       <c r="L91">
         <v>2050095800</v>
@@ -4943,13 +4943,13 @@
         <v>-4978100</v>
       </c>
       <c r="N91">
-        <v>-41527491000</v>
+        <v>-33999726300</v>
       </c>
       <c r="O91">
         <v>-113947100</v>
       </c>
       <c r="P91">
-        <v>-878026258000</v>
+        <v>-954684722800</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>39400</v>
       </c>
       <c r="E92">
-        <v>121041433000</v>
+        <v>112461022000</v>
       </c>
       <c r="F92">
-        <v>155440864000</v>
+        <v>139242378700</v>
       </c>
       <c r="G92">
         <v>542810000</v>
@@ -4978,13 +4978,13 @@
         <v>15268500</v>
       </c>
       <c r="I92">
-        <v>277025107000</v>
+        <v>252246210700</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-07T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>33977520202000</v>
+        <v>30429958914400</v>
       </c>
       <c r="L92">
         <v>2065364300</v>
@@ -4993,13 +4993,13 @@
         <v>1531300</v>
       </c>
       <c r="N92">
-        <v>34399431000</v>
+        <v>26781356700</v>
       </c>
       <c r="O92">
         <v>-112415800</v>
       </c>
       <c r="P92">
-        <v>-843626827000</v>
+        <v>-927903366100</v>
       </c>
     </row>
     <row r="93">
@@ -5016,25 +5016,25 @@
         <v>33800</v>
       </c>
       <c r="E93">
-        <v>113504720000</v>
+        <v>108238291700</v>
       </c>
       <c r="F93">
-        <v>179380258000</v>
+        <v>163649804200</v>
       </c>
       <c r="G93">
-        <v>758273000</v>
+        <v>705126200</v>
       </c>
       <c r="H93">
         <v>16959200</v>
       </c>
       <c r="I93">
-        <v>293643251000</v>
+        <v>272593222100</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-07T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>34271163453000</v>
+        <v>30702552136500</v>
       </c>
       <c r="L93">
         <v>2082323500</v>
@@ -5043,13 +5043,13 @@
         <v>4730200</v>
       </c>
       <c r="N93">
-        <v>65875538000</v>
+        <v>55411512500</v>
       </c>
       <c r="O93">
         <v>-107685600</v>
       </c>
       <c r="P93">
-        <v>-777751289000</v>
+        <v>-872491853600</v>
       </c>
     </row>
     <row r="94">
@@ -5066,25 +5066,25 @@
         <v>56000</v>
       </c>
       <c r="E94">
-        <v>117723531000</v>
+        <v>106892173200</v>
       </c>
       <c r="F94">
-        <v>151179282000</v>
+        <v>143438031000</v>
       </c>
       <c r="G94">
-        <v>1096092000</v>
+        <v>1062925200</v>
       </c>
       <c r="H94">
         <v>15118700</v>
       </c>
       <c r="I94">
-        <v>269998905000</v>
+        <v>251393129400</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-07T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>34541162358000</v>
+        <v>30953945265900</v>
       </c>
       <c r="L94">
         <v>2097442200</v>
@@ -5093,13 +5093,13 @@
         <v>1798300</v>
       </c>
       <c r="N94">
-        <v>33455751000</v>
+        <v>36545857800</v>
       </c>
       <c r="O94">
         <v>-105887300</v>
       </c>
       <c r="P94">
-        <v>-744295538000</v>
+        <v>-835945995800</v>
       </c>
     </row>
     <row r="95">
@@ -5116,25 +5116,25 @@
         <v>81600</v>
       </c>
       <c r="E95">
-        <v>217272085000</v>
+        <v>206599568200</v>
       </c>
       <c r="F95">
-        <v>80048577000</v>
+        <v>70083651900</v>
       </c>
       <c r="G95">
-        <v>1385209000</v>
+        <v>1382012200</v>
       </c>
       <c r="H95">
         <v>17000300</v>
       </c>
       <c r="I95">
-        <v>298705871000</v>
+        <v>278065232300</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-07T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>34839868229000</v>
+        <v>31232010498200</v>
       </c>
       <c r="L95">
         <v>2114442500</v>
@@ -5143,13 +5143,13 @@
         <v>-7740100</v>
       </c>
       <c r="N95">
-        <v>-137223508000</v>
+        <v>-136515916300</v>
       </c>
       <c r="O95">
         <v>-113627400</v>
       </c>
       <c r="P95">
-        <v>-881519046000</v>
+        <v>-972461912100</v>
       </c>
     </row>
     <row r="96">
@@ -5166,25 +5166,25 @@
         <v>95500</v>
       </c>
       <c r="E96">
-        <v>280979426000</v>
+        <v>258145083200</v>
       </c>
       <c r="F96">
-        <v>80987116000</v>
+        <v>77187619300</v>
       </c>
       <c r="G96">
-        <v>1889202000</v>
+        <v>1055636400</v>
       </c>
       <c r="H96">
         <v>21258900</v>
       </c>
       <c r="I96">
-        <v>363855744000</v>
+        <v>336388338900</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-07T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>35203723973000</v>
+        <v>31568398837100</v>
       </c>
       <c r="L96">
         <v>2135701400</v>
@@ -5193,13 +5193,13 @@
         <v>-12013600</v>
       </c>
       <c r="N96">
-        <v>-199992310000</v>
+        <v>-180957463900</v>
       </c>
       <c r="O96">
         <v>-125641000</v>
       </c>
       <c r="P96">
-        <v>-1081511356000</v>
+        <v>-1153419376000</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>89200</v>
       </c>
       <c r="E97">
-        <v>259791695000</v>
+        <v>243194209100</v>
       </c>
       <c r="F97">
-        <v>90391490000</v>
+        <v>80550041300</v>
       </c>
       <c r="G97">
-        <v>1542527000</v>
+        <v>1461008600</v>
       </c>
       <c r="H97">
         <v>21570000</v>
       </c>
       <c r="I97">
-        <v>351725712000</v>
+        <v>325205259000</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-07T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>35555449685000</v>
+        <v>31893604096100</v>
       </c>
       <c r="L97">
         <v>2157271400</v>
@@ -5243,13 +5243,13 @@
         <v>-10523800</v>
       </c>
       <c r="N97">
-        <v>-169400205000</v>
+        <v>-162644167800</v>
       </c>
       <c r="O97">
         <v>-136164800</v>
       </c>
       <c r="P97">
-        <v>-1250911561000</v>
+        <v>-1316063543800</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>77000</v>
       </c>
       <c r="E98">
-        <v>221809709000</v>
+        <v>207814318400</v>
       </c>
       <c r="F98">
-        <v>108290038000</v>
+        <v>93252490600</v>
       </c>
       <c r="G98">
         <v>900012000</v>
@@ -5278,13 +5278,13 @@
         <v>20484600</v>
       </c>
       <c r="I98">
-        <v>330999759000</v>
+        <v>301966821000</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-07T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>35886449444000</v>
+        <v>32195570917100</v>
       </c>
       <c r="L98">
         <v>2177756000</v>
@@ -5293,13 +5293,13 @@
         <v>-7025600</v>
       </c>
       <c r="N98">
-        <v>-113519671000</v>
+        <v>-114561827800</v>
       </c>
       <c r="O98">
         <v>-143190400</v>
       </c>
       <c r="P98">
-        <v>-1364431232000</v>
+        <v>-1430625371600</v>
       </c>
     </row>
     <row r="99">
@@ -5316,25 +5316,25 @@
         <v>219600</v>
       </c>
       <c r="E99">
-        <v>207730630000</v>
+        <v>181228458700</v>
       </c>
       <c r="F99">
-        <v>205507992000</v>
+        <v>190710903900</v>
       </c>
       <c r="G99">
-        <v>3141161000</v>
+        <v>3012290000</v>
       </c>
       <c r="H99">
         <v>24112800</v>
       </c>
       <c r="I99">
-        <v>416379783000</v>
+        <v>374951652600</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-07T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>36302829227000</v>
+        <v>32570522569700</v>
       </c>
       <c r="L99">
         <v>2201868800</v>
@@ -5343,13 +5343,13 @@
         <v>-2379800</v>
       </c>
       <c r="N99">
-        <v>-2222638000</v>
+        <v>9482445200</v>
       </c>
       <c r="O99">
         <v>-145570200</v>
       </c>
       <c r="P99">
-        <v>-1366653870000</v>
+        <v>-1421142926400</v>
       </c>
     </row>
     <row r="100">
@@ -5366,25 +5366,25 @@
         <v>175600</v>
       </c>
       <c r="E100">
-        <v>425340660000</v>
+        <v>387244394400</v>
       </c>
       <c r="F100">
-        <v>167287556000</v>
+        <v>148685177000</v>
       </c>
       <c r="G100">
-        <v>3344076000</v>
+        <v>3086733600</v>
       </c>
       <c r="H100">
         <v>36817200</v>
       </c>
       <c r="I100">
-        <v>595972292000</v>
+        <v>539016305000</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-07T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>36898801519000</v>
+        <v>33109538874700</v>
       </c>
       <c r="L100">
         <v>2238686000</v>
@@ -5393,13 +5393,13 @@
         <v>-16943400</v>
       </c>
       <c r="N100">
-        <v>-258053104000</v>
+        <v>-238559217400</v>
       </c>
       <c r="O100">
         <v>-162513600</v>
       </c>
       <c r="P100">
-        <v>-1624706974000</v>
+        <v>-1659702143800</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>674600</v>
       </c>
       <c r="E101">
-        <v>586704497000</v>
+        <v>502713971600</v>
       </c>
       <c r="F101">
-        <v>145287970000</v>
+        <v>134473994800</v>
       </c>
       <c r="G101">
-        <v>11955357000</v>
+        <v>11458953900</v>
       </c>
       <c r="H101">
         <v>45244200</v>
       </c>
       <c r="I101">
-        <v>743947824000</v>
+        <v>648646920300</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-07T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>37642749343000</v>
+        <v>33758185795000</v>
       </c>
       <c r="L101">
         <v>2283930200</v>
@@ -5443,13 +5443,13 @@
         <v>-27330800</v>
       </c>
       <c r="N101">
-        <v>-441416527000</v>
+        <v>-368239976800</v>
       </c>
       <c r="O101">
         <v>-189844400</v>
       </c>
       <c r="P101">
-        <v>-2066123501000</v>
+        <v>-2027942120600</v>
       </c>
     </row>
     <row r="102">
@@ -5466,25 +5466,25 @@
         <v>470600</v>
       </c>
       <c r="E102">
-        <v>510519122000</v>
+        <v>458384708600</v>
       </c>
       <c r="F102">
-        <v>164337985000</v>
+        <v>155719312300</v>
       </c>
       <c r="G102">
-        <v>8372767000</v>
+        <v>7475465200</v>
       </c>
       <c r="H102">
         <v>41844300</v>
       </c>
       <c r="I102">
-        <v>683229874000</v>
+        <v>621579486100</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-07T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>38325979217000</v>
+        <v>34379765281100</v>
       </c>
       <c r="L102">
         <v>2325774500</v>
@@ -5493,13 +5493,13 @@
         <v>-24120100</v>
       </c>
       <c r="N102">
-        <v>-346181137000</v>
+        <v>-302665396300</v>
       </c>
       <c r="O102">
         <v>-213964500</v>
       </c>
       <c r="P102">
-        <v>-2412304638000</v>
+        <v>-2330607516900</v>
       </c>
     </row>
     <row r="103">
@@ -5516,25 +5516,25 @@
         <v>478800</v>
       </c>
       <c r="E103">
-        <v>317468542000</v>
+        <v>285073069900</v>
       </c>
       <c r="F103">
-        <v>223573701000</v>
+        <v>205391801100</v>
       </c>
       <c r="G103">
-        <v>8756759000</v>
+        <v>8363552600</v>
       </c>
       <c r="H103">
         <v>37406600</v>
       </c>
       <c r="I103">
-        <v>549799002000</v>
+        <v>498828423600</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-07T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>38875778219000</v>
+        <v>34878593704700</v>
       </c>
       <c r="L103">
         <v>2363181100</v>
@@ -5543,13 +5543,13 @@
         <v>-11048600</v>
       </c>
       <c r="N103">
-        <v>-93894841000</v>
+        <v>-79681268800</v>
       </c>
       <c r="O103">
         <v>-225013100</v>
       </c>
       <c r="P103">
-        <v>-2506199479000</v>
+        <v>-2410288785700</v>
       </c>
     </row>
     <row r="104">
@@ -5566,25 +5566,25 @@
         <v>423800</v>
       </c>
       <c r="E104">
-        <v>527865022000</v>
+        <v>470871972100</v>
       </c>
       <c r="F104">
-        <v>216177750000</v>
+        <v>194549300100</v>
       </c>
       <c r="G104">
-        <v>7759420000</v>
+        <v>6657722800</v>
       </c>
       <c r="H104">
         <v>49042700</v>
       </c>
       <c r="I104">
-        <v>751802192000</v>
+        <v>672078995000</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-07T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>39627580411000</v>
+        <v>35550672699700</v>
       </c>
       <c r="L104">
         <v>2412223800</v>
@@ -5593,13 +5593,13 @@
         <v>-20881300</v>
       </c>
       <c r="N104">
-        <v>-311687272000</v>
+        <v>-276322672000</v>
       </c>
       <c r="O104">
         <v>-245894400</v>
       </c>
       <c r="P104">
-        <v>-2817886751000</v>
+        <v>-2686611457700</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>672400</v>
       </c>
       <c r="E105">
-        <v>434809701000</v>
+        <v>356234954400</v>
       </c>
       <c r="F105">
-        <v>289308723000</v>
+        <v>213633074400</v>
       </c>
       <c r="G105">
-        <v>12254325000</v>
+        <v>11312068200</v>
       </c>
       <c r="H105">
         <v>47402400</v>
       </c>
       <c r="I105">
-        <v>736372749000</v>
+        <v>581180097000</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-07T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>40363953160000</v>
+        <v>36131852796700</v>
       </c>
       <c r="L105">
         <v>2459626200</v>
@@ -5643,13 +5643,13 @@
         <v>-11354200</v>
       </c>
       <c r="N105">
-        <v>-145500978000</v>
+        <v>-142601880000</v>
       </c>
       <c r="O105">
         <v>-257248600</v>
       </c>
       <c r="P105">
-        <v>-2963387729000</v>
+        <v>-2829213337700</v>
       </c>
     </row>
     <row r="106">
@@ -5666,25 +5666,25 @@
         <v>618900</v>
       </c>
       <c r="E106">
-        <v>173462147000</v>
+        <v>145265771600</v>
       </c>
       <c r="F106">
-        <v>513943883000</v>
+        <v>479048313500</v>
       </c>
       <c r="G106">
-        <v>11769630000</v>
+        <v>10880819700</v>
       </c>
       <c r="H106">
         <v>40453700</v>
       </c>
       <c r="I106">
-        <v>699175660000</v>
+        <v>635194904800</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-07T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>41063128820000</v>
+        <v>36767047701500</v>
       </c>
       <c r="L106">
         <v>2500079900</v>
@@ -5693,13 +5693,13 @@
         <v>19664400</v>
       </c>
       <c r="N106">
-        <v>340481736000</v>
+        <v>333782541900</v>
       </c>
       <c r="O106">
         <v>-237584200</v>
       </c>
       <c r="P106">
-        <v>-2622905993000</v>
+        <v>-2495430795800</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>245600</v>
       </c>
       <c r="E107">
-        <v>109768336000</v>
+        <v>102050761300</v>
       </c>
       <c r="F107">
-        <v>348499873000</v>
+        <v>314155951300</v>
       </c>
       <c r="G107">
-        <v>3547287000</v>
+        <v>2944290600</v>
       </c>
       <c r="H107">
         <v>27556000</v>
       </c>
       <c r="I107">
-        <v>461815496000</v>
+        <v>419151003200</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-07T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>41524944316000</v>
+        <v>37186198704700</v>
       </c>
       <c r="L107">
         <v>2527635900</v>
@@ -5743,13 +5743,13 @@
         <v>15273600</v>
       </c>
       <c r="N107">
-        <v>238731537000</v>
+        <v>212105190000</v>
       </c>
       <c r="O107">
         <v>-222310600</v>
       </c>
       <c r="P107">
-        <v>-2384174456000</v>
+        <v>-2283325605800</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>375400</v>
       </c>
       <c r="E108">
-        <v>133515615000</v>
+        <v>125902835400</v>
       </c>
       <c r="F108">
-        <v>263320866000</v>
+        <v>237487125600</v>
       </c>
       <c r="G108">
-        <v>6483430000</v>
+        <v>6420093400</v>
       </c>
       <c r="H108">
         <v>23223700</v>
       </c>
       <c r="I108">
-        <v>403319911000</v>
+        <v>369810054400</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-07T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>41928264227000</v>
+        <v>37556008759100</v>
       </c>
       <c r="L108">
         <v>2550859600</v>
@@ -5793,13 +5793,13 @@
         <v>6875300</v>
       </c>
       <c r="N108">
-        <v>129805251000</v>
+        <v>111584290200</v>
       </c>
       <c r="O108">
         <v>-215435300</v>
       </c>
       <c r="P108">
-        <v>-2254369205000</v>
+        <v>-2171741315600</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>128800</v>
       </c>
       <c r="E109">
-        <v>207509240000</v>
+        <v>192053211500</v>
       </c>
       <c r="F109">
-        <v>211143040000</v>
+        <v>183264546400</v>
       </c>
       <c r="G109">
-        <v>2913505000</v>
+        <v>2275743400</v>
       </c>
       <c r="H109">
         <v>22585600</v>
       </c>
       <c r="I109">
-        <v>421565785000</v>
+        <v>377593501300</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-07T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>42349830012000</v>
+        <v>37933602260400</v>
       </c>
       <c r="L109">
         <v>2573445200</v>
@@ -5843,13 +5843,13 @@
         <v>-863200</v>
       </c>
       <c r="N109">
-        <v>3633800000</v>
+        <v>-8788665100</v>
       </c>
       <c r="O109">
         <v>-216298500</v>
       </c>
       <c r="P109">
-        <v>-2250735405000</v>
+        <v>-2180529980700</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>302400</v>
       </c>
       <c r="E110">
-        <v>213281853000</v>
+        <v>186564497100</v>
       </c>
       <c r="F110">
-        <v>157438636000</v>
+        <v>145184402500</v>
       </c>
       <c r="G110">
-        <v>5460978000</v>
+        <v>5287152000</v>
       </c>
       <c r="H110">
         <v>22658100</v>
       </c>
       <c r="I110">
-        <v>376181467000</v>
+        <v>337036051600</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-07T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>42726011479000</v>
+        <v>38270638312000</v>
       </c>
       <c r="L110">
         <v>2596103300</v>
@@ -5893,13 +5893,13 @@
         <v>-3349900</v>
       </c>
       <c r="N110">
-        <v>-55843217000</v>
+        <v>-41380094600</v>
       </c>
       <c r="O110">
         <v>-219648400</v>
       </c>
       <c r="P110">
-        <v>-2306578622000</v>
+        <v>-2221910075300</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>290900</v>
       </c>
       <c r="E111">
-        <v>243322579000</v>
+        <v>214005225700</v>
       </c>
       <c r="F111">
-        <v>146528793000</v>
+        <v>135788344200</v>
       </c>
       <c r="G111">
-        <v>6365837000</v>
+        <v>6276826100</v>
       </c>
       <c r="H111">
         <v>25020100</v>
       </c>
       <c r="I111">
-        <v>396217209000</v>
+        <v>356070396000</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-07T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>43122228688000</v>
+        <v>38626708708000</v>
       </c>
       <c r="L111">
         <v>2621123400</v>
@@ -5943,13 +5943,13 @@
         <v>-7006200</v>
       </c>
       <c r="N111">
-        <v>-96793786000</v>
+        <v>-78216881500</v>
       </c>
       <c r="O111">
         <v>-226654600</v>
       </c>
       <c r="P111">
-        <v>-2403372408000</v>
+        <v>-2300126956800</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>583500</v>
       </c>
       <c r="E112">
-        <v>357179073000</v>
+        <v>324240244800</v>
       </c>
       <c r="F112">
-        <v>146073004000</v>
+        <v>118193911000</v>
       </c>
       <c r="G112">
-        <v>9563202000</v>
+        <v>9326538900</v>
       </c>
       <c r="H112">
         <v>31803300</v>
       </c>
       <c r="I112">
-        <v>512815279000</v>
+        <v>451760694700</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-07T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>43635043967000</v>
+        <v>39078469402700</v>
       </c>
       <c r="L112">
         <v>2652926700</v>
@@ -5993,13 +5993,13 @@
         <v>-14019400</v>
       </c>
       <c r="N112">
-        <v>-211106069000</v>
+        <v>-206046333800</v>
       </c>
       <c r="O112">
         <v>-240674000</v>
       </c>
       <c r="P112">
-        <v>-2614478477000</v>
+        <v>-2506173290600</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>526100</v>
       </c>
       <c r="E113">
-        <v>405524735000</v>
+        <v>364739161400</v>
       </c>
       <c r="F113">
-        <v>198741262000</v>
+        <v>146816338900</v>
       </c>
       <c r="G113">
-        <v>8892710000</v>
+        <v>7557746300</v>
       </c>
       <c r="H113">
         <v>35755100</v>
       </c>
       <c r="I113">
-        <v>613158707000</v>
+        <v>519113246600</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-07T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>44248202674000</v>
+        <v>39597582649300</v>
       </c>
       <c r="L113">
         <v>2688681800</v>
@@ -6043,13 +6043,13 @@
         <v>-14065800</v>
       </c>
       <c r="N113">
-        <v>-206783473000</v>
+        <v>-217922822500</v>
       </c>
       <c r="O113">
         <v>-254739800</v>
       </c>
       <c r="P113">
-        <v>-2821261950000</v>
+        <v>-2724096113100</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>499000</v>
       </c>
       <c r="E114">
-        <v>373769825000</v>
+        <v>305711351600</v>
       </c>
       <c r="F114">
-        <v>222696256000</v>
+        <v>179304691000</v>
       </c>
       <c r="G114">
-        <v>12872582000</v>
+        <v>11263093100</v>
       </c>
       <c r="H114">
         <v>35346400</v>
       </c>
       <c r="I114">
-        <v>609338663000</v>
+        <v>496279135700</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-07T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>44857541337000</v>
+        <v>40093861785000</v>
       </c>
       <c r="L114">
         <v>2724028200</v>
@@ -6093,13 +6093,13 @@
         <v>-10706600</v>
       </c>
       <c r="N114">
-        <v>-151073569000</v>
+        <v>-126406660600</v>
       </c>
       <c r="O114">
         <v>-265446400</v>
       </c>
       <c r="P114">
-        <v>-2972335519000</v>
+        <v>-2850502773700</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>734500</v>
       </c>
       <c r="E115">
-        <v>359495921000</v>
+        <v>314706954800</v>
       </c>
       <c r="F115">
-        <v>221826023000</v>
+        <v>203017050800</v>
       </c>
       <c r="G115">
-        <v>15490511000</v>
+        <v>14637365000</v>
       </c>
       <c r="H115">
         <v>35707400</v>
       </c>
       <c r="I115">
-        <v>596812455000</v>
+        <v>532361370600</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-07T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>45454353792000</v>
+        <v>40626223155600</v>
       </c>
       <c r="L115">
         <v>2759735600</v>
@@ -6143,13 +6143,13 @@
         <v>-7882300</v>
       </c>
       <c r="N115">
-        <v>-137669898000</v>
+        <v>-111689904000</v>
       </c>
       <c r="O115">
         <v>-273328700</v>
       </c>
       <c r="P115">
-        <v>-3110005417000</v>
+        <v>-2962192677700</v>
       </c>
     </row>
     <row r="116">
@@ -6166,25 +6166,25 @@
         <v>1383800</v>
       </c>
       <c r="E116">
-        <v>8373743000</v>
+        <v>5704614800</v>
       </c>
       <c r="F116">
-        <v>5265504000</v>
+        <v>5043526200</v>
       </c>
       <c r="G116">
-        <v>19813499000</v>
+        <v>14546870900</v>
       </c>
       <c r="H116">
         <v>2309900</v>
       </c>
       <c r="I116">
-        <v>33452746000</v>
+        <v>25295011900</v>
       </c>
       <c r="J116" t="str">
         <v>2022-12-07T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>45487806538000</v>
+        <v>40651518167500</v>
       </c>
       <c r="L116">
         <v>2762045500</v>
@@ -6193,13 +6193,13 @@
         <v>-264700</v>
       </c>
       <c r="N116">
-        <v>-3108239000</v>
+        <v>-661088600</v>
       </c>
       <c r="O116">
         <v>-273593400</v>
       </c>
       <c r="P116">
-        <v>-3113113656000</v>
+        <v>-2962853766300</v>
       </c>
     </row>
     <row r="117">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>101000000</v>
+        <v>101000</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -6228,13 +6228,13 @@
         <v>10100</v>
       </c>
       <c r="I117">
-        <v>101000000</v>
+        <v>101000</v>
       </c>
       <c r="J117" t="str">
         <v>2022-12-07T14:32:00.000Z</v>
       </c>
       <c r="K117">
-        <v>45487907538000</v>
+        <v>40651518268500</v>
       </c>
       <c r="L117">
         <v>2762055600</v>
@@ -6243,13 +6243,13 @@
         <v>10100</v>
       </c>
       <c r="N117">
-        <v>101000000</v>
+        <v>101000</v>
       </c>
       <c r="O117">
         <v>-273583300</v>
       </c>
       <c r="P117">
-        <v>-3113012656000</v>
+        <v>-2962853665300</v>
       </c>
     </row>
     <row r="118">
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>2000000</v>
+        <v>2000</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -6278,13 +6278,13 @@
         <v>200</v>
       </c>
       <c r="I118">
-        <v>2000000</v>
+        <v>2000</v>
       </c>
       <c r="J118" t="str">
         <v>2022-12-07T14:34:00.000Z</v>
       </c>
       <c r="K118">
-        <v>45487909538000</v>
+        <v>40651518270500</v>
       </c>
       <c r="L118">
         <v>2762055800</v>
@@ -6293,13 +6293,13 @@
         <v>200</v>
       </c>
       <c r="N118">
-        <v>2000000</v>
+        <v>2000</v>
       </c>
       <c r="O118">
         <v>-273583100</v>
       </c>
       <c r="P118">
-        <v>-3113010656000</v>
+        <v>-2962853663300</v>
       </c>
     </row>
     <row r="119">
@@ -6316,10 +6316,10 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>5000000</v>
+        <v>5000</v>
       </c>
       <c r="F119">
-        <v>3000000</v>
+        <v>3000</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6328,13 +6328,13 @@
         <v>800</v>
       </c>
       <c r="I119">
-        <v>8000000</v>
+        <v>8000</v>
       </c>
       <c r="J119" t="str">
         <v>2022-12-07T14:36:00.000Z</v>
       </c>
       <c r="K119">
-        <v>45487917538000</v>
+        <v>40651518278500</v>
       </c>
       <c r="L119">
         <v>2762056600</v>
@@ -6343,13 +6343,13 @@
         <v>-200</v>
       </c>
       <c r="N119">
-        <v>-2000000</v>
+        <v>-2000</v>
       </c>
       <c r="O119">
         <v>-273583300</v>
       </c>
       <c r="P119">
-        <v>-3113012656000</v>
+        <v>-2962853665300</v>
       </c>
     </row>
     <row r="120">
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>5000000</v>
+        <v>5000</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         <v>500</v>
       </c>
       <c r="I120">
-        <v>5000000</v>
+        <v>5000</v>
       </c>
       <c r="J120" t="str">
         <v>2022-12-07T14:38:00.000Z</v>
       </c>
       <c r="K120">
-        <v>45487922538000</v>
+        <v>40651518283500</v>
       </c>
       <c r="L120">
         <v>2762057100</v>
@@ -6393,13 +6393,13 @@
         <v>-500</v>
       </c>
       <c r="N120">
-        <v>-5000000</v>
+        <v>-5000</v>
       </c>
       <c r="O120">
         <v>-273583800</v>
       </c>
       <c r="P120">
-        <v>-3113017656000</v>
+        <v>-2962853670300</v>
       </c>
     </row>
     <row r="121">
@@ -6416,25 +6416,25 @@
         <v>83539600</v>
       </c>
       <c r="E121">
-        <v>274383875000</v>
+        <v>203706223400</v>
       </c>
       <c r="F121">
-        <v>448364982000</v>
+        <v>373228993200</v>
       </c>
       <c r="G121">
-        <v>1555188791000</v>
+        <v>1437929667500</v>
       </c>
       <c r="H121">
         <v>118887900</v>
       </c>
       <c r="I121">
-        <v>2277937648000</v>
+        <v>2014864884100</v>
       </c>
       <c r="J121" t="str">
         <v>2022-12-07T14:44:00.000Z</v>
       </c>
       <c r="K121">
-        <v>47765860186000</v>
+        <v>42666383167600</v>
       </c>
       <c r="L121">
         <v>2880945000</v>
@@ -6443,13 +6443,13 @@
         <v>3994700</v>
       </c>
       <c r="N121">
-        <v>173981107000</v>
+        <v>169522769800</v>
       </c>
       <c r="O121">
         <v>-269589100</v>
       </c>
       <c r="P121">
-        <v>-2939036549000</v>
+        <v>-2793330900500</v>
       </c>
     </row>
     <row r="122">
@@ -6484,7 +6484,7 @@
         <v>2022-12-07T14:52:00.000Z</v>
       </c>
       <c r="K122">
-        <v>47765879986000</v>
+        <v>42666402967600</v>
       </c>
       <c r="L122">
         <v>2880947000</v>
@@ -6499,7 +6499,7 @@
         <v>-269591100</v>
       </c>
       <c r="P122">
-        <v>-2939056349000</v>
+        <v>-2793350700500</v>
       </c>
     </row>
     <row r="123">
@@ -6534,7 +6534,7 @@
         <v>2022-12-07T14:54:00.000Z</v>
       </c>
       <c r="K123">
-        <v>47765936416000</v>
+        <v>42666459397600</v>
       </c>
       <c r="L123">
         <v>2880952700</v>
@@ -6549,7 +6549,7 @@
         <v>-269596800</v>
       </c>
       <c r="P123">
-        <v>-2939112779000</v>
+        <v>-2793407130500</v>
       </c>
     </row>
     <row r="124">
@@ -6584,7 +6584,7 @@
         <v>2022-12-07T14:56:00.000Z</v>
       </c>
       <c r="K124">
-        <v>47765966116000</v>
+        <v>42666489097600</v>
       </c>
       <c r="L124">
         <v>2880955700</v>
@@ -6599,7 +6599,7 @@
         <v>-269599800</v>
       </c>
       <c r="P124">
-        <v>-2939142479000</v>
+        <v>-2793436830500</v>
       </c>
     </row>
     <row r="125">
@@ -6634,7 +6634,7 @@
         <v>2022-12-07T14:58:00.000Z</v>
       </c>
       <c r="K125">
-        <v>47765967126000</v>
+        <v>42666490107600</v>
       </c>
       <c r="L125">
         <v>2880955800</v>
@@ -6649,7 +6649,7 @@
         <v>-269599700</v>
       </c>
       <c r="P125">
-        <v>-2939141469000</v>
+        <v>-2793435820500</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221207/VNINDEX_HOSE_5p_20221207.xlsx
+++ b/name/vnindex/20221207/VNINDEX_HOSE_5p_20221207.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P125"/>
+  <dimension ref="A1:AC125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>117795365100</v>
       </c>
+      <c r="Q2">
+        <v>443268914000</v>
+      </c>
+      <c r="R2">
+        <v>325473548900</v>
+      </c>
+      <c r="S2">
+        <v>30541100</v>
+      </c>
+      <c r="T2">
+        <v>27190200</v>
+      </c>
+      <c r="U2">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V2">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W2">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X2">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y2">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z2">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA2">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB2">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC2">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>232646692000</v>
       </c>
+      <c r="Q3">
+        <v>830314831500</v>
+      </c>
+      <c r="R3">
+        <v>597668139500</v>
+      </c>
+      <c r="S3">
+        <v>58082800</v>
+      </c>
+      <c r="T3">
+        <v>47117600</v>
+      </c>
+      <c r="U3">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V3">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W3">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X3">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y3">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z3">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA3">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB3">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC3">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>430511604800</v>
       </c>
+      <c r="Q4">
+        <v>1202351917300</v>
+      </c>
+      <c r="R4">
+        <v>771840312500</v>
+      </c>
+      <c r="S4">
+        <v>83691600</v>
+      </c>
+      <c r="T4">
+        <v>59656000</v>
+      </c>
+      <c r="U4">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V4">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W4">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X4">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y4">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z4">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA4">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB4">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC4">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>616116883100</v>
       </c>
+      <c r="Q5">
+        <v>1599391582500</v>
+      </c>
+      <c r="R5">
+        <v>983274699400</v>
+      </c>
+      <c r="S5">
+        <v>108966600</v>
+      </c>
+      <c r="T5">
+        <v>74854300</v>
+      </c>
+      <c r="U5">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V5">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W5">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X5">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y5">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z5">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA5">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB5">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC5">
+        <v>8.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>771555115000</v>
       </c>
+      <c r="Q6">
+        <v>2034669271800</v>
+      </c>
+      <c r="R6">
+        <v>1263114156800</v>
+      </c>
+      <c r="S6">
+        <v>135292400</v>
+      </c>
+      <c r="T6">
+        <v>94518700</v>
+      </c>
+      <c r="U6">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V6">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W6">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X6">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y6">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z6">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA6">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB6">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC6">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>700481381800</v>
       </c>
+      <c r="Q7">
+        <v>2301947662600</v>
+      </c>
+      <c r="R7">
+        <v>1601466280800</v>
+      </c>
+      <c r="S7">
+        <v>153077100</v>
+      </c>
+      <c r="T7">
+        <v>117697500</v>
+      </c>
+      <c r="U7">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V7">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W7">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X7">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y7">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z7">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA7">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB7">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC7">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>567186423400</v>
       </c>
+      <c r="Q8">
+        <v>2485697678300</v>
+      </c>
+      <c r="R8">
+        <v>1918511254900</v>
+      </c>
+      <c r="S8">
+        <v>165073200</v>
+      </c>
+      <c r="T8">
+        <v>137693600</v>
+      </c>
+      <c r="U8">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V8">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W8">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X8">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y8">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z8">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA8">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB8">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC8">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>418283879600</v>
       </c>
+      <c r="Q9">
+        <v>2662701441900</v>
+      </c>
+      <c r="R9">
+        <v>2244417562300</v>
+      </c>
+      <c r="S9">
+        <v>176383000</v>
+      </c>
+      <c r="T9">
+        <v>158168900</v>
+      </c>
+      <c r="U9">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V9">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W9">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X9">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y9">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z9">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA9">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB9">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC9">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>307275991900</v>
       </c>
+      <c r="Q10">
+        <v>2806714751300</v>
+      </c>
+      <c r="R10">
+        <v>2499438759400</v>
+      </c>
+      <c r="S10">
+        <v>185877200</v>
+      </c>
+      <c r="T10">
+        <v>177629400</v>
+      </c>
+      <c r="U10">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V10">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W10">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X10">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y10">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z10">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA10">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB10">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC10">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>207541270200</v>
       </c>
+      <c r="Q11">
+        <v>2961402824800</v>
+      </c>
+      <c r="R11">
+        <v>2753861554600</v>
+      </c>
+      <c r="S11">
+        <v>195143400</v>
+      </c>
+      <c r="T11">
+        <v>195224400</v>
+      </c>
+      <c r="U11">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V11">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W11">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X11">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y11">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z11">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA11">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB11">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC11">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>169770924400</v>
       </c>
+      <c r="Q12">
+        <v>3119366853400</v>
+      </c>
+      <c r="R12">
+        <v>2949595929000</v>
+      </c>
+      <c r="S12">
+        <v>205131400</v>
+      </c>
+      <c r="T12">
+        <v>207850900</v>
+      </c>
+      <c r="U12">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V12">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W12">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X12">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y12">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z12">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA12">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB12">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC12">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>325110076700</v>
       </c>
+      <c r="Q13">
+        <v>3365932436500</v>
+      </c>
+      <c r="R13">
+        <v>3040822359800</v>
+      </c>
+      <c r="S13">
+        <v>222084100</v>
+      </c>
+      <c r="T13">
+        <v>214136500</v>
+      </c>
+      <c r="U13">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V13">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W13">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X13">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y13">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z13">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA13">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB13">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC13">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>491855452500</v>
       </c>
+      <c r="Q14">
+        <v>3620980032200</v>
+      </c>
+      <c r="R14">
+        <v>3129124579700</v>
+      </c>
+      <c r="S14">
+        <v>239765900</v>
+      </c>
+      <c r="T14">
+        <v>220810600</v>
+      </c>
+      <c r="U14">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V14">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W14">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X14">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y14">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z14">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA14">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB14">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC14">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>604997754300</v>
       </c>
+      <c r="Q15">
+        <v>3820604234500</v>
+      </c>
+      <c r="R15">
+        <v>3215606480200</v>
+      </c>
+      <c r="S15">
+        <v>254113200</v>
+      </c>
+      <c r="T15">
+        <v>226565900</v>
+      </c>
+      <c r="U15">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V15">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W15">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X15">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y15">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z15">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA15">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB15">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>712230761000</v>
       </c>
+      <c r="Q16">
+        <v>4018000490100</v>
+      </c>
+      <c r="R16">
+        <v>3305769729100</v>
+      </c>
+      <c r="S16">
+        <v>265886100</v>
+      </c>
+      <c r="T16">
+        <v>232313600</v>
+      </c>
+      <c r="U16">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V16">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W16">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X16">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y16">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z16">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA16">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB16">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC16">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>782389128800</v>
       </c>
+      <c r="Q17">
+        <v>4205153327800</v>
+      </c>
+      <c r="R17">
+        <v>3422764199000</v>
+      </c>
+      <c r="S17">
+        <v>277089300</v>
+      </c>
+      <c r="T17">
+        <v>240441800</v>
+      </c>
+      <c r="U17">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V17">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W17">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X17">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y17">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z17">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA17">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB17">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC17">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>815679187200</v>
       </c>
+      <c r="Q18">
+        <v>4366178509500</v>
+      </c>
+      <c r="R18">
+        <v>3550499322300</v>
+      </c>
+      <c r="S18">
+        <v>289724300</v>
+      </c>
+      <c r="T18">
+        <v>249378500</v>
+      </c>
+      <c r="U18">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V18">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W18">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X18">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y18">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z18">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA18">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB18">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC18">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>830192249200</v>
       </c>
+      <c r="Q19">
+        <v>4498197955400</v>
+      </c>
+      <c r="R19">
+        <v>3668005706200</v>
+      </c>
+      <c r="S19">
+        <v>297643700</v>
+      </c>
+      <c r="T19">
+        <v>258126300</v>
+      </c>
+      <c r="U19">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V19">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W19">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X19">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y19">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z19">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA19">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB19">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC19">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>809545937800</v>
       </c>
+      <c r="Q20">
+        <v>4615730304800</v>
+      </c>
+      <c r="R20">
+        <v>3806184367000</v>
+      </c>
+      <c r="S20">
+        <v>305890900</v>
+      </c>
+      <c r="T20">
+        <v>267317200</v>
+      </c>
+      <c r="U20">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V20">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W20">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X20">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y20">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z20">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA20">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB20">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC20">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>770891100400</v>
       </c>
+      <c r="Q21">
+        <v>4749649401700</v>
+      </c>
+      <c r="R21">
+        <v>3978758301300</v>
+      </c>
+      <c r="S21">
+        <v>315546700</v>
+      </c>
+      <c r="T21">
+        <v>278366600</v>
+      </c>
+      <c r="U21">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V21">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W21">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X21">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y21">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z21">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA21">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB21">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC21">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>759043511100</v>
       </c>
+      <c r="Q22">
+        <v>4862513266800</v>
+      </c>
+      <c r="R22">
+        <v>4103469755700</v>
+      </c>
+      <c r="S22">
+        <v>322313500</v>
+      </c>
+      <c r="T22">
+        <v>288514700</v>
+      </c>
+      <c r="U22">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V22">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W22">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X22">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y22">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z22">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA22">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB22">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC22">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>747326572900</v>
       </c>
+      <c r="Q23">
+        <v>4949376040000</v>
+      </c>
+      <c r="R23">
+        <v>4202049467100</v>
+      </c>
+      <c r="S23">
+        <v>327653700</v>
+      </c>
+      <c r="T23">
+        <v>295938200</v>
+      </c>
+      <c r="U23">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V23">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W23">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X23">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y23">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z23">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA23">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB23">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC23">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>735692431700</v>
       </c>
+      <c r="Q24">
+        <v>5037496883600</v>
+      </c>
+      <c r="R24">
+        <v>4301804451900</v>
+      </c>
+      <c r="S24">
+        <v>333403700</v>
+      </c>
+      <c r="T24">
+        <v>302138000</v>
+      </c>
+      <c r="U24">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V24">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W24">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X24">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y24">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z24">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA24">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB24">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC24">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>711896796400</v>
       </c>
+      <c r="Q25">
+        <v>5129583053000</v>
+      </c>
+      <c r="R25">
+        <v>4417686256600</v>
+      </c>
+      <c r="S25">
+        <v>339184800</v>
+      </c>
+      <c r="T25">
+        <v>309969200</v>
+      </c>
+      <c r="U25">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V25">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W25">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X25">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y25">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z25">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA25">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB25">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC25">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>613346685300</v>
       </c>
+      <c r="Q26">
+        <v>5191725851000</v>
+      </c>
+      <c r="R26">
+        <v>4578379165700</v>
+      </c>
+      <c r="S26">
+        <v>343052000</v>
+      </c>
+      <c r="T26">
+        <v>320437700</v>
+      </c>
+      <c r="U26">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V26">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W26">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X26">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y26">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z26">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA26">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB26">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC26">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>417202432200</v>
       </c>
+      <c r="Q27">
+        <v>5247611297500</v>
+      </c>
+      <c r="R27">
+        <v>4830408865300</v>
+      </c>
+      <c r="S27">
+        <v>346805900</v>
+      </c>
+      <c r="T27">
+        <v>337582800</v>
+      </c>
+      <c r="U27">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V27">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W27">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X27">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y27">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z27">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA27">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB27">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC27">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>100411811300</v>
       </c>
+      <c r="Q28">
+        <v>5306373216800</v>
+      </c>
+      <c r="R28">
+        <v>5205961405500</v>
+      </c>
+      <c r="S28">
+        <v>350629000</v>
+      </c>
+      <c r="T28">
+        <v>363847200</v>
+      </c>
+      <c r="U28">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V28">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W28">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X28">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y28">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z28">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA28">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB28">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC28">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>-320135245400</v>
       </c>
+      <c r="Q29">
+        <v>5387537046100</v>
+      </c>
+      <c r="R29">
+        <v>5707672291500</v>
+      </c>
+      <c r="S29">
+        <v>356483300</v>
+      </c>
+      <c r="T29">
+        <v>399800500</v>
+      </c>
+      <c r="U29">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V29">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W29">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X29">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y29">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z29">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA29">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB29">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC29">
+        <v>18.7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>-631900471800</v>
       </c>
+      <c r="Q30">
+        <v>5475609161000</v>
+      </c>
+      <c r="R30">
+        <v>6107509632800</v>
+      </c>
+      <c r="S30">
+        <v>362586900</v>
+      </c>
+      <c r="T30">
+        <v>430584300</v>
+      </c>
+      <c r="U30">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V30">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W30">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X30">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y30">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z30">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA30">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB30">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC30">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>-699434695400</v>
       </c>
+      <c r="Q31">
+        <v>5622250762400</v>
+      </c>
+      <c r="R31">
+        <v>6321685457800</v>
+      </c>
+      <c r="S31">
+        <v>373062000</v>
+      </c>
+      <c r="T31">
+        <v>445870500</v>
+      </c>
+      <c r="U31">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V31">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W31">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X31">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y31">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z31">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA31">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB31">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-637687966800</v>
       </c>
+      <c r="Q32">
+        <v>5795527578400</v>
+      </c>
+      <c r="R32">
+        <v>6433215545200</v>
+      </c>
+      <c r="S32">
+        <v>384315300</v>
+      </c>
+      <c r="T32">
+        <v>453984800</v>
+      </c>
+      <c r="U32">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V32">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W32">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X32">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y32">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z32">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA32">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB32">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC32">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>-567341632800</v>
       </c>
+      <c r="Q33">
+        <v>5952420799400</v>
+      </c>
+      <c r="R33">
+        <v>6519762432200</v>
+      </c>
+      <c r="S33">
+        <v>394774300</v>
+      </c>
+      <c r="T33">
+        <v>460401900</v>
+      </c>
+      <c r="U33">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V33">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W33">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X33">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y33">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z33">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA33">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB33">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC33">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-508680517300</v>
       </c>
+      <c r="Q34">
+        <v>6098964771100</v>
+      </c>
+      <c r="R34">
+        <v>6607645288400</v>
+      </c>
+      <c r="S34">
+        <v>404385500</v>
+      </c>
+      <c r="T34">
+        <v>466223800</v>
+      </c>
+      <c r="U34">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V34">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W34">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X34">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y34">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z34">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA34">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB34">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC34">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-564040909400</v>
       </c>
+      <c r="Q35">
+        <v>6164042307100</v>
+      </c>
+      <c r="R35">
+        <v>6728083216500</v>
+      </c>
+      <c r="S35">
+        <v>408943400</v>
+      </c>
+      <c r="T35">
+        <v>473552200</v>
+      </c>
+      <c r="U35">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V35">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W35">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X35">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y35">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z35">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA35">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB35">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC35">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-632988392400</v>
       </c>
+      <c r="Q36">
+        <v>6214497914400</v>
+      </c>
+      <c r="R36">
+        <v>6847486306800</v>
+      </c>
+      <c r="S36">
+        <v>412515100</v>
+      </c>
+      <c r="T36">
+        <v>481762200</v>
+      </c>
+      <c r="U36">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V36">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W36">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X36">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y36">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z36">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA36">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB36">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC36">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-721361700800</v>
       </c>
+      <c r="Q37">
+        <v>6259659138900</v>
+      </c>
+      <c r="R37">
+        <v>6981020839700</v>
+      </c>
+      <c r="S37">
+        <v>415648300</v>
+      </c>
+      <c r="T37">
+        <v>491446400</v>
+      </c>
+      <c r="U37">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V37">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W37">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X37">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y37">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z37">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA37">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB37">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC37">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-873050056000</v>
       </c>
+      <c r="Q38">
+        <v>6313711671900</v>
+      </c>
+      <c r="R38">
+        <v>7186761727900</v>
+      </c>
+      <c r="S38">
+        <v>419084200</v>
+      </c>
+      <c r="T38">
+        <v>505315200</v>
+      </c>
+      <c r="U38">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V38">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W38">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X38">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y38">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z38">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA38">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB38">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC38">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>-1099759178800</v>
       </c>
+      <c r="Q39">
+        <v>6375784334600</v>
+      </c>
+      <c r="R39">
+        <v>7475543513400</v>
+      </c>
+      <c r="S39">
+        <v>422750400</v>
+      </c>
+      <c r="T39">
+        <v>526589400</v>
+      </c>
+      <c r="U39">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V39">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W39">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X39">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y39">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z39">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA39">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB39">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC39">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>-1305342048200</v>
       </c>
+      <c r="Q40">
+        <v>6453022773400</v>
+      </c>
+      <c r="R40">
+        <v>7758364821600</v>
+      </c>
+      <c r="S40">
+        <v>427854500</v>
+      </c>
+      <c r="T40">
+        <v>546991500</v>
+      </c>
+      <c r="U40">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V40">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W40">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X40">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y40">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z40">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA40">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB40">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC40">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>-1393790054300</v>
       </c>
+      <c r="Q41">
+        <v>6563672191700</v>
+      </c>
+      <c r="R41">
+        <v>7957462246000</v>
+      </c>
+      <c r="S41">
+        <v>434913900</v>
+      </c>
+      <c r="T41">
+        <v>561979200</v>
+      </c>
+      <c r="U41">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V41">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W41">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X41">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y41">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z41">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA41">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB41">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC41">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>-1464606444900</v>
       </c>
+      <c r="Q42">
+        <v>6684031967300</v>
+      </c>
+      <c r="R42">
+        <v>8148638412200</v>
+      </c>
+      <c r="S42">
+        <v>443405500</v>
+      </c>
+      <c r="T42">
+        <v>575410700</v>
+      </c>
+      <c r="U42">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V42">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W42">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X42">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y42">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z42">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA42">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB42">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC42">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>-1529939326800</v>
       </c>
+      <c r="Q43">
+        <v>6777842905200</v>
+      </c>
+      <c r="R43">
+        <v>8307782232000</v>
+      </c>
+      <c r="S43">
+        <v>450158800</v>
+      </c>
+      <c r="T43">
+        <v>588650700</v>
+      </c>
+      <c r="U43">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V43">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W43">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X43">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y43">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z43">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA43">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB43">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC43">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>-1594529360900</v>
       </c>
+      <c r="Q44">
+        <v>6870098447300</v>
+      </c>
+      <c r="R44">
+        <v>8464627808200</v>
+      </c>
+      <c r="S44">
+        <v>457409100</v>
+      </c>
+      <c r="T44">
+        <v>599594600</v>
+      </c>
+      <c r="U44">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V44">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W44">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X44">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y44">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z44">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA44">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB44">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC44">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>-1689906347500</v>
       </c>
+      <c r="Q45">
+        <v>6952928183600</v>
+      </c>
+      <c r="R45">
+        <v>8642834531100</v>
+      </c>
+      <c r="S45">
+        <v>463609300</v>
+      </c>
+      <c r="T45">
+        <v>613182100</v>
+      </c>
+      <c r="U45">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V45">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W45">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X45">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y45">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z45">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA45">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB45">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC45">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>-1783688434600</v>
       </c>
+      <c r="Q46">
+        <v>7031950993000</v>
+      </c>
+      <c r="R46">
+        <v>8815639427600</v>
+      </c>
+      <c r="S46">
+        <v>469065100</v>
+      </c>
+      <c r="T46">
+        <v>624700200</v>
+      </c>
+      <c r="U46">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V46">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W46">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X46">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y46">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z46">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA46">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB46">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC46">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>-1793227239100</v>
       </c>
+      <c r="Q47">
+        <v>7138957052600</v>
+      </c>
+      <c r="R47">
+        <v>8932184291700</v>
+      </c>
+      <c r="S47">
+        <v>476219100</v>
+      </c>
+      <c r="T47">
+        <v>632389200</v>
+      </c>
+      <c r="U47">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V47">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W47">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X47">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y47">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z47">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA47">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB47">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC47">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>-1765110777400</v>
       </c>
+      <c r="Q48">
+        <v>7257953887700</v>
+      </c>
+      <c r="R48">
+        <v>9023064665100</v>
+      </c>
+      <c r="S48">
+        <v>485788100</v>
+      </c>
+      <c r="T48">
+        <v>638742500</v>
+      </c>
+      <c r="U48">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V48">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W48">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X48">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y48">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z48">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA48">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB48">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC48">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>-1657171491900</v>
       </c>
+      <c r="Q49">
+        <v>7440444153600</v>
+      </c>
+      <c r="R49">
+        <v>9097615645500</v>
+      </c>
+      <c r="S49">
+        <v>497162100</v>
+      </c>
+      <c r="T49">
+        <v>643370100</v>
+      </c>
+      <c r="U49">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V49">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W49">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X49">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y49">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z49">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA49">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB49">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC49">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>-1579351868400</v>
       </c>
+      <c r="Q50">
+        <v>7579055201000</v>
+      </c>
+      <c r="R50">
+        <v>9158407069400</v>
+      </c>
+      <c r="S50">
+        <v>506677600</v>
+      </c>
+      <c r="T50">
+        <v>647062600</v>
+      </c>
+      <c r="U50">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V50">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W50">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X50">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y50">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z50">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA50">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB50">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC50">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-1469708456500</v>
       </c>
+      <c r="Q51">
+        <v>7739067862900</v>
+      </c>
+      <c r="R51">
+        <v>9208776319400</v>
+      </c>
+      <c r="S51">
+        <v>516896900</v>
+      </c>
+      <c r="T51">
+        <v>650637400</v>
+      </c>
+      <c r="U51">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V51">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W51">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X51">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y51">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z51">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA51">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB51">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC51">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-1422194293100</v>
       </c>
+      <c r="Q52">
+        <v>7848926880800</v>
+      </c>
+      <c r="R52">
+        <v>9271121173900</v>
+      </c>
+      <c r="S52">
+        <v>523684800</v>
+      </c>
+      <c r="T52">
+        <v>654515000</v>
+      </c>
+      <c r="U52">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V52">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W52">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X52">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y52">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z52">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA52">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB52">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC52">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-1355989448100</v>
       </c>
+      <c r="Q53">
+        <v>7979139285200</v>
+      </c>
+      <c r="R53">
+        <v>9335128733300</v>
+      </c>
+      <c r="S53">
+        <v>531517400</v>
+      </c>
+      <c r="T53">
+        <v>658058000</v>
+      </c>
+      <c r="U53">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V53">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W53">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X53">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y53">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z53">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA53">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB53">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC53">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-1265523298600</v>
       </c>
+      <c r="Q54">
+        <v>8136287776300</v>
+      </c>
+      <c r="R54">
+        <v>9401811074900</v>
+      </c>
+      <c r="S54">
+        <v>541160500</v>
+      </c>
+      <c r="T54">
+        <v>662289200</v>
+      </c>
+      <c r="U54">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V54">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W54">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X54">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y54">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z54">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA54">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB54">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC54">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-1110536048700</v>
       </c>
+      <c r="Q55">
+        <v>8355162142200</v>
+      </c>
+      <c r="R55">
+        <v>9465698190900</v>
+      </c>
+      <c r="S55">
+        <v>557348100</v>
+      </c>
+      <c r="T55">
+        <v>667253600</v>
+      </c>
+      <c r="U55">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V55">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W55">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X55">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y55">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z55">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA55">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB55">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC55">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-990516256400</v>
       </c>
+      <c r="Q56">
+        <v>8546461199600</v>
+      </c>
+      <c r="R56">
+        <v>9536977456000</v>
+      </c>
+      <c r="S56">
+        <v>569547500</v>
+      </c>
+      <c r="T56">
+        <v>672299400</v>
+      </c>
+      <c r="U56">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V56">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W56">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X56">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y56">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z56">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA56">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB56">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC56">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-903765294100</v>
       </c>
+      <c r="Q57">
+        <v>8727560474100</v>
+      </c>
+      <c r="R57">
+        <v>9631325768200</v>
+      </c>
+      <c r="S57">
+        <v>582404700</v>
+      </c>
+      <c r="T57">
+        <v>679706400</v>
+      </c>
+      <c r="U57">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V57">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W57">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X57">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y57">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z57">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA57">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB57">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC57">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-841044771400</v>
       </c>
+      <c r="Q58">
+        <v>8897560793000</v>
+      </c>
+      <c r="R58">
+        <v>9738605564400</v>
+      </c>
+      <c r="S58">
+        <v>592087800</v>
+      </c>
+      <c r="T58">
+        <v>685998400</v>
+      </c>
+      <c r="U58">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V58">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W58">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X58">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y58">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z58">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA58">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB58">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC58">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-837335303700</v>
       </c>
+      <c r="Q59">
+        <v>8999800336800</v>
+      </c>
+      <c r="R59">
+        <v>9837135640500</v>
+      </c>
+      <c r="S59">
+        <v>598031100</v>
+      </c>
+      <c r="T59">
+        <v>692306500</v>
+      </c>
+      <c r="U59">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V59">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W59">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X59">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y59">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z59">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA59">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB59">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC59">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-772609900700</v>
       </c>
+      <c r="Q60">
+        <v>9136741011800</v>
+      </c>
+      <c r="R60">
+        <v>9909350912500</v>
+      </c>
+      <c r="S60">
+        <v>606909500</v>
+      </c>
+      <c r="T60">
+        <v>696974000</v>
+      </c>
+      <c r="U60">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V60">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W60">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X60">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y60">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z60">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA60">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB60">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC60">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-626650374000</v>
       </c>
+      <c r="Q61">
+        <v>9369059445500</v>
+      </c>
+      <c r="R61">
+        <v>9995709819500</v>
+      </c>
+      <c r="S61">
+        <v>621726100</v>
+      </c>
+      <c r="T61">
+        <v>702184600</v>
+      </c>
+      <c r="U61">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V61">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W61">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X61">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y61">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z61">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA61">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB61">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC61">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-486747790600</v>
       </c>
+      <c r="Q62">
+        <v>9610745356600</v>
+      </c>
+      <c r="R62">
+        <v>10097493147200</v>
+      </c>
+      <c r="S62">
+        <v>640219200</v>
+      </c>
+      <c r="T62">
+        <v>708363000</v>
+      </c>
+      <c r="U62">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V62">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W62">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X62">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y62">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z62">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA62">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB62">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC62">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-363327205400</v>
       </c>
+      <c r="Q63">
+        <v>9827183233100</v>
+      </c>
+      <c r="R63">
+        <v>10190510438500</v>
+      </c>
+      <c r="S63">
+        <v>655388800</v>
+      </c>
+      <c r="T63">
+        <v>714069500</v>
+      </c>
+      <c r="U63">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V63">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W63">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X63">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y63">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z63">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA63">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB63">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC63">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-281215833400</v>
       </c>
+      <c r="Q64">
+        <v>9976593166200</v>
+      </c>
+      <c r="R64">
+        <v>10257808999600</v>
+      </c>
+      <c r="S64">
+        <v>665854500</v>
+      </c>
+      <c r="T64">
+        <v>718174900</v>
+      </c>
+      <c r="U64">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V64">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W64">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X64">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y64">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z64">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA64">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB64">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC64">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-164454769600</v>
       </c>
+      <c r="Q65">
+        <v>10161143222700</v>
+      </c>
+      <c r="R65">
+        <v>10325597992300</v>
+      </c>
+      <c r="S65">
+        <v>677593500</v>
+      </c>
+      <c r="T65">
+        <v>722519100</v>
+      </c>
+      <c r="U65">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V65">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W65">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X65">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y65">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z65">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA65">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB65">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC65">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-165527220900</v>
       </c>
+      <c r="Q66">
+        <v>10270658373800</v>
+      </c>
+      <c r="R66">
+        <v>10436185594700</v>
+      </c>
+      <c r="S66">
+        <v>684913200</v>
+      </c>
+      <c r="T66">
+        <v>729556200</v>
+      </c>
+      <c r="U66">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V66">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W66">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X66">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y66">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z66">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA66">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB66">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-251518928400</v>
       </c>
+      <c r="Q67">
+        <v>10334588191500</v>
+      </c>
+      <c r="R67">
+        <v>10586107119900</v>
+      </c>
+      <c r="S67">
+        <v>689508200</v>
+      </c>
+      <c r="T67">
+        <v>739160000</v>
+      </c>
+      <c r="U67">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V67">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W67">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X67">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y67">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z67">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA67">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB67">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC67">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-308749740500</v>
       </c>
+      <c r="Q68">
+        <v>10404793027200</v>
+      </c>
+      <c r="R68">
+        <v>10713542767700</v>
+      </c>
+      <c r="S68">
+        <v>694013300</v>
+      </c>
+      <c r="T68">
+        <v>747151300</v>
+      </c>
+      <c r="U68">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V68">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W68">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X68">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y68">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z68">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA68">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB68">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC68">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-331916006600</v>
       </c>
+      <c r="Q69">
+        <v>10475916970200</v>
+      </c>
+      <c r="R69">
+        <v>10807832976800</v>
+      </c>
+      <c r="S69">
+        <v>697515700</v>
+      </c>
+      <c r="T69">
+        <v>753372400</v>
+      </c>
+      <c r="U69">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V69">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W69">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X69">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y69">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z69">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA69">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB69">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-330569658600</v>
       </c>
+      <c r="Q70">
+        <v>10477336179200</v>
+      </c>
+      <c r="R70">
+        <v>10807905837800</v>
+      </c>
+      <c r="S70">
+        <v>697604500</v>
+      </c>
+      <c r="T70">
+        <v>753378700</v>
+      </c>
+      <c r="U70">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V70">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W70">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X70">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y70">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z70">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA70">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB70">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC70">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-481434970100</v>
       </c>
+      <c r="Q71">
+        <v>10731111933500</v>
+      </c>
+      <c r="R71">
+        <v>11212546903600</v>
+      </c>
+      <c r="S71">
+        <v>713962900</v>
+      </c>
+      <c r="T71">
+        <v>780271700</v>
+      </c>
+      <c r="U71">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V71">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W71">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X71">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y71">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z71">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA71">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB71">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC71">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-465332719100</v>
       </c>
+      <c r="Q72">
+        <v>10910766598500</v>
+      </c>
+      <c r="R72">
+        <v>11376099317600</v>
+      </c>
+      <c r="S72">
+        <v>724854700</v>
+      </c>
+      <c r="T72">
+        <v>791017000</v>
+      </c>
+      <c r="U72">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V72">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W72">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X72">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y72">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z72">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA72">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB72">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC72">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-496320728900</v>
       </c>
+      <c r="Q73">
+        <v>11050325966500</v>
+      </c>
+      <c r="R73">
+        <v>11546646695400</v>
+      </c>
+      <c r="S73">
+        <v>732651300</v>
+      </c>
+      <c r="T73">
+        <v>802008800</v>
+      </c>
+      <c r="U73">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V73">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W73">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X73">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y73">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z73">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA73">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB73">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC73">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-597110057700</v>
       </c>
+      <c r="Q74">
+        <v>11150478457600</v>
+      </c>
+      <c r="R74">
+        <v>11747588515300</v>
+      </c>
+      <c r="S74">
+        <v>739100700</v>
+      </c>
+      <c r="T74">
+        <v>816130300</v>
+      </c>
+      <c r="U74">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V74">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W74">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X74">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y74">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z74">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA74">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB74">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC74">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-683111825500</v>
       </c>
+      <c r="Q75">
+        <v>11273430972100</v>
+      </c>
+      <c r="R75">
+        <v>11956542797600</v>
+      </c>
+      <c r="S75">
+        <v>745946800</v>
+      </c>
+      <c r="T75">
+        <v>830577900</v>
+      </c>
+      <c r="U75">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V75">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W75">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X75">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y75">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z75">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA75">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB75">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC75">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-696959501700</v>
       </c>
+      <c r="Q76">
+        <v>11446275398600</v>
+      </c>
+      <c r="R76">
+        <v>12143234900300</v>
+      </c>
+      <c r="S76">
+        <v>756902500</v>
+      </c>
+      <c r="T76">
+        <v>845676300</v>
+      </c>
+      <c r="U76">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V76">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W76">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X76">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y76">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z76">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA76">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB76">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC76">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-760610501500</v>
       </c>
+      <c r="Q77">
+        <v>11566913012600</v>
+      </c>
+      <c r="R77">
+        <v>12327523514100</v>
+      </c>
+      <c r="S77">
+        <v>764330000</v>
+      </c>
+      <c r="T77">
+        <v>858236300</v>
+      </c>
+      <c r="U77">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V77">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W77">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X77">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y77">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z77">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA77">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB77">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC77">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-766399977300</v>
       </c>
+      <c r="Q78">
+        <v>11736897087400</v>
+      </c>
+      <c r="R78">
+        <v>12503297064700</v>
+      </c>
+      <c r="S78">
+        <v>774524500</v>
+      </c>
+      <c r="T78">
+        <v>870346800</v>
+      </c>
+      <c r="U78">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V78">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W78">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X78">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y78">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z78">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA78">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB78">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC78">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-687191067800</v>
       </c>
+      <c r="Q79">
+        <v>11956273946600</v>
+      </c>
+      <c r="R79">
+        <v>12643465014400</v>
+      </c>
+      <c r="S79">
+        <v>786559300</v>
+      </c>
+      <c r="T79">
+        <v>879475900</v>
+      </c>
+      <c r="U79">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V79">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W79">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X79">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y79">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z79">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA79">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB79">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC79">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-672335084800</v>
       </c>
+      <c r="Q80">
+        <v>12166976769000</v>
+      </c>
+      <c r="R80">
+        <v>12839311853800</v>
+      </c>
+      <c r="S80">
+        <v>800033700</v>
+      </c>
+      <c r="T80">
+        <v>891616600</v>
+      </c>
+      <c r="U80">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V80">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W80">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X80">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y80">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z80">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA80">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB80">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC80">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-789789183200</v>
       </c>
+      <c r="Q81">
+        <v>12273015400000</v>
+      </c>
+      <c r="R81">
+        <v>13062804583200</v>
+      </c>
+      <c r="S81">
+        <v>806968300</v>
+      </c>
+      <c r="T81">
+        <v>905653700</v>
+      </c>
+      <c r="U81">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V81">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W81">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X81">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y81">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z81">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA81">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB81">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC81">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-979194114100</v>
       </c>
+      <c r="Q82">
+        <v>12366060394900</v>
+      </c>
+      <c r="R82">
+        <v>13345254509000</v>
+      </c>
+      <c r="S82">
+        <v>812858700</v>
+      </c>
+      <c r="T82">
+        <v>923398800</v>
+      </c>
+      <c r="U82">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V82">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W82">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X82">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y82">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z82">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA82">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB82">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC82">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-1160398309800</v>
       </c>
+      <c r="Q83">
+        <v>12478296977400</v>
+      </c>
+      <c r="R83">
+        <v>13638695287200</v>
+      </c>
+      <c r="S83">
+        <v>819617600</v>
+      </c>
+      <c r="T83">
+        <v>943964300</v>
+      </c>
+      <c r="U83">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V83">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W83">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X83">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y83">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z83">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA83">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB83">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC83">
+        <v>8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-1357300416800</v>
       </c>
+      <c r="Q84">
+        <v>12607076654300</v>
+      </c>
+      <c r="R84">
+        <v>13964377071100</v>
+      </c>
+      <c r="S84">
+        <v>827667800</v>
+      </c>
+      <c r="T84">
+        <v>967050700</v>
+      </c>
+      <c r="U84">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V84">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W84">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X84">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y84">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z84">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA84">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB84">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC84">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-1429233188400</v>
       </c>
+      <c r="Q85">
+        <v>12788840809000</v>
+      </c>
+      <c r="R85">
+        <v>14218073997400</v>
+      </c>
+      <c r="S85">
+        <v>839108100</v>
+      </c>
+      <c r="T85">
+        <v>984353700</v>
+      </c>
+      <c r="U85">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V85">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W85">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X85">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y85">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z85">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA85">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB85">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC85">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-1346827210800</v>
       </c>
+      <c r="Q86">
+        <v>12976642674300</v>
+      </c>
+      <c r="R86">
+        <v>14323469885100</v>
+      </c>
+      <c r="S86">
+        <v>850528700</v>
+      </c>
+      <c r="T86">
+        <v>991942500</v>
+      </c>
+      <c r="U86">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V86">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W86">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X86">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y86">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z86">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA86">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB86">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC86">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-1141041266500</v>
       </c>
+      <c r="Q87">
+        <v>13283602334100</v>
+      </c>
+      <c r="R87">
+        <v>14424643600600</v>
+      </c>
+      <c r="S87">
+        <v>870780500</v>
+      </c>
+      <c r="T87">
+        <v>998330000</v>
+      </c>
+      <c r="U87">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V87">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W87">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X87">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y87">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z87">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA87">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB87">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC87">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-938778266300</v>
       </c>
+      <c r="Q88">
+        <v>13631772481900</v>
+      </c>
+      <c r="R88">
+        <v>14570550748200</v>
+      </c>
+      <c r="S88">
+        <v>895439200</v>
+      </c>
+      <c r="T88">
+        <v>1007207600</v>
+      </c>
+      <c r="U88">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V88">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W88">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X88">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y88">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z88">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA88">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB88">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC88">
+        <v>9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-830839000300</v>
       </c>
+      <c r="Q89">
+        <v>13921522986300</v>
+      </c>
+      <c r="R89">
+        <v>14752361986600</v>
+      </c>
+      <c r="S89">
+        <v>915467000</v>
+      </c>
+      <c r="T89">
+        <v>1018486200</v>
+      </c>
+      <c r="U89">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V89">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W89">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X89">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y89">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z89">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA89">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB89">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC89">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-920684996500</v>
       </c>
+      <c r="Q90">
+        <v>14110021528300</v>
+      </c>
+      <c r="R90">
+        <v>15030706524800</v>
+      </c>
+      <c r="S90">
+        <v>927863400</v>
+      </c>
+      <c r="T90">
+        <v>1036832400</v>
+      </c>
+      <c r="U90">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V90">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W90">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X90">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y90">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z90">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA90">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB90">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC90">
+        <v>4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-954684722800</v>
       </c>
+      <c r="Q91">
+        <v>14255557274500</v>
+      </c>
+      <c r="R91">
+        <v>15210241997300</v>
+      </c>
+      <c r="S91">
+        <v>936542800</v>
+      </c>
+      <c r="T91">
+        <v>1050489900</v>
+      </c>
+      <c r="U91">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V91">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W91">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X91">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y91">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z91">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA91">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB91">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC91">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-927903366100</v>
       </c>
+      <c r="Q92">
+        <v>14394799653200</v>
+      </c>
+      <c r="R92">
+        <v>15322703019300</v>
+      </c>
+      <c r="S92">
+        <v>944923000</v>
+      </c>
+      <c r="T92">
+        <v>1057338800</v>
+      </c>
+      <c r="U92">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V92">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W92">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X92">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y92">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z92">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA92">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB92">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC92">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-872491853600</v>
       </c>
+      <c r="Q93">
+        <v>14558449457400</v>
+      </c>
+      <c r="R93">
+        <v>15430941311000</v>
+      </c>
+      <c r="S93">
+        <v>955750800</v>
+      </c>
+      <c r="T93">
+        <v>1063436400</v>
+      </c>
+      <c r="U93">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V93">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W93">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X93">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y93">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z93">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA93">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB93">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC93">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-835945995800</v>
       </c>
+      <c r="Q94">
+        <v>14701887488400</v>
+      </c>
+      <c r="R94">
+        <v>15537833484200</v>
+      </c>
+      <c r="S94">
+        <v>964181300</v>
+      </c>
+      <c r="T94">
+        <v>1070068600</v>
+      </c>
+      <c r="U94">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V94">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W94">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X94">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y94">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z94">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA94">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB94">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC94">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-972461912100</v>
       </c>
+      <c r="Q95">
+        <v>14771971140300</v>
+      </c>
+      <c r="R95">
+        <v>15744433052400</v>
+      </c>
+      <c r="S95">
+        <v>968770600</v>
+      </c>
+      <c r="T95">
+        <v>1082398000</v>
+      </c>
+      <c r="U95">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V95">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W95">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X95">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y95">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z95">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA95">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB95">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC95">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-1153419376000</v>
       </c>
+      <c r="Q96">
+        <v>14849158759600</v>
+      </c>
+      <c r="R96">
+        <v>16002578135600</v>
+      </c>
+      <c r="S96">
+        <v>973345500</v>
+      </c>
+      <c r="T96">
+        <v>1098986500</v>
+      </c>
+      <c r="U96">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V96">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W96">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X96">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y96">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z96">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA96">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB96">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC96">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-1316063543800</v>
       </c>
+      <c r="Q97">
+        <v>14929708800900</v>
+      </c>
+      <c r="R97">
+        <v>16245772344700</v>
+      </c>
+      <c r="S97">
+        <v>978824000</v>
+      </c>
+      <c r="T97">
+        <v>1114988800</v>
+      </c>
+      <c r="U97">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V97">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W97">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X97">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y97">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z97">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA97">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB97">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC97">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-1430625371600</v>
       </c>
+      <c r="Q98">
+        <v>15022961291500</v>
+      </c>
+      <c r="R98">
+        <v>16453586663100</v>
+      </c>
+      <c r="S98">
+        <v>985515000</v>
+      </c>
+      <c r="T98">
+        <v>1128705400</v>
+      </c>
+      <c r="U98">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V98">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W98">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X98">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y98">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z98">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA98">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB98">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC98">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-1421142926400</v>
       </c>
+      <c r="Q99">
+        <v>15213672195400</v>
+      </c>
+      <c r="R99">
+        <v>16634815121800</v>
+      </c>
+      <c r="S99">
+        <v>996271700</v>
+      </c>
+      <c r="T99">
+        <v>1141841900</v>
+      </c>
+      <c r="U99">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V99">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W99">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X99">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y99">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z99">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA99">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB99">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC99">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-1659702143800</v>
       </c>
+      <c r="Q100">
+        <v>15362357372400</v>
+      </c>
+      <c r="R100">
+        <v>17022059516200</v>
+      </c>
+      <c r="S100">
+        <v>1006120800</v>
+      </c>
+      <c r="T100">
+        <v>1168634400</v>
+      </c>
+      <c r="U100">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V100">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W100">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X100">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y100">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z100">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA100">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB100">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC100">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-2027942120600</v>
       </c>
+      <c r="Q101">
+        <v>15496831367200</v>
+      </c>
+      <c r="R101">
+        <v>17524773487800</v>
+      </c>
+      <c r="S101">
+        <v>1014740200</v>
+      </c>
+      <c r="T101">
+        <v>1204584600</v>
+      </c>
+      <c r="U101">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V101">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W101">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X101">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y101">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z101">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA101">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB101">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC101">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-2330607516900</v>
       </c>
+      <c r="Q102">
+        <v>15652550679500</v>
+      </c>
+      <c r="R102">
+        <v>17983158196400</v>
+      </c>
+      <c r="S102">
+        <v>1023367000</v>
+      </c>
+      <c r="T102">
+        <v>1237331500</v>
+      </c>
+      <c r="U102">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V102">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W102">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X102">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y102">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z102">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA102">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB102">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC102">
+        <v>13.4</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-2410288785700</v>
       </c>
+      <c r="Q103">
+        <v>15857942480600</v>
+      </c>
+      <c r="R103">
+        <v>18268231266300</v>
+      </c>
+      <c r="S103">
+        <v>1036306600</v>
+      </c>
+      <c r="T103">
+        <v>1261319700</v>
+      </c>
+      <c r="U103">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V103">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W103">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X103">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y103">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z103">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA103">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB103">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC103">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-2686611457700</v>
       </c>
+      <c r="Q104">
+        <v>16052491780700</v>
+      </c>
+      <c r="R104">
+        <v>18739103238400</v>
+      </c>
+      <c r="S104">
+        <v>1050175400</v>
+      </c>
+      <c r="T104">
+        <v>1296069800</v>
+      </c>
+      <c r="U104">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V104">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W104">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X104">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y104">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z104">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA104">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB104">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC104">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-2829213337700</v>
       </c>
+      <c r="Q105">
+        <v>16266124855100</v>
+      </c>
+      <c r="R105">
+        <v>19095338192800</v>
+      </c>
+      <c r="S105">
+        <v>1067863300</v>
+      </c>
+      <c r="T105">
+        <v>1325111900</v>
+      </c>
+      <c r="U105">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V105">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W105">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X105">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y105">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z105">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA105">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB105">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC105">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-2495430795800</v>
       </c>
+      <c r="Q106">
+        <v>16745173168600</v>
+      </c>
+      <c r="R106">
+        <v>19240603964400</v>
+      </c>
+      <c r="S106">
+        <v>1097612900</v>
+      </c>
+      <c r="T106">
+        <v>1335197100</v>
+      </c>
+      <c r="U106">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V106">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W106">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X106">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y106">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z106">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA106">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB106">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC106">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-2283325605800</v>
       </c>
+      <c r="Q107">
+        <v>17059329119900</v>
+      </c>
+      <c r="R107">
+        <v>19342654725700</v>
+      </c>
+      <c r="S107">
+        <v>1118904900</v>
+      </c>
+      <c r="T107">
+        <v>1341215500</v>
+      </c>
+      <c r="U107">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V107">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W107">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X107">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y107">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z107">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA107">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB107">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC107">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-2171741315600</v>
       </c>
+      <c r="Q108">
+        <v>17296816245500</v>
+      </c>
+      <c r="R108">
+        <v>19468557561100</v>
+      </c>
+      <c r="S108">
+        <v>1133766700</v>
+      </c>
+      <c r="T108">
+        <v>1349202000</v>
+      </c>
+      <c r="U108">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V108">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W108">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X108">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y108">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z108">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA108">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB108">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC108">
+        <v>5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-2180529980700</v>
       </c>
+      <c r="Q109">
+        <v>17480080791900</v>
+      </c>
+      <c r="R109">
+        <v>19660610772600</v>
+      </c>
+      <c r="S109">
+        <v>1144563500</v>
+      </c>
+      <c r="T109">
+        <v>1360862000</v>
+      </c>
+      <c r="U109">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V109">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W109">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X109">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y109">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z109">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA109">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB109">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC109">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-2221910075300</v>
       </c>
+      <c r="Q110">
+        <v>17625265194400</v>
+      </c>
+      <c r="R110">
+        <v>19847175269700</v>
+      </c>
+      <c r="S110">
+        <v>1154066400</v>
+      </c>
+      <c r="T110">
+        <v>1373714800</v>
+      </c>
+      <c r="U110">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V110">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W110">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X110">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y110">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z110">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA110">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB110">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC110">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-2300126956800</v>
       </c>
+      <c r="Q111">
+        <v>17761053538600</v>
+      </c>
+      <c r="R111">
+        <v>20061180495400</v>
+      </c>
+      <c r="S111">
+        <v>1162927900</v>
+      </c>
+      <c r="T111">
+        <v>1389582500</v>
+      </c>
+      <c r="U111">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V111">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W111">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X111">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y111">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z111">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA111">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB111">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC111">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-2506173290600</v>
       </c>
+      <c r="Q112">
+        <v>17879247449600</v>
+      </c>
+      <c r="R112">
+        <v>20385420740200</v>
+      </c>
+      <c r="S112">
+        <v>1171528100</v>
+      </c>
+      <c r="T112">
+        <v>1412202100</v>
+      </c>
+      <c r="U112">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V112">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W112">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X112">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y112">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z112">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA112">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB112">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC112">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-2724096113100</v>
       </c>
+      <c r="Q113">
+        <v>18026063788500</v>
+      </c>
+      <c r="R113">
+        <v>20750159901600</v>
+      </c>
+      <c r="S113">
+        <v>1182109700</v>
+      </c>
+      <c r="T113">
+        <v>1436849500</v>
+      </c>
+      <c r="U113">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V113">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W113">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X113">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y113">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z113">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA113">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB113">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC113">
+        <v>9.7</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-2850502773700</v>
       </c>
+      <c r="Q114">
+        <v>18205368479500</v>
+      </c>
+      <c r="R114">
+        <v>21055871253200</v>
+      </c>
+      <c r="S114">
+        <v>1194180100</v>
+      </c>
+      <c r="T114">
+        <v>1459626500</v>
+      </c>
+      <c r="U114">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V114">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W114">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X114">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y114">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z114">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA114">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB114">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC114">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-2962192677700</v>
       </c>
+      <c r="Q115">
+        <v>18408385530300</v>
+      </c>
+      <c r="R115">
+        <v>21370578208000</v>
+      </c>
+      <c r="S115">
+        <v>1207725400</v>
+      </c>
+      <c r="T115">
+        <v>1481054100</v>
+      </c>
+      <c r="U115">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V115">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W115">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X115">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y115">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z115">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA115">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB115">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC115">
+        <v>5</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-2962853766300</v>
       </c>
+      <c r="Q116">
+        <v>18413429056500</v>
+      </c>
+      <c r="R116">
+        <v>21376282822800</v>
+      </c>
+      <c r="S116">
+        <v>1208056100</v>
+      </c>
+      <c r="T116">
+        <v>1481649500</v>
+      </c>
+      <c r="U116">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V116">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W116">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X116">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y116">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z116">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA116">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB116">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>-2962853665300</v>
       </c>
+      <c r="Q117">
+        <v>18413429157500</v>
+      </c>
+      <c r="R117">
+        <v>21376282822800</v>
+      </c>
+      <c r="S117">
+        <v>1208066200</v>
+      </c>
+      <c r="T117">
+        <v>1481649500</v>
+      </c>
+      <c r="U117">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V117">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W117">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X117">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y117">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z117">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA117">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB117">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>-2962853663300</v>
       </c>
+      <c r="Q118">
+        <v>18413429159500</v>
+      </c>
+      <c r="R118">
+        <v>21376282822800</v>
+      </c>
+      <c r="S118">
+        <v>1208066400</v>
+      </c>
+      <c r="T118">
+        <v>1481649500</v>
+      </c>
+      <c r="U118">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V118">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W118">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X118">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y118">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z118">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA118">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB118">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>-2962853665300</v>
       </c>
+      <c r="Q119">
+        <v>18413429162500</v>
+      </c>
+      <c r="R119">
+        <v>21376282827800</v>
+      </c>
+      <c r="S119">
+        <v>1208066700</v>
+      </c>
+      <c r="T119">
+        <v>1481650000</v>
+      </c>
+      <c r="U119">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V119">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W119">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X119">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y119">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z119">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA119">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB119">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>-2962853670300</v>
       </c>
+      <c r="Q120">
+        <v>18413429162500</v>
+      </c>
+      <c r="R120">
+        <v>21376282832800</v>
+      </c>
+      <c r="S120">
+        <v>1208066700</v>
+      </c>
+      <c r="T120">
+        <v>1481650500</v>
+      </c>
+      <c r="U120">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V120">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W120">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X120">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y120">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z120">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA120">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB120">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>-2793330900500</v>
       </c>
+      <c r="Q121">
+        <v>18786658155700</v>
+      </c>
+      <c r="R121">
+        <v>21579989056200</v>
+      </c>
+      <c r="S121">
+        <v>1227738200</v>
+      </c>
+      <c r="T121">
+        <v>1497327300</v>
+      </c>
+      <c r="U121">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V121">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W121">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X121">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y121">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z121">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA121">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB121">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC121">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,6 +11220,45 @@
       <c r="P122">
         <v>-2793350700500</v>
       </c>
+      <c r="Q122">
+        <v>18786658155700</v>
+      </c>
+      <c r="R122">
+        <v>21580008856200</v>
+      </c>
+      <c r="S122">
+        <v>1227738200</v>
+      </c>
+      <c r="T122">
+        <v>1497329300</v>
+      </c>
+      <c r="U122">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V122">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W122">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X122">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y122">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z122">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA122">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB122">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -6551,6 +11309,45 @@
       <c r="P123">
         <v>-2793407130500</v>
       </c>
+      <c r="Q123">
+        <v>18786658155700</v>
+      </c>
+      <c r="R123">
+        <v>21580065286200</v>
+      </c>
+      <c r="S123">
+        <v>1227738200</v>
+      </c>
+      <c r="T123">
+        <v>1497335000</v>
+      </c>
+      <c r="U123">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V123">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W123">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X123">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y123">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z123">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA123">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB123">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -6601,6 +11398,45 @@
       <c r="P124">
         <v>-2793436830500</v>
       </c>
+      <c r="Q124">
+        <v>18786658155700</v>
+      </c>
+      <c r="R124">
+        <v>21580094986200</v>
+      </c>
+      <c r="S124">
+        <v>1227738200</v>
+      </c>
+      <c r="T124">
+        <v>1497338000</v>
+      </c>
+      <c r="U124">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V124">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W124">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X124">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y124">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z124">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA124">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB124">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -6651,10 +11487,49 @@
       <c r="P125">
         <v>-2793435820500</v>
       </c>
+      <c r="Q125">
+        <v>18786659165700</v>
+      </c>
+      <c r="R125">
+        <v>21580094986200</v>
+      </c>
+      <c r="S125">
+        <v>1227738300</v>
+      </c>
+      <c r="T125">
+        <v>1497338000</v>
+      </c>
+      <c r="U125">
+        <v>151505315852.4</v>
+      </c>
+      <c r="V125">
+        <v>174033024082.3</v>
+      </c>
+      <c r="W125">
+        <v>344084597641.9</v>
+      </c>
+      <c r="X125">
+        <v>23233514.5</v>
+      </c>
+      <c r="Y125">
+        <v>9901115.3</v>
+      </c>
+      <c r="Z125">
+        <v>12075306.5</v>
+      </c>
+      <c r="AA125">
+        <v>-2174191.1</v>
+      </c>
+      <c r="AB125">
+        <v>-22527708229.8</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P125"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC125"/>
   </ignoredErrors>
 </worksheet>
 </file>